--- a/output/Phase & Deprivation.xlsx
+++ b/output/Phase & Deprivation.xlsx
@@ -672,22 +672,22 @@
         <v>7023</v>
       </c>
       <c r="J4" s="3">
-        <v>35149837.06206554</v>
+        <v>34181328.52926175</v>
       </c>
       <c r="K4" s="3">
-        <v>34280357.43877611</v>
+        <v>33476038.09192182</v>
       </c>
       <c r="L4" s="3">
-        <v>35855170.06460179</v>
+        <v>35076199.22592485</v>
       </c>
       <c r="M4" s="3">
-        <v>37984805.67607906</v>
+        <v>37371299.60768432</v>
       </c>
       <c r="N4" s="3">
-        <v>39782217.07243659</v>
+        <v>39612291.29145883</v>
       </c>
       <c r="O4" s="3">
-        <v>44376953.04395427</v>
+        <v>44185534.98916744</v>
       </c>
       <c r="P4" s="4">
         <v>0.8181818181818182</v>
@@ -702,55 +702,55 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="T4" s="4">
-        <v>0.7272727272727273</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="U4" s="5">
-        <v>6939.750653912249</v>
+        <v>6748.534754049704</v>
       </c>
       <c r="V4" s="5">
-        <v>6285.937001700945</v>
+        <v>6138.450186471408</v>
       </c>
       <c r="W4" s="5">
-        <v>6006.897313553658</v>
+        <v>5876.394576298349</v>
       </c>
       <c r="X4" s="5">
-        <v>5791.24953134305</v>
+        <v>5697.713006202824</v>
       </c>
       <c r="Y4" s="5">
-        <v>5853.769433848821</v>
+        <v>5828.765640297062</v>
       </c>
       <c r="Z4" s="5">
-        <v>6318.802939478039</v>
+        <v>6291.547058118674</v>
       </c>
       <c r="AA4" s="5">
-        <v>-653.8136522113036</v>
+        <v>-610.0845675782966</v>
       </c>
       <c r="AB4" s="5">
-        <v>-932.8533403585907</v>
+        <v>-872.1401777513547</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1148.501122569199</v>
+        <v>-1050.82174784688</v>
       </c>
       <c r="AD4" s="5">
-        <v>-1085.981220063428</v>
+        <v>-919.7691137526426</v>
       </c>
       <c r="AE4" s="5">
-        <v>-620.94771443421</v>
+        <v>-456.9876959310304</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.0942128449302021</v>
+        <v>-0.09040252289020123</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1344217374485493</v>
+        <v>-0.1292340055340154</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1654960213767532</v>
+        <v>-0.1557110967260407</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.1564870662105434</v>
+        <v>-0.1362916762339709</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.08947694887051216</v>
+        <v>-0.06771658035202355</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -782,22 +782,22 @@
         <v>29675.5</v>
       </c>
       <c r="J5" s="3">
-        <v>145911933.621356</v>
+        <v>141891518.0359109</v>
       </c>
       <c r="K5" s="3">
-        <v>151790582.7209703</v>
+        <v>148229123.288384</v>
       </c>
       <c r="L5" s="3">
-        <v>158160811.5669827</v>
+        <v>154724691.7602664</v>
       </c>
       <c r="M5" s="3">
-        <v>155434319.9342734</v>
+        <v>152923845.1057411</v>
       </c>
       <c r="N5" s="3">
-        <v>158663881.2521526</v>
+        <v>157986164.2740958</v>
       </c>
       <c r="O5" s="3">
-        <v>171752425.4374519</v>
+        <v>171011578.8284116</v>
       </c>
       <c r="P5" s="4">
         <v>0.8181818181818182</v>
@@ -806,61 +806,61 @@
         <v>0.7727272727272727</v>
       </c>
       <c r="R5" s="4">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="S5" s="4">
         <v>0.9545454545454546</v>
       </c>
-      <c r="S5" s="4">
-        <v>1</v>
-      </c>
       <c r="T5" s="4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="U5" s="5">
-        <v>6404.843123646644</v>
+        <v>6228.365912512825</v>
       </c>
       <c r="V5" s="5">
-        <v>6165.086012792752</v>
+        <v>6020.434721919662</v>
       </c>
       <c r="W5" s="5">
-        <v>6043.015056528136</v>
+        <v>5911.727643911219</v>
       </c>
       <c r="X5" s="5">
-        <v>5664.825698717982</v>
+        <v>5573.331089736726</v>
       </c>
       <c r="Y5" s="5">
-        <v>5522.68160783002</v>
+        <v>5499.092022976237</v>
       </c>
       <c r="Z5" s="5">
-        <v>5787.684299757439</v>
+        <v>5762.719375525655</v>
       </c>
       <c r="AA5" s="5">
-        <v>-239.7571108538923</v>
+        <v>-207.9311905931627</v>
       </c>
       <c r="AB5" s="5">
-        <v>-361.8280671185075</v>
+        <v>-316.6382686016059</v>
       </c>
       <c r="AC5" s="5">
-        <v>-740.017424928662</v>
+        <v>-655.0348227760996</v>
       </c>
       <c r="AD5" s="5">
-        <v>-882.1615158166242</v>
+        <v>-729.2738895365883</v>
       </c>
       <c r="AE5" s="5">
-        <v>-617.1588238892045</v>
+        <v>-465.6465369871703</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.03743372104910903</v>
+        <v>-0.0333845495775108</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.0564928851703862</v>
+        <v>-0.05083809670935957</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.115540288909891</v>
+        <v>-0.1051696114160747</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1377335086568614</v>
+        <v>-0.1170891209316191</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.09635814835349488</v>
+        <v>-0.0747622319446074</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -869,106 +869,106 @@
         <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>19706.5</v>
+        <v>21013.5</v>
       </c>
       <c r="E6" s="2">
-        <v>20947</v>
+        <v>22285</v>
       </c>
       <c r="F6" s="2">
-        <v>22280.5</v>
+        <v>23671.5</v>
       </c>
       <c r="G6" s="2">
-        <v>23448.5</v>
+        <v>24916.5</v>
       </c>
       <c r="H6" s="2">
-        <v>24314</v>
+        <v>25795</v>
       </c>
       <c r="I6" s="2">
-        <v>25450.5</v>
+        <v>27033.5</v>
       </c>
       <c r="J6" s="3">
-        <v>140265122.1979899</v>
+        <v>145819222.8014564</v>
       </c>
       <c r="K6" s="3">
-        <v>141320916.4084607</v>
+        <v>147053898.5942961</v>
       </c>
       <c r="L6" s="3">
-        <v>143634697.210835</v>
+        <v>149549471.3212292</v>
       </c>
       <c r="M6" s="3">
-        <v>149439779.0967703</v>
+        <v>153230261.8302794</v>
       </c>
       <c r="N6" s="3">
-        <v>149371454.6561195</v>
+        <v>158904152.7931559</v>
       </c>
       <c r="O6" s="3">
-        <v>158636687.3994634</v>
+        <v>169069491.0012142</v>
       </c>
       <c r="P6" s="4">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q6" s="4">
-        <v>0.9</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="R6" s="4">
-        <v>0.9</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="S6" s="4">
-        <v>0.9</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="T6" s="4">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U6" s="5">
-        <v>7117.70848187095</v>
+        <v>6939.311528372543</v>
       </c>
       <c r="V6" s="5">
-        <v>6746.594567645044</v>
+        <v>6598.783872304065</v>
       </c>
       <c r="W6" s="5">
-        <v>6446.655021693183</v>
+        <v>6317.701511151775</v>
       </c>
       <c r="X6" s="5">
-        <v>6373.106130318372</v>
+        <v>6149.750640349946</v>
       </c>
       <c r="Y6" s="5">
-        <v>6143.43401563377</v>
+        <v>6160.269540343319</v>
       </c>
       <c r="Z6" s="5">
-        <v>6233.14620142879</v>
+        <v>6254.073316485628</v>
       </c>
       <c r="AA6" s="5">
-        <v>-371.1139142259062</v>
+        <v>-340.5276560684779</v>
       </c>
       <c r="AB6" s="5">
-        <v>-671.0534601777672</v>
+        <v>-621.610017220768</v>
       </c>
       <c r="AC6" s="5">
-        <v>-744.6023515525776</v>
+        <v>-789.5608880225964</v>
       </c>
       <c r="AD6" s="5">
-        <v>-974.2744662371797</v>
+        <v>-779.0419880292238</v>
       </c>
       <c r="AE6" s="5">
-        <v>-884.56228044216</v>
+        <v>-685.2382118869145</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.05213952147255629</v>
+        <v>-0.0490722537352839</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.09427942460511884</v>
+        <v>-0.08957805319435663</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.104612650749761</v>
+        <v>-0.1137808678561762</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1368803553445171</v>
+        <v>-0.1122650258377909</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.124276272721083</v>
+        <v>-0.09874729057561438</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -998,22 +998,22 @@
         <v>32672</v>
       </c>
       <c r="J7" s="3">
-        <v>188960437.5089236</v>
+        <v>183753875.7895454</v>
       </c>
       <c r="K7" s="3">
-        <v>190096860.3005123</v>
+        <v>185636621.4366372</v>
       </c>
       <c r="L7" s="3">
-        <v>196646752.2255142</v>
+        <v>192374506.8219027</v>
       </c>
       <c r="M7" s="3">
-        <v>207003649.9105675</v>
+        <v>203660260.5436984</v>
       </c>
       <c r="N7" s="3">
-        <v>205763426.42686</v>
+        <v>204884528.4290793</v>
       </c>
       <c r="O7" s="3">
-        <v>219146087.5270714</v>
+        <v>218200810.420123</v>
       </c>
       <c r="P7" s="4">
         <v>0.9130434782608695</v>
@@ -1031,52 +1031,52 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="U7" s="5">
-        <v>7717.080679119644</v>
+        <v>7504.446450606283</v>
       </c>
       <c r="V7" s="5">
-        <v>7294.724008538623</v>
+        <v>7123.568043770494</v>
       </c>
       <c r="W7" s="5">
-        <v>6984.186398121687</v>
+        <v>6832.451584809726</v>
       </c>
       <c r="X7" s="5">
-        <v>6821.897241977574</v>
+        <v>6711.714360127155</v>
       </c>
       <c r="Y7" s="5">
-        <v>6469.530779024053</v>
+        <v>6441.896822168818</v>
       </c>
       <c r="Z7" s="5">
-        <v>6707.458604525938</v>
+        <v>6678.526273877419</v>
       </c>
       <c r="AA7" s="5">
-        <v>-422.3566705810208</v>
+        <v>-380.8784068357891</v>
       </c>
       <c r="AB7" s="5">
-        <v>-732.8942809979571</v>
+        <v>-671.994865796557</v>
       </c>
       <c r="AC7" s="5">
-        <v>-895.18343714207</v>
+        <v>-792.7320904791286</v>
       </c>
       <c r="AD7" s="5">
-        <v>-1247.549900095591</v>
+        <v>-1062.549628437465</v>
       </c>
       <c r="AE7" s="5">
-        <v>-1009.622074593705</v>
+        <v>-825.9201767288641</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05473010949902402</v>
+        <v>-0.05075369773676219</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.09497040545150359</v>
+        <v>-0.08954622705612969</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.116000269320003</v>
+        <v>-0.1056349852979608</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.1616608601062222</v>
+        <v>-0.1415893411234378</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.1308295347132333</v>
+        <v>-0.1100574415668111</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1106,22 +1106,22 @@
         <v>33119.5</v>
       </c>
       <c r="J8" s="3">
-        <v>228469589.1008044</v>
+        <v>222174403.5459016</v>
       </c>
       <c r="K8" s="3">
-        <v>231316725.9899554</v>
+        <v>225889346.2347414</v>
       </c>
       <c r="L8" s="3">
-        <v>236336467.3464344</v>
+        <v>231201943.7659549</v>
       </c>
       <c r="M8" s="3">
-        <v>240581921.5252056</v>
+        <v>236696197.584416</v>
       </c>
       <c r="N8" s="3">
-        <v>236216303.3240126</v>
+        <v>235207328.8933285</v>
       </c>
       <c r="O8" s="3">
-        <v>241914664.3145562</v>
+        <v>240871175.9429766</v>
       </c>
       <c r="P8" s="4">
         <v>0.8333333333333334</v>
@@ -1133,58 +1133,58 @@
         <v>0.875</v>
       </c>
       <c r="S8" s="4">
-        <v>0.9583333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="T8" s="4">
-        <v>0.9166666666666666</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="U8" s="5">
-        <v>8378.056072636758</v>
+        <v>8147.209517634821</v>
       </c>
       <c r="V8" s="5">
-        <v>8047.058704491325</v>
+        <v>7858.250725669805</v>
       </c>
       <c r="W8" s="5">
-        <v>7865.559534943068</v>
+        <v>7694.676465735512</v>
       </c>
       <c r="X8" s="5">
-        <v>7523.474991015732</v>
+        <v>7401.9606781148</v>
       </c>
       <c r="Y8" s="5">
-        <v>7145.835261567697</v>
+        <v>7115.312537423155</v>
       </c>
       <c r="Z8" s="5">
-        <v>7304.296994657413</v>
+        <v>7272.790227599348</v>
       </c>
       <c r="AA8" s="5">
-        <v>-330.9973681454339</v>
+        <v>-288.9587919650157</v>
       </c>
       <c r="AB8" s="5">
-        <v>-512.4965376936907</v>
+        <v>-452.5330518993087</v>
       </c>
       <c r="AC8" s="5">
-        <v>-854.5810816210269</v>
+        <v>-745.2488395200207</v>
       </c>
       <c r="AD8" s="5">
-        <v>-1232.220811069062</v>
+        <v>-1031.896980211666</v>
       </c>
       <c r="AE8" s="5">
-        <v>-1073.759077979345</v>
+        <v>-874.4192900354728</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.03950765729851002</v>
+        <v>-0.03546721013367315</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.06117129477893279</v>
+        <v>-0.05554454576377232</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.1020023110626033</v>
+        <v>-0.09147289484907839</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.1470771740348659</v>
+        <v>-0.1266564923828338</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.1281632718461158</v>
+        <v>-0.1073274583331596</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1214,22 +1214,22 @@
         <v>26322.5</v>
       </c>
       <c r="J9" s="3">
-        <v>194583261.1913444</v>
+        <v>189221769.8003077</v>
       </c>
       <c r="K9" s="3">
-        <v>189565836.4745135</v>
+        <v>185118057.0121384</v>
       </c>
       <c r="L9" s="3">
-        <v>184959956.6584424</v>
+        <v>180941612.5172687</v>
       </c>
       <c r="M9" s="3">
-        <v>181374014.8177951</v>
+        <v>178444578.7772704</v>
       </c>
       <c r="N9" s="3">
-        <v>184102123.4975994</v>
+        <v>183315749.5994823</v>
       </c>
       <c r="O9" s="3">
-        <v>195172666.9459567</v>
+        <v>194330798.1448846</v>
       </c>
       <c r="P9" s="4">
         <v>0.95</v>
@@ -1241,58 +1241,58 @@
         <v>0.95</v>
       </c>
       <c r="S9" s="4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="T9" s="4">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U9" s="5">
-        <v>8565.535114290811</v>
+        <v>8329.522815526158</v>
       </c>
       <c r="V9" s="5">
-        <v>8022.422669735438</v>
+        <v>7834.192725708897</v>
       </c>
       <c r="W9" s="5">
-        <v>7653.884945829484</v>
+        <v>7487.600609019828</v>
       </c>
       <c r="X9" s="5">
-        <v>7323.212937287323</v>
+        <v>7204.933127842307</v>
       </c>
       <c r="Y9" s="5">
-        <v>7221.673537739749</v>
+        <v>7190.826877946191</v>
       </c>
       <c r="Z9" s="5">
-        <v>7414.670602942604</v>
+        <v>7382.687744130861</v>
       </c>
       <c r="AA9" s="5">
-        <v>-543.1124445553733</v>
+        <v>-495.3300898172602</v>
       </c>
       <c r="AB9" s="5">
-        <v>-911.6501684613268</v>
+        <v>-841.9222065063295</v>
       </c>
       <c r="AC9" s="5">
-        <v>-1242.322177003488</v>
+        <v>-1124.589687683851</v>
       </c>
       <c r="AD9" s="5">
-        <v>-1343.861576551062</v>
+        <v>-1138.695937579966</v>
       </c>
       <c r="AE9" s="5">
-        <v>-1150.864511348207</v>
+        <v>-946.8350713952968</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.06340671508651452</v>
+        <v>-0.05946680269534399</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.1064323660223309</v>
+        <v>-0.101076883412456</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.1450373106206508</v>
+        <v>-0.1350124986256866</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1568917246406418</v>
+        <v>-0.1367060229977937</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.1343599081659352</v>
+        <v>-0.1136721865543612</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1303,106 +1303,106 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2">
-        <v>15139</v>
+        <v>15219</v>
       </c>
       <c r="E10" s="2">
-        <v>15645</v>
+        <v>15700.5</v>
       </c>
       <c r="F10" s="2">
-        <v>17271</v>
+        <v>17349.5</v>
       </c>
       <c r="G10" s="2">
-        <v>17444.5</v>
+        <v>17529.5</v>
       </c>
       <c r="H10" s="2">
-        <v>17865.5</v>
+        <v>17995.5</v>
       </c>
       <c r="I10" s="2">
-        <v>16070</v>
+        <v>16237.5</v>
       </c>
       <c r="J10" s="3">
-        <v>171074975.8339389</v>
+        <v>168921585.3651781</v>
       </c>
       <c r="K10" s="3">
-        <v>164519302.8456801</v>
+        <v>162813702.2085817</v>
       </c>
       <c r="L10" s="3">
-        <v>169965875.1058754</v>
+        <v>168355375.6572177</v>
       </c>
       <c r="M10" s="3">
-        <v>171836815.2449505</v>
+        <v>171034500.5684405</v>
       </c>
       <c r="N10" s="3">
-        <v>164097395.79152</v>
+        <v>164939673.1191611</v>
       </c>
       <c r="O10" s="3">
-        <v>158376306.3374634</v>
+        <v>159366467.0471354</v>
       </c>
       <c r="P10" s="4">
-        <v>0.6573705179282868</v>
+        <v>0.6561264822134387</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.8207171314741036</v>
+        <v>0.8142292490118577</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7609561752988048</v>
+        <v>0.7470355731225297</v>
       </c>
       <c r="S10" s="4">
-        <v>0.8047808764940239</v>
+        <v>0.7865612648221344</v>
       </c>
       <c r="T10" s="4">
-        <v>0.6693227091633466</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="U10" s="5">
-        <v>11300.28243833403</v>
+        <v>11099.38796012735</v>
       </c>
       <c r="V10" s="5">
-        <v>10515.77518988048</v>
+        <v>10369.96924993355</v>
       </c>
       <c r="W10" s="5">
-        <v>9841.113722765063</v>
+        <v>9703.75951221751</v>
       </c>
       <c r="X10" s="5">
-        <v>9850.486700389838</v>
+        <v>9756.952598102655</v>
       </c>
       <c r="Y10" s="5">
-        <v>9185.155511545714</v>
+        <v>9165.60657493046</v>
       </c>
       <c r="Z10" s="5">
-        <v>9855.401763376693</v>
+        <v>9814.716985196943</v>
       </c>
       <c r="AA10" s="5">
-        <v>-784.5072484535576</v>
+        <v>-729.4187101938005</v>
       </c>
       <c r="AB10" s="5">
-        <v>-1459.168715568971</v>
+        <v>-1395.628447909839</v>
       </c>
       <c r="AC10" s="5">
-        <v>-1449.795737944196</v>
+        <v>-1342.435362024695</v>
       </c>
       <c r="AD10" s="5">
-        <v>-2115.12692678832</v>
+        <v>-1933.781385196889</v>
       </c>
       <c r="AE10" s="5">
-        <v>-1444.880674957341</v>
+        <v>-1284.670974930406</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.06942368500386042</v>
+        <v>-0.06571702086764719</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.1291267473650943</v>
+        <v>-0.1257392257053628</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.1282973010502855</v>
+        <v>-0.1209467915570808</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.1871746957061142</v>
+        <v>-0.1742241457045801</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.127862350595403</v>
+        <v>-0.1157425057620625</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1432,22 +1432,22 @@
         <v>4304.5</v>
       </c>
       <c r="J11" s="3">
-        <v>58716067.131922</v>
+        <v>57098221.4523095</v>
       </c>
       <c r="K11" s="3">
-        <v>54932152.08895215</v>
+        <v>53643280.09371711</v>
       </c>
       <c r="L11" s="3">
-        <v>53852401.1975572</v>
+        <v>52682431.84446124</v>
       </c>
       <c r="M11" s="3">
-        <v>54173286.33054843</v>
+        <v>53298314.36959913</v>
       </c>
       <c r="N11" s="3">
-        <v>52131424.30096538</v>
+        <v>51908750.1103416</v>
       </c>
       <c r="O11" s="3">
-        <v>49085692.19589784</v>
+        <v>48873963.19979713</v>
       </c>
       <c r="P11" s="4">
         <v>0.6229508196721312</v>
@@ -1456,61 +1456,61 @@
         <v>0.7377049180327869</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7868852459016393</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="S11" s="4">
-        <v>0.7540983606557377</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="T11" s="4">
-        <v>0.7213114754098361</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="U11" s="5">
-        <v>13184.25219084361</v>
+        <v>12820.977085957</v>
       </c>
       <c r="V11" s="5">
-        <v>12173.33010281488</v>
+        <v>11887.70749999271</v>
       </c>
       <c r="W11" s="5">
-        <v>11373.26318850205</v>
+        <v>11126.17356799604</v>
       </c>
       <c r="X11" s="5">
-        <v>11082.91455207619</v>
+        <v>10903.91046841226</v>
       </c>
       <c r="Y11" s="5">
-        <v>10796.60853287054</v>
+        <v>10750.49189403368</v>
       </c>
       <c r="Z11" s="5">
-        <v>11403.34352326585</v>
+        <v>11354.15569747872</v>
       </c>
       <c r="AA11" s="5">
-        <v>-1010.922088028725</v>
+        <v>-933.2695859642881</v>
       </c>
       <c r="AB11" s="5">
-        <v>-1810.989002341557</v>
+        <v>-1694.803517960961</v>
       </c>
       <c r="AC11" s="5">
-        <v>-2101.337638767414</v>
+        <v>-1917.066617544739</v>
       </c>
       <c r="AD11" s="5">
-        <v>-2387.643657973071</v>
+        <v>-2070.485191923324</v>
       </c>
       <c r="AE11" s="5">
-        <v>-1780.90866757776</v>
+        <v>-1466.821388478284</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.07667648292792861</v>
+        <v>-0.07279239169583351</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.1373600092085071</v>
+        <v>-0.1321898874476036</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.1593823910791681</v>
+        <v>-0.1495257814355295</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.181098148261399</v>
+        <v>-0.1614919969080326</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.1350784740612434</v>
+        <v>-0.1144079252808987</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1521,106 +1521,106 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>2888</v>
+        <v>2870</v>
       </c>
       <c r="D12" s="2">
-        <v>655116</v>
+        <v>652804</v>
       </c>
       <c r="E12" s="2">
-        <v>664604.5</v>
+        <v>662206</v>
       </c>
       <c r="F12" s="2">
-        <v>673602</v>
+        <v>671320</v>
       </c>
       <c r="G12" s="2">
-        <v>676809</v>
+        <v>674385</v>
       </c>
       <c r="H12" s="2">
-        <v>677880.5</v>
+        <v>675511.5</v>
       </c>
       <c r="I12" s="2">
-        <v>676293</v>
+        <v>673996</v>
       </c>
       <c r="J12" s="3">
-        <v>3428470773.912393</v>
+        <v>3320596524.275596</v>
       </c>
       <c r="K12" s="3">
-        <v>3360476071.138614</v>
+        <v>3267317664.448313</v>
       </c>
       <c r="L12" s="3">
-        <v>3367348456.402006</v>
+        <v>3282470506.038918</v>
       </c>
       <c r="M12" s="3">
-        <v>3382030024.103197</v>
+        <v>3314298048.772302</v>
       </c>
       <c r="N12" s="3">
-        <v>3298005148.683892</v>
+        <v>3269962922.468396</v>
       </c>
       <c r="O12" s="3">
-        <v>3431491530.403315</v>
+        <v>3403302632.375104</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7468836565096952</v>
+        <v>0.7233449477351916</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7707756232686981</v>
+        <v>0.7397212543554007</v>
       </c>
       <c r="R12" s="4">
-        <v>0.7423822714681441</v>
+        <v>0.6888501742160279</v>
       </c>
       <c r="S12" s="4">
-        <v>0.8320637119113573</v>
+        <v>0.7414634146341463</v>
       </c>
       <c r="T12" s="4">
-        <v>0.6644736842105263</v>
+        <v>0.551219512195122</v>
       </c>
       <c r="U12" s="5">
-        <v>5233.379697507606</v>
+        <v>5086.666938737501</v>
       </c>
       <c r="V12" s="5">
-        <v>5056.354675808867</v>
+        <v>4933.98982257532</v>
       </c>
       <c r="W12" s="5">
-        <v>4999.017901375005</v>
+        <v>4889.576514983791</v>
       </c>
       <c r="X12" s="5">
-        <v>4997.022829340622</v>
+        <v>4914.548883460192</v>
       </c>
       <c r="Y12" s="5">
-        <v>4865.171883073627</v>
+        <v>4840.721323720463</v>
       </c>
       <c r="Z12" s="5">
-        <v>5073.971681509811</v>
+        <v>5049.440400796302</v>
       </c>
       <c r="AA12" s="5">
-        <v>-177.0250216987388</v>
+        <v>-152.6771161621809</v>
       </c>
       <c r="AB12" s="5">
-        <v>-234.3617961326008</v>
+        <v>-197.0904237537106</v>
       </c>
       <c r="AC12" s="5">
-        <v>-236.356868166984</v>
+        <v>-172.1180552773094</v>
       </c>
       <c r="AD12" s="5">
-        <v>-368.2078144339785</v>
+        <v>-245.9456150170381</v>
       </c>
       <c r="AE12" s="5">
-        <v>-159.4080159977948</v>
+        <v>-37.22653794119924</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.03382613758811481</v>
+        <v>-0.03001515884585815</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.04478211207266602</v>
+        <v>-0.03874647704035206</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.04516333265089645</v>
+        <v>-0.03383709948975522</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.07035755777654296</v>
+        <v>-0.0483510357527126</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.03045986058946049</v>
+        <v>-0.007318453987561258</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1629,106 +1629,106 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="D13" s="2">
-        <v>708548</v>
+        <v>707018</v>
       </c>
       <c r="E13" s="2">
-        <v>721338</v>
+        <v>719665</v>
       </c>
       <c r="F13" s="2">
-        <v>732069.5</v>
+        <v>730375</v>
       </c>
       <c r="G13" s="2">
-        <v>736758.5</v>
+        <v>734986</v>
       </c>
       <c r="H13" s="2">
-        <v>739933</v>
+        <v>738100</v>
       </c>
       <c r="I13" s="2">
-        <v>737230</v>
+        <v>735400</v>
       </c>
       <c r="J13" s="3">
-        <v>3822379841.962318</v>
+        <v>3711156145.793135</v>
       </c>
       <c r="K13" s="3">
-        <v>3745980522.256162</v>
+        <v>3651485622.447568</v>
       </c>
       <c r="L13" s="3">
-        <v>3765210478.200716</v>
+        <v>3676455894.744562</v>
       </c>
       <c r="M13" s="3">
-        <v>3790622684.684297</v>
+        <v>3721260027.705964</v>
       </c>
       <c r="N13" s="3">
-        <v>3691432256.113293</v>
+        <v>3667878082.428011</v>
       </c>
       <c r="O13" s="3">
-        <v>3840564251.601582</v>
+        <v>3814288645.240731</v>
       </c>
       <c r="P13" s="4">
-        <v>0.750901225666907</v>
+        <v>0.7258297258297258</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.7606344628695025</v>
+        <v>0.7319624819624819</v>
       </c>
       <c r="R13" s="4">
-        <v>0.7350396539293439</v>
+        <v>0.6836219336219336</v>
       </c>
       <c r="S13" s="4">
-        <v>0.8298485940879596</v>
+        <v>0.7456709956709957</v>
       </c>
       <c r="T13" s="4">
-        <v>0.6510454217736121</v>
+        <v>0.5505050505050505</v>
       </c>
       <c r="U13" s="5">
-        <v>5394.666052211449</v>
+        <v>5249.026397903781</v>
       </c>
       <c r="V13" s="5">
-        <v>5193.100214124533</v>
+        <v>5073.868567246661</v>
       </c>
       <c r="W13" s="5">
-        <v>5143.241834553573</v>
+        <v>5033.6551699395</v>
       </c>
       <c r="X13" s="5">
-        <v>5145.000274424111</v>
+        <v>5063.035251972097</v>
       </c>
       <c r="Y13" s="5">
-        <v>4988.873663038806</v>
+        <v>4969.351148120865</v>
       </c>
       <c r="Z13" s="5">
-        <v>5209.451937118107</v>
+        <v>5186.685674790225</v>
       </c>
       <c r="AA13" s="5">
-        <v>-201.5658380869163</v>
+        <v>-175.15783065712</v>
       </c>
       <c r="AB13" s="5">
-        <v>-251.4242176578764</v>
+        <v>-215.3712279642814</v>
       </c>
       <c r="AC13" s="5">
-        <v>-249.6657777873379</v>
+        <v>-185.9911459316836</v>
       </c>
       <c r="AD13" s="5">
-        <v>-405.7923891726432</v>
+        <v>-279.6752497829157</v>
       </c>
       <c r="AE13" s="5">
-        <v>-185.2141150933421</v>
+        <v>-62.34072311355612</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.03736391393574545</v>
+        <v>-0.03336958463898565</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.04660607630287128</v>
+        <v>-0.04103070010284016</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.04628011731791848</v>
+        <v>-0.03543345600356662</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.07522103967979554</v>
+        <v>-0.0532813570712094</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.03433282307019114</v>
+        <v>-0.01187662594694749</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1737,106 +1737,106 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>2735</v>
+        <v>2730</v>
       </c>
       <c r="D14" s="2">
-        <v>758049</v>
+        <v>756805</v>
       </c>
       <c r="E14" s="2">
-        <v>772194</v>
+        <v>770830.5</v>
       </c>
       <c r="F14" s="2">
-        <v>784038.5</v>
+        <v>782977.5</v>
       </c>
       <c r="G14" s="2">
-        <v>788518.5</v>
+        <v>787568.5</v>
       </c>
       <c r="H14" s="2">
-        <v>788212.5</v>
+        <v>787257.5</v>
       </c>
       <c r="I14" s="2">
-        <v>779230</v>
+        <v>778089.5</v>
       </c>
       <c r="J14" s="3">
-        <v>4355709034.034768</v>
+        <v>4231998299.578496</v>
       </c>
       <c r="K14" s="3">
-        <v>4259592195.382815</v>
+        <v>4152298935.58203</v>
       </c>
       <c r="L14" s="3">
-        <v>4274922291.967453</v>
+        <v>4177471368.582839</v>
       </c>
       <c r="M14" s="3">
-        <v>4289101294.289228</v>
+        <v>4211297988.954754</v>
       </c>
       <c r="N14" s="3">
-        <v>4154600802.5968</v>
+        <v>4132217564.25315</v>
       </c>
       <c r="O14" s="3">
-        <v>4281985396.628447</v>
+        <v>4256576047.816894</v>
       </c>
       <c r="P14" s="4">
-        <v>0.7663619744058501</v>
+        <v>0.7388278388278389</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.7714808043875686</v>
+        <v>0.7457875457875458</v>
       </c>
       <c r="R14" s="4">
-        <v>0.7502742230347349</v>
+        <v>0.7029304029304029</v>
       </c>
       <c r="S14" s="4">
-        <v>0.8259597806215722</v>
+        <v>0.76007326007326</v>
       </c>
       <c r="T14" s="4">
-        <v>0.6884826325411335</v>
+        <v>0.5860805860805861</v>
       </c>
       <c r="U14" s="5">
-        <v>5745.94654703689</v>
+        <v>5591.926981955055</v>
       </c>
       <c r="V14" s="5">
-        <v>5516.220270272516</v>
+        <v>5386.785986779234</v>
       </c>
       <c r="W14" s="5">
-        <v>5452.43925134729</v>
+        <v>5335.365790949088</v>
       </c>
       <c r="X14" s="5">
-        <v>5439.442821302516</v>
+        <v>5347.214863157623</v>
       </c>
       <c r="Y14" s="5">
-        <v>5270.914636087096</v>
+        <v>5248.876719819309</v>
       </c>
       <c r="Z14" s="5">
-        <v>5495.149566403305</v>
+        <v>5470.548115373481</v>
       </c>
       <c r="AA14" s="5">
-        <v>-229.7262767643742</v>
+        <v>-205.1409951758214</v>
       </c>
       <c r="AB14" s="5">
-        <v>-293.5072956896001</v>
+        <v>-256.5611910059679</v>
       </c>
       <c r="AC14" s="5">
-        <v>-306.5037257343747</v>
+        <v>-244.7121187974326</v>
       </c>
       <c r="AD14" s="5">
-        <v>-475.0319109497941</v>
+        <v>-343.0502621357464</v>
       </c>
       <c r="AE14" s="5">
-        <v>-250.7969806335859</v>
+        <v>-121.3788665815746</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.0399805802027241</v>
+        <v>-0.03668520634082029</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.0510807563709339</v>
+        <v>-0.04588064040068507</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.05334259955697551</v>
+        <v>-0.04376167993378843</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.08267252524212254</v>
+        <v>-0.06134741444993064</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.04364763552541551</v>
+        <v>-0.02170608932721396</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1845,106 +1845,106 @@
         <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>2790</v>
+        <v>2774</v>
       </c>
       <c r="D15" s="2">
-        <v>837950.5</v>
+        <v>834996.5</v>
       </c>
       <c r="E15" s="2">
-        <v>854872</v>
+        <v>851842.5</v>
       </c>
       <c r="F15" s="2">
-        <v>862912</v>
+        <v>859905</v>
       </c>
       <c r="G15" s="2">
-        <v>865296</v>
+        <v>862729</v>
       </c>
       <c r="H15" s="2">
-        <v>861964.5</v>
+        <v>859486.5</v>
       </c>
       <c r="I15" s="2">
-        <v>849895</v>
+        <v>847497</v>
       </c>
       <c r="J15" s="3">
-        <v>5280589291.448695</v>
+        <v>5120441983.536382</v>
       </c>
       <c r="K15" s="3">
-        <v>5139364798.693134</v>
+        <v>5000235623.424281</v>
       </c>
       <c r="L15" s="3">
-        <v>5152469304.845741</v>
+        <v>5025685105.500741</v>
       </c>
       <c r="M15" s="3">
-        <v>5135997663.844647</v>
+        <v>5038551057.307637</v>
       </c>
       <c r="N15" s="3">
-        <v>4951452793.773441</v>
+        <v>4915736147.596232</v>
       </c>
       <c r="O15" s="3">
-        <v>5071995876.801901</v>
+        <v>5032940975.993158</v>
       </c>
       <c r="P15" s="4">
-        <v>0.7648745519713261</v>
+        <v>0.745493871665465</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.7594982078853046</v>
+        <v>0.7372025955299207</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7637992831541218</v>
+        <v>0.7202595529920692</v>
       </c>
       <c r="S15" s="4">
-        <v>0.842652329749104</v>
+        <v>0.7797404470079308</v>
       </c>
       <c r="T15" s="4">
-        <v>0.6913978494623656</v>
+        <v>0.6005767844268205</v>
       </c>
       <c r="U15" s="5">
-        <v>6301.791444063456</v>
+        <v>6132.291552762655</v>
       </c>
       <c r="V15" s="5">
-        <v>6011.853001026042</v>
+        <v>5869.906260164621</v>
       </c>
       <c r="W15" s="5">
-        <v>5971.025208649018</v>
+        <v>5844.465499678152</v>
       </c>
       <c r="X15" s="5">
-        <v>5935.538432911567</v>
+        <v>5840.247699228422</v>
       </c>
       <c r="Y15" s="5">
-        <v>5744.381344908568</v>
+        <v>5719.387270883524</v>
       </c>
       <c r="Z15" s="5">
-        <v>5967.791170440938</v>
+        <v>5938.594444574032</v>
       </c>
       <c r="AA15" s="5">
-        <v>-289.9384430374139</v>
+        <v>-262.3852925980336</v>
       </c>
       <c r="AB15" s="5">
-        <v>-330.7662354144377</v>
+        <v>-287.8260530845027</v>
       </c>
       <c r="AC15" s="5">
-        <v>-366.253011151889</v>
+        <v>-292.0438535342328</v>
       </c>
       <c r="AD15" s="5">
-        <v>-557.4100991548876</v>
+        <v>-412.9042818791304</v>
       </c>
       <c r="AE15" s="5">
-        <v>-334.0002736225179</v>
+        <v>-193.6971081886231</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.04600889217153448</v>
+        <v>-0.04278747843941411</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.05248765186065196</v>
+        <v>-0.04693613319067236</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.05811887213387779</v>
+        <v>-0.04762393487352445</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.08845264145959486</v>
+        <v>-0.06733278715248192</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.05300084532901506</v>
+        <v>-0.03158641537540086</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1953,106 +1953,106 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="D16" s="2">
-        <v>823922</v>
+        <v>823458</v>
       </c>
       <c r="E16" s="2">
-        <v>837626</v>
+        <v>837139.5</v>
       </c>
       <c r="F16" s="2">
-        <v>843439</v>
+        <v>843358</v>
       </c>
       <c r="G16" s="2">
-        <v>841994</v>
+        <v>841968</v>
       </c>
       <c r="H16" s="2">
-        <v>832682</v>
+        <v>832712</v>
       </c>
       <c r="I16" s="2">
-        <v>813862.5</v>
+        <v>813953</v>
       </c>
       <c r="J16" s="3">
-        <v>5762016333.611831</v>
+        <v>5598913932.409934</v>
       </c>
       <c r="K16" s="3">
-        <v>5585197360.072287</v>
+        <v>5450432903.6574</v>
       </c>
       <c r="L16" s="3">
-        <v>5579156867.794754</v>
+        <v>5453474190.803079</v>
       </c>
       <c r="M16" s="3">
-        <v>5529037482.499689</v>
+        <v>5437525449.789317</v>
       </c>
       <c r="N16" s="3">
-        <v>5312262295.357585</v>
+        <v>5288373733.138572</v>
       </c>
       <c r="O16" s="3">
-        <v>5394185660.204378</v>
+        <v>5368803364.569588</v>
       </c>
       <c r="P16" s="4">
-        <v>0.7608853410740203</v>
+        <v>0.7411038489469862</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.7532656023222061</v>
+        <v>0.7280319535221496</v>
       </c>
       <c r="R16" s="4">
-        <v>0.7623367198838897</v>
+        <v>0.7106027596223675</v>
       </c>
       <c r="S16" s="4">
-        <v>0.8363570391872278</v>
+        <v>0.7654320987654321</v>
       </c>
       <c r="T16" s="4">
-        <v>0.6977503628447025</v>
+        <v>0.59840232389252</v>
       </c>
       <c r="U16" s="5">
-        <v>6993.400265573478</v>
+        <v>6799.270797551222</v>
       </c>
       <c r="V16" s="5">
-        <v>6667.889201233351</v>
+        <v>6510.782138051543</v>
       </c>
       <c r="W16" s="5">
-        <v>6614.772221577084</v>
+        <v>6466.381051466968</v>
       </c>
       <c r="X16" s="5">
-        <v>6566.599622443496</v>
+        <v>6458.114144230323</v>
       </c>
       <c r="Y16" s="5">
-        <v>6379.701128831397</v>
+        <v>6350.783624036368</v>
       </c>
       <c r="Z16" s="5">
-        <v>6627.883285204046</v>
+        <v>6595.962376905777</v>
       </c>
       <c r="AA16" s="5">
-        <v>-325.5110643401267</v>
+        <v>-288.4886594996788</v>
       </c>
       <c r="AB16" s="5">
-        <v>-378.6280439963939</v>
+        <v>-332.8897460842545</v>
       </c>
       <c r="AC16" s="5">
-        <v>-426.8006431299818</v>
+        <v>-341.1566533208988</v>
       </c>
       <c r="AD16" s="5">
-        <v>-613.6991367420806</v>
+        <v>-448.4871735148545</v>
       </c>
       <c r="AE16" s="5">
-        <v>-365.5169803694316</v>
+        <v>-203.308420645445</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.04654546457787134</v>
+        <v>-0.04242935280700677</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.05414076552435765</v>
+        <v>-0.04895962464153447</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.06102905981672468</v>
+        <v>-0.05017547667667055</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.0877540414443525</v>
+        <v>-0.06596106948356562</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.05226598885934897</v>
+        <v>-0.02990150366104949</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2063,106 +2063,106 @@
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D17" s="2">
-        <v>645652</v>
+        <v>643991</v>
       </c>
       <c r="E17" s="2">
-        <v>653043.5</v>
+        <v>651433.5</v>
       </c>
       <c r="F17" s="2">
-        <v>658947.5</v>
+        <v>657371.5</v>
       </c>
       <c r="G17" s="2">
-        <v>669138.5</v>
+        <v>667600.5</v>
       </c>
       <c r="H17" s="2">
-        <v>681581.5</v>
+        <v>680214.5</v>
       </c>
       <c r="I17" s="2">
-        <v>693822</v>
+        <v>692324</v>
       </c>
       <c r="J17" s="3">
-        <v>4008746203.629654</v>
+        <v>3881491799.401857</v>
       </c>
       <c r="K17" s="3">
-        <v>3997024543.241508</v>
+        <v>3889068443.056807</v>
       </c>
       <c r="L17" s="3">
-        <v>3915688177.464394</v>
+        <v>3817229967.395161</v>
       </c>
       <c r="M17" s="3">
-        <v>3939260355.744472</v>
+        <v>3860660244.899038</v>
       </c>
       <c r="N17" s="3">
-        <v>3859536046.334337</v>
+        <v>3827786564.361682</v>
       </c>
       <c r="O17" s="3">
-        <v>4163813025.414918</v>
+        <v>4132501666.222328</v>
       </c>
       <c r="P17" s="4">
-        <v>0.6493055555555556</v>
+        <v>0.6208695652173913</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.7760416666666666</v>
+        <v>0.7408695652173913</v>
       </c>
       <c r="R17" s="4">
-        <v>0.8107638888888888</v>
+        <v>0.7495652173913043</v>
       </c>
       <c r="S17" s="4">
-        <v>0.9184027777777778</v>
+        <v>0.8504347826086956</v>
       </c>
       <c r="T17" s="4">
-        <v>0.6927083333333334</v>
+        <v>0.5460869565217391</v>
       </c>
       <c r="U17" s="5">
-        <v>6208.834176351431</v>
+        <v>6027.245410885955</v>
       </c>
       <c r="V17" s="5">
-        <v>6120.609949017956</v>
+        <v>5970.01603856235</v>
       </c>
       <c r="W17" s="5">
-        <v>5942.337101915393</v>
+        <v>5806.807820836712</v>
       </c>
       <c r="X17" s="5">
-        <v>5887.062776606744</v>
+        <v>5782.889984203185</v>
       </c>
       <c r="Y17" s="5">
-        <v>5662.618551610243</v>
+        <v>5627.322799442944</v>
       </c>
       <c r="Z17" s="5">
-        <v>6001.269814757846</v>
+        <v>5969.028469650522</v>
       </c>
       <c r="AA17" s="5">
-        <v>-88.22422733347503</v>
+        <v>-57.22937232360437</v>
       </c>
       <c r="AB17" s="5">
-        <v>-266.497074436038</v>
+        <v>-220.4375900492423</v>
       </c>
       <c r="AC17" s="5">
-        <v>-321.7713997446872</v>
+        <v>-244.3554266827696</v>
       </c>
       <c r="AD17" s="5">
-        <v>-546.2156247411876</v>
+        <v>-399.9226114430112</v>
       </c>
       <c r="AE17" s="5">
-        <v>-207.5643615935851</v>
+        <v>-58.21694123543239</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.01420946748256036</v>
+        <v>-0.009495112347713719</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.04292224061178629</v>
+        <v>-0.03657352157108196</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.05182476945032111</v>
+        <v>-0.04054180807727414</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.08797394313116713</v>
+        <v>-0.06635246852910637</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.033430488832214</v>
+        <v>-0.00965896313600989</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2171,106 +2171,106 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D18" s="2">
-        <v>559671</v>
+        <v>560251</v>
       </c>
       <c r="E18" s="2">
-        <v>565740.5</v>
+        <v>566365.5</v>
       </c>
       <c r="F18" s="2">
-        <v>573199</v>
+        <v>573919</v>
       </c>
       <c r="G18" s="2">
-        <v>584264</v>
+        <v>585022</v>
       </c>
       <c r="H18" s="2">
-        <v>594353.5</v>
+        <v>595141.5</v>
       </c>
       <c r="I18" s="2">
-        <v>605475</v>
+        <v>606301</v>
       </c>
       <c r="J18" s="3">
-        <v>3713673898.533911</v>
+        <v>3616307584.783343</v>
       </c>
       <c r="K18" s="3">
-        <v>3659586296.807921</v>
+        <v>3579204106.605068</v>
       </c>
       <c r="L18" s="3">
-        <v>3587991019.160991</v>
+        <v>3514786937.295891</v>
       </c>
       <c r="M18" s="3">
-        <v>3611100932.618167</v>
+        <v>3557115342.308456</v>
       </c>
       <c r="N18" s="3">
-        <v>3514386767.270541</v>
+        <v>3500917384.919171</v>
       </c>
       <c r="O18" s="3">
-        <v>3778715438.12536</v>
+        <v>3772689025.209748</v>
       </c>
       <c r="P18" s="4">
-        <v>0.7134935304990758</v>
+        <v>0.6845018450184502</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.8428835489833642</v>
+        <v>0.8191881918819188</v>
       </c>
       <c r="R18" s="4">
-        <v>0.8724584103512015</v>
+        <v>0.8394833948339483</v>
       </c>
       <c r="S18" s="4">
-        <v>0.9482439926062847</v>
+        <v>0.9261992619926199</v>
       </c>
       <c r="T18" s="4">
-        <v>0.7874306839186691</v>
+        <v>0.7140221402214022</v>
       </c>
       <c r="U18" s="5">
-        <v>6635.458865179563</v>
+        <v>6454.79898256914</v>
       </c>
       <c r="V18" s="5">
-        <v>6468.665928650894</v>
+        <v>6319.601223247299</v>
       </c>
       <c r="W18" s="5">
-        <v>6259.59050724267</v>
+        <v>6124.18640486879</v>
       </c>
       <c r="X18" s="5">
-        <v>6180.598038931317</v>
+        <v>6080.310385435858</v>
       </c>
       <c r="Y18" s="5">
-        <v>5912.957132868807</v>
+        <v>5882.495818085566</v>
       </c>
       <c r="Z18" s="5">
-        <v>6240.910752921855</v>
+        <v>6222.468749366649</v>
       </c>
       <c r="AA18" s="5">
-        <v>-166.7929365286691</v>
+        <v>-135.1977593218417</v>
       </c>
       <c r="AB18" s="5">
-        <v>-375.8683579368926</v>
+        <v>-330.6125777003499</v>
       </c>
       <c r="AC18" s="5">
-        <v>-454.8608262482458</v>
+        <v>-374.4885971332824</v>
       </c>
       <c r="AD18" s="5">
-        <v>-722.5017323107559</v>
+        <v>-572.3031644835746</v>
       </c>
       <c r="AE18" s="5">
-        <v>-394.5481122577075</v>
+        <v>-232.3302332024914</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.02513660922591754</v>
+        <v>-0.02094530901534442</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.05664542054646904</v>
+        <v>-0.05121965511136017</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.06855001824141915</v>
+        <v>-0.05801708126691008</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.1088849689208652</v>
+        <v>-0.08866320485410162</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.05946056185023618</v>
+        <v>-0.03599341107753895</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2279,106 +2279,106 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D19" s="2">
-        <v>480502.5</v>
+        <v>475331.5</v>
       </c>
       <c r="E19" s="2">
-        <v>484093.5</v>
+        <v>478894</v>
       </c>
       <c r="F19" s="2">
-        <v>487878</v>
+        <v>482572</v>
       </c>
       <c r="G19" s="2">
-        <v>496531.5</v>
+        <v>491071.5</v>
       </c>
       <c r="H19" s="2">
-        <v>505791.5</v>
+        <v>500231.5</v>
       </c>
       <c r="I19" s="2">
-        <v>516463.5</v>
+        <v>510885.5</v>
       </c>
       <c r="J19" s="3">
-        <v>3409409485.820855</v>
+        <v>3283016347.352386</v>
       </c>
       <c r="K19" s="3">
-        <v>3284813153.25966</v>
+        <v>3175308336.563834</v>
       </c>
       <c r="L19" s="3">
-        <v>3209456454.128009</v>
+        <v>3112857247.428095</v>
       </c>
       <c r="M19" s="3">
-        <v>3210473365.986959</v>
+        <v>3126624961.77871</v>
       </c>
       <c r="N19" s="3">
-        <v>3162767378.984476</v>
+        <v>3119511871.829745</v>
       </c>
       <c r="O19" s="3">
-        <v>3367516859.167597</v>
+        <v>3320796965.070809</v>
       </c>
       <c r="P19" s="4">
-        <v>0.790650406504065</v>
+        <v>0.7602459016393442</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.8922764227642277</v>
+        <v>0.8729508196721312</v>
       </c>
       <c r="R19" s="4">
-        <v>0.9166666666666666</v>
+        <v>0.8934426229508197</v>
       </c>
       <c r="S19" s="4">
-        <v>0.9552845528455285</v>
+        <v>0.930327868852459</v>
       </c>
       <c r="T19" s="4">
-        <v>0.8719512195121951</v>
+        <v>0.7950819672131147</v>
       </c>
       <c r="U19" s="5">
-        <v>7095.508318522495</v>
+        <v>6906.793148260501</v>
       </c>
       <c r="V19" s="5">
-        <v>6785.493201746482</v>
+        <v>6630.503486290983</v>
       </c>
       <c r="W19" s="5">
-        <v>6578.399628858052</v>
+        <v>6450.555041378479</v>
       </c>
       <c r="X19" s="5">
-        <v>6465.79998648013</v>
+        <v>6366.944450611999</v>
       </c>
       <c r="Y19" s="5">
-        <v>6253.105042264403</v>
+        <v>6236.136412500502</v>
       </c>
       <c r="Z19" s="5">
-        <v>6520.338531508222</v>
+        <v>6500.080673792482</v>
       </c>
       <c r="AA19" s="5">
-        <v>-310.0151167760132</v>
+        <v>-276.2896619695175</v>
       </c>
       <c r="AB19" s="5">
-        <v>-517.1086896644429</v>
+        <v>-456.2381068820223</v>
       </c>
       <c r="AC19" s="5">
-        <v>-629.7083320423653</v>
+        <v>-539.8486976485019</v>
       </c>
       <c r="AD19" s="5">
-        <v>-842.4032762580919</v>
+        <v>-670.6567357599988</v>
       </c>
       <c r="AE19" s="5">
-        <v>-575.1697870142725</v>
+        <v>-406.7124744680186</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.04369174171309664</v>
+        <v>-0.0400025968693013</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.07287831490727092</v>
+        <v>-0.06605643126824023</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.08874745878297974</v>
+        <v>-0.07816199009586156</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.1187234569310612</v>
+        <v>-0.09710103102319001</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.08106111094434465</v>
+        <v>-0.05888586290881614</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2387,106 +2387,106 @@
         <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D20" s="2">
-        <v>453731.5</v>
+        <v>454523.5</v>
       </c>
       <c r="E20" s="2">
-        <v>457346</v>
+        <v>458085</v>
       </c>
       <c r="F20" s="2">
-        <v>461492.5</v>
+        <v>462391.5</v>
       </c>
       <c r="G20" s="2">
-        <v>471676</v>
+        <v>472731</v>
       </c>
       <c r="H20" s="2">
-        <v>483940.5</v>
+        <v>485139.5</v>
       </c>
       <c r="I20" s="2">
-        <v>495387.5</v>
+        <v>496635.5</v>
       </c>
       <c r="J20" s="3">
-        <v>3545160981.193751</v>
+        <v>3453712925.367323</v>
       </c>
       <c r="K20" s="3">
-        <v>3404268893.909679</v>
+        <v>3327953962.566281</v>
       </c>
       <c r="L20" s="3">
-        <v>3321194946.979679</v>
+        <v>3254860016.444105</v>
       </c>
       <c r="M20" s="3">
-        <v>3324597830.025126</v>
+        <v>3271647524.255886</v>
       </c>
       <c r="N20" s="3">
-        <v>3277574945.182021</v>
+        <v>3270641892.484987</v>
       </c>
       <c r="O20" s="3">
-        <v>3485907881.981715</v>
+        <v>3479407024.523666</v>
       </c>
       <c r="P20" s="4">
-        <v>0.8125</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.9032258064516129</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="R20" s="4">
-        <v>0.9112903225806451</v>
+        <v>0.8893360160965795</v>
       </c>
       <c r="S20" s="4">
-        <v>0.967741935483871</v>
+        <v>0.9416498993963782</v>
       </c>
       <c r="T20" s="4">
-        <v>0.8870967741935484</v>
+        <v>0.8390342052313883</v>
       </c>
       <c r="U20" s="5">
-        <v>7813.345516442546</v>
+        <v>7598.535445070108</v>
       </c>
       <c r="V20" s="5">
-        <v>7443.530486567455</v>
+        <v>7264.926733174588</v>
       </c>
       <c r="W20" s="5">
-        <v>7196.639050428075</v>
+        <v>7039.186525799251</v>
       </c>
       <c r="X20" s="5">
-        <v>7048.477832294045</v>
+        <v>6920.73827241261</v>
       </c>
       <c r="Y20" s="5">
-        <v>6772.681652356066</v>
+        <v>6741.652437051584</v>
       </c>
       <c r="Z20" s="5">
-        <v>7036.729594472438</v>
+        <v>7005.957134606097</v>
       </c>
       <c r="AA20" s="5">
-        <v>-369.8150298750907</v>
+        <v>-333.6087118955202</v>
       </c>
       <c r="AB20" s="5">
-        <v>-616.7064660144706</v>
+        <v>-559.3489192708566</v>
       </c>
       <c r="AC20" s="5">
-        <v>-764.8676841485012</v>
+        <v>-677.7971726574979</v>
       </c>
       <c r="AD20" s="5">
-        <v>-1040.663864086479</v>
+        <v>-856.8830080185235</v>
       </c>
       <c r="AE20" s="5">
-        <v>-776.6159219701076</v>
+        <v>-592.5783104640113</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.04733120135246105</v>
+        <v>-0.04390434371296692</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.07892988537581791</v>
+        <v>-0.07361272752024328</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.09789246905040871</v>
+        <v>-0.0892010279556239</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.133190559907595</v>
+        <v>-0.1127694954130226</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.09939608076153583</v>
+        <v>-0.07798585855758211</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2495,106 +2495,106 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D21" s="2">
-        <v>374631.5</v>
+        <v>372062.5</v>
       </c>
       <c r="E21" s="2">
-        <v>376823.5</v>
+        <v>374251.5</v>
       </c>
       <c r="F21" s="2">
-        <v>379114</v>
+        <v>376527</v>
       </c>
       <c r="G21" s="2">
-        <v>388182</v>
+        <v>385471</v>
       </c>
       <c r="H21" s="2">
-        <v>399555.5</v>
+        <v>396782.5</v>
       </c>
       <c r="I21" s="2">
-        <v>410058.5</v>
+        <v>407192.5</v>
       </c>
       <c r="J21" s="3">
-        <v>3329074756.658703</v>
+        <v>3216898784.903028</v>
       </c>
       <c r="K21" s="3">
-        <v>3165574414.439197</v>
+        <v>3074420422.461718</v>
       </c>
       <c r="L21" s="3">
-        <v>3092445639.672046</v>
+        <v>3007275351.070308</v>
       </c>
       <c r="M21" s="3">
-        <v>3089335964.846737</v>
+        <v>3020168001.075836</v>
       </c>
       <c r="N21" s="3">
-        <v>3043989467.862905</v>
+        <v>3011799335.619917</v>
       </c>
       <c r="O21" s="3">
-        <v>3234115185.047977</v>
+        <v>3199641833.596629</v>
       </c>
       <c r="P21" s="4">
-        <v>0.8254310344827587</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.8943965517241379</v>
+        <v>0.8739130434782608</v>
       </c>
       <c r="R21" s="4">
-        <v>0.896551724137931</v>
+        <v>0.8760869565217392</v>
       </c>
       <c r="S21" s="4">
-        <v>0.9418103448275862</v>
+        <v>0.9173913043478261</v>
       </c>
       <c r="T21" s="4">
-        <v>0.8857758620689655</v>
+        <v>0.8456521739130435</v>
       </c>
       <c r="U21" s="5">
-        <v>8886.264920752001</v>
+        <v>8646.124736846707</v>
       </c>
       <c r="V21" s="5">
-        <v>8400.682055230624</v>
+        <v>8214.8513030989</v>
       </c>
       <c r="W21" s="5">
-        <v>8157.033609078128</v>
+        <v>7986.878367475129</v>
       </c>
       <c r="X21" s="5">
-        <v>7958.472996807521</v>
+        <v>7835.00704612237</v>
       </c>
       <c r="Y21" s="5">
-        <v>7618.439660730249</v>
+        <v>7590.554864743071</v>
       </c>
       <c r="Z21" s="5">
-        <v>7886.960482584747</v>
+        <v>7857.81131429638</v>
       </c>
       <c r="AA21" s="5">
-        <v>-485.5828655213772</v>
+        <v>-431.2734337478068</v>
       </c>
       <c r="AB21" s="5">
-        <v>-729.2313116738724</v>
+        <v>-659.2463693715772</v>
       </c>
       <c r="AC21" s="5">
-        <v>-927.79192394448</v>
+        <v>-811.1176907243362</v>
       </c>
       <c r="AD21" s="5">
-        <v>-1267.825260021752</v>
+        <v>-1055.569872103636</v>
       </c>
       <c r="AE21" s="5">
-        <v>-999.3044381672535</v>
+        <v>-788.3134225503263</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.0546442031440455</v>
+        <v>-0.04988054728263092</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.08206274719211959</v>
+        <v>-0.07624761259366331</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.1044074121375582</v>
+        <v>-0.09381286014387935</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.1426724581506694</v>
+        <v>-0.1220858944591874</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.1124549455906484</v>
+        <v>-0.09117534693789631</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2605,106 +2605,106 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2">
-        <v>16123.5</v>
+        <v>16391</v>
       </c>
       <c r="E22" s="2">
-        <v>16852.5</v>
+        <v>17128</v>
       </c>
       <c r="F22" s="2">
-        <v>17602.5</v>
+        <v>17898.5</v>
       </c>
       <c r="G22" s="2">
-        <v>18361</v>
+        <v>18680</v>
       </c>
       <c r="H22" s="2">
-        <v>19188.5</v>
+        <v>19519.5</v>
       </c>
       <c r="I22" s="2">
-        <v>20027</v>
+        <v>20376</v>
       </c>
       <c r="J22" s="3">
-        <v>430457057.1251847</v>
+        <v>425360411.3629625</v>
       </c>
       <c r="K22" s="3">
-        <v>434782315.882336</v>
+        <v>431667769.693037</v>
       </c>
       <c r="L22" s="3">
-        <v>451046178.4563516</v>
+        <v>448505591.9774351</v>
       </c>
       <c r="M22" s="3">
-        <v>463824441.134104</v>
+        <v>463892427.5457825</v>
       </c>
       <c r="N22" s="3">
-        <v>448811548.5196322</v>
+        <v>450852808.8869357</v>
       </c>
       <c r="O22" s="3">
-        <v>490801077.0500429</v>
+        <v>496972777.1422674</v>
       </c>
       <c r="P22" s="4">
-        <v>0.7132867132867133</v>
+        <v>0.7034482758620689</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.7482517482517482</v>
+        <v>0.7310344827586207</v>
       </c>
       <c r="R22" s="4">
-        <v>0.7482517482517482</v>
+        <v>0.7517241379310344</v>
       </c>
       <c r="S22" s="4">
-        <v>0.8671328671328671</v>
+        <v>0.8137931034482758</v>
       </c>
       <c r="T22" s="4">
-        <v>0.7832167832167832</v>
+        <v>0.7172413793103448</v>
       </c>
       <c r="U22" s="5">
-        <v>26697.49478247184</v>
+        <v>25950.85177005445</v>
       </c>
       <c r="V22" s="5">
-        <v>25799.27701423148</v>
+        <v>25202.46203252201</v>
       </c>
       <c r="W22" s="5">
-        <v>25623.98400547374</v>
+        <v>25058.27817847502</v>
       </c>
       <c r="X22" s="5">
-        <v>25261.39323207363</v>
+        <v>24833.64173157294</v>
       </c>
       <c r="Y22" s="5">
-        <v>23389.61088775215</v>
+        <v>23097.55930669001</v>
       </c>
       <c r="Z22" s="5">
-        <v>24506.96944375308</v>
+        <v>24390.10488527029</v>
       </c>
       <c r="AA22" s="5">
-        <v>-898.2177682403562</v>
+        <v>-748.389737532445</v>
       </c>
       <c r="AB22" s="5">
-        <v>-1073.510776998093</v>
+        <v>-892.5735915794394</v>
       </c>
       <c r="AC22" s="5">
-        <v>-1436.101550398205</v>
+        <v>-1117.210038481517</v>
       </c>
       <c r="AD22" s="5">
-        <v>-3307.883894719682</v>
+        <v>-2853.292463364443</v>
       </c>
       <c r="AE22" s="5">
-        <v>-2190.525338718759</v>
+        <v>-1560.746884784166</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.03364427170260476</v>
+        <v>-0.02883873501200596</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.04021016899693908</v>
+        <v>-0.03439477052577555</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.0537916221016016</v>
+        <v>-0.04305099687597547</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.1239024081349934</v>
+        <v>-0.1099498578561862</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.08204984612102784</v>
+        <v>-0.06014241453859193</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2713,106 +2713,106 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D23" s="2">
-        <v>16015.5</v>
+        <v>16299.5</v>
       </c>
       <c r="E23" s="2">
-        <v>16895.5</v>
+        <v>17186</v>
       </c>
       <c r="F23" s="2">
-        <v>17820.5</v>
+        <v>18106.5</v>
       </c>
       <c r="G23" s="2">
-        <v>18830.5</v>
+        <v>19131.5</v>
       </c>
       <c r="H23" s="2">
-        <v>19851.5</v>
+        <v>20160.5</v>
       </c>
       <c r="I23" s="2">
-        <v>20749.5</v>
+        <v>21066.5</v>
       </c>
       <c r="J23" s="3">
-        <v>418689487.9399654</v>
+        <v>413794412.3542253</v>
       </c>
       <c r="K23" s="3">
-        <v>422529909.8231999</v>
+        <v>419284458.6826403</v>
       </c>
       <c r="L23" s="3">
-        <v>442547000.2242061</v>
+        <v>439635393.320796</v>
       </c>
       <c r="M23" s="3">
-        <v>456992278.37674</v>
+        <v>456611327.0446587</v>
       </c>
       <c r="N23" s="3">
-        <v>445206994.0949926</v>
+        <v>446988512.6253136</v>
       </c>
       <c r="O23" s="3">
-        <v>485965290.5482252</v>
+        <v>491839462.8760247</v>
       </c>
       <c r="P23" s="4">
-        <v>0.7720588235294118</v>
+        <v>0.7518248175182481</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.7426470588235294</v>
+        <v>0.708029197080292</v>
       </c>
       <c r="R23" s="4">
-        <v>0.7794117647058824</v>
+        <v>0.7226277372262774</v>
       </c>
       <c r="S23" s="4">
-        <v>0.8970588235294118</v>
+        <v>0.8613138686131386</v>
       </c>
       <c r="T23" s="4">
-        <v>0.8161764705882353</v>
+        <v>0.7518248175182481</v>
       </c>
       <c r="U23" s="5">
-        <v>26142.76719053201</v>
+        <v>25386.93900759074</v>
       </c>
       <c r="V23" s="5">
-        <v>25008.4288611287</v>
+        <v>24396.86132215992</v>
       </c>
       <c r="W23" s="5">
-        <v>24833.59054034433</v>
+        <v>24280.52872287831</v>
       </c>
       <c r="X23" s="5">
-        <v>24268.72777550994</v>
+        <v>23866.99041082292</v>
       </c>
       <c r="Y23" s="5">
-        <v>22426.86920862366</v>
+        <v>22171.49934899003</v>
       </c>
       <c r="Z23" s="5">
-        <v>23420.57835360973</v>
+        <v>23346.99465388292</v>
       </c>
       <c r="AA23" s="5">
-        <v>-1134.338329403316</v>
+        <v>-990.0776854308242</v>
       </c>
       <c r="AB23" s="5">
-        <v>-1309.176650187681</v>
+        <v>-1106.410284712434</v>
       </c>
       <c r="AC23" s="5">
-        <v>-1874.039415022071</v>
+        <v>-1519.948596767819</v>
       </c>
       <c r="AD23" s="5">
-        <v>-3715.897981908354</v>
+        <v>-3215.439658600706</v>
       </c>
       <c r="AE23" s="5">
-        <v>-2722.18883692228</v>
+        <v>-2039.944353707815</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.04339014003896779</v>
+        <v>-0.03899949045195206</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.05007796767060746</v>
+        <v>-0.04358187036182726</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.07168481444079045</v>
+        <v>-0.05987128248558649</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.1421386632419739</v>
+        <v>-0.1266572412546185</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.1041278001323502</v>
+        <v>-0.08035408889184581</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2824,103 +2824,103 @@
         <v>135</v>
       </c>
       <c r="D24" s="2">
-        <v>17678.5</v>
+        <v>17751</v>
       </c>
       <c r="E24" s="2">
-        <v>18357</v>
+        <v>18411.5</v>
       </c>
       <c r="F24" s="2">
-        <v>19077.5</v>
+        <v>19125</v>
       </c>
       <c r="G24" s="2">
-        <v>19855.5</v>
+        <v>19894</v>
       </c>
       <c r="H24" s="2">
-        <v>20848</v>
+        <v>20888.5</v>
       </c>
       <c r="I24" s="2">
-        <v>21736</v>
+        <v>21775.5</v>
       </c>
       <c r="J24" s="3">
-        <v>451489965.5651388</v>
+        <v>440926096.9513914</v>
       </c>
       <c r="K24" s="3">
-        <v>448734179.0390976</v>
+        <v>439838755.8008373</v>
       </c>
       <c r="L24" s="3">
-        <v>461462523.7417468</v>
+        <v>452837269.8101887</v>
       </c>
       <c r="M24" s="3">
-        <v>473975821.3035476</v>
+        <v>467526913.3199609</v>
       </c>
       <c r="N24" s="3">
-        <v>455004685.1013098</v>
+        <v>452828485.460169</v>
       </c>
       <c r="O24" s="3">
-        <v>498812288.9406153</v>
+        <v>497660493.5738485</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7703703703703704</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.8222222222222222</v>
+        <v>0.7925925925925926</v>
       </c>
       <c r="R24" s="4">
-        <v>0.8296296296296296</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="S24" s="4">
-        <v>0.9111111111111111</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="T24" s="4">
-        <v>0.8518518518518519</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="U24" s="5">
-        <v>25538.92952259178</v>
+        <v>24839.50746162984</v>
       </c>
       <c r="V24" s="5">
-        <v>24444.85368192502</v>
+        <v>23889.34936321523</v>
       </c>
       <c r="W24" s="5">
-        <v>24188.83625955952</v>
+        <v>23677.76574170921</v>
       </c>
       <c r="X24" s="5">
-        <v>23871.26092536313</v>
+        <v>23500.90043832115</v>
       </c>
       <c r="Y24" s="5">
-        <v>21824.86018329383</v>
+        <v>21678.36299687239</v>
       </c>
       <c r="Z24" s="5">
-        <v>22948.66989973386</v>
+        <v>22854.14771526939</v>
       </c>
       <c r="AA24" s="5">
-        <v>-1094.075840666759</v>
+        <v>-950.1580984146094</v>
       </c>
       <c r="AB24" s="5">
-        <v>-1350.093263032257</v>
+        <v>-1161.741719920632</v>
       </c>
       <c r="AC24" s="5">
-        <v>-1667.668597228654</v>
+        <v>-1338.607023308698</v>
       </c>
       <c r="AD24" s="5">
-        <v>-3714.069339297952</v>
+        <v>-3161.14446475745</v>
       </c>
       <c r="AE24" s="5">
-        <v>-2590.259622857917</v>
+        <v>-1985.359746360456</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.04283953404150853</v>
+        <v>-0.03825188965128801</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.05286412893061798</v>
+        <v>-0.04676991770932659</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.06529907981277883</v>
+        <v>-0.05389024019000677</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.1454277610192111</v>
+        <v>-0.1272627675746205</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.1014239700441073</v>
+        <v>-0.07992750055238762</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2929,106 +2929,106 @@
         <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D25" s="2">
-        <v>15698.5</v>
+        <v>16082.5</v>
       </c>
       <c r="E25" s="2">
-        <v>16301</v>
+        <v>16707.5</v>
       </c>
       <c r="F25" s="2">
-        <v>17018</v>
+        <v>17421</v>
       </c>
       <c r="G25" s="2">
-        <v>18095.5</v>
+        <v>18510.5</v>
       </c>
       <c r="H25" s="2">
-        <v>19154.5</v>
+        <v>19581.5</v>
       </c>
       <c r="I25" s="2">
-        <v>20171</v>
+        <v>20602</v>
       </c>
       <c r="J25" s="3">
-        <v>433675513.3582968</v>
+        <v>431692438.5968338</v>
       </c>
       <c r="K25" s="3">
-        <v>435081723.1948683</v>
+        <v>434903452.6890724</v>
       </c>
       <c r="L25" s="3">
-        <v>448244049.1493192</v>
+        <v>448565373.1548722</v>
       </c>
       <c r="M25" s="3">
-        <v>463825794.8902816</v>
+        <v>465741642.0662293</v>
       </c>
       <c r="N25" s="3">
-        <v>459545706.1251294</v>
+        <v>463572974.8863532</v>
       </c>
       <c r="O25" s="3">
-        <v>495674775.2159119</v>
+        <v>504467338.4735792</v>
       </c>
       <c r="P25" s="4">
-        <v>0.7194244604316546</v>
+        <v>0.7163120567375887</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.7410071942446043</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="R25" s="4">
-        <v>0.8633093525179856</v>
+        <v>0.8156028368794326</v>
       </c>
       <c r="S25" s="4">
-        <v>0.9136690647482014</v>
+        <v>0.8652482269503546</v>
       </c>
       <c r="T25" s="4">
-        <v>0.8633093525179856</v>
+        <v>0.8156028368794326</v>
       </c>
       <c r="U25" s="5">
-        <v>27625.28352124705</v>
+        <v>26842.37143459249</v>
       </c>
       <c r="V25" s="5">
-        <v>26690.49280380764</v>
+        <v>26030.43260147074</v>
       </c>
       <c r="W25" s="5">
-        <v>26339.40822360555</v>
+        <v>25748.54331868849</v>
       </c>
       <c r="X25" s="5">
-        <v>25632.10714764895</v>
+        <v>25160.94336005128</v>
       </c>
       <c r="Y25" s="5">
-        <v>23991.527115045</v>
+        <v>23674.02777552043</v>
       </c>
       <c r="Z25" s="5">
-        <v>24573.63418848406</v>
+        <v>24486.32843770407</v>
       </c>
       <c r="AA25" s="5">
-        <v>-934.7907174394059</v>
+        <v>-811.9388331217524</v>
       </c>
       <c r="AB25" s="5">
-        <v>-1285.875297641498</v>
+        <v>-1093.828115903998</v>
       </c>
       <c r="AC25" s="5">
-        <v>-1993.176373598097</v>
+        <v>-1681.428074541211</v>
       </c>
       <c r="AD25" s="5">
-        <v>-3633.756406202046</v>
+        <v>-3168.343659072067</v>
       </c>
       <c r="AE25" s="5">
-        <v>-3051.649332762987</v>
+        <v>-2356.042996888427</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.03383823071790171</v>
+        <v>-0.03024840167718512</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.04654704436435964</v>
+        <v>-0.04075005513463503</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.07215044044942065</v>
+        <v>-0.06264081691285694</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.1315373434414625</v>
+        <v>-0.1180351619376273</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.1104658104383224</v>
+        <v>-0.08777328048788302</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3037,106 +3037,106 @@
         <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2">
-        <v>9013.5</v>
+        <v>8934.5</v>
       </c>
       <c r="E26" s="2">
-        <v>9398</v>
+        <v>9326</v>
       </c>
       <c r="F26" s="2">
-        <v>10001.5</v>
+        <v>9926.5</v>
       </c>
       <c r="G26" s="2">
-        <v>10562</v>
+        <v>10495.5</v>
       </c>
       <c r="H26" s="2">
-        <v>10876.5</v>
+        <v>10807.5</v>
       </c>
       <c r="I26" s="2">
-        <v>11204</v>
+        <v>11149</v>
       </c>
       <c r="J26" s="3">
-        <v>280930987.0274431</v>
+        <v>269103986.2515429</v>
       </c>
       <c r="K26" s="3">
-        <v>281459390.9660879</v>
+        <v>269550541.8715727</v>
       </c>
       <c r="L26" s="3">
-        <v>290748451.547428</v>
+        <v>279521046.1818974</v>
       </c>
       <c r="M26" s="3">
-        <v>301413419.2918916</v>
+        <v>291523319.7829666</v>
       </c>
       <c r="N26" s="3">
-        <v>291532409.6742125</v>
+        <v>285604444.667289</v>
       </c>
       <c r="O26" s="3">
-        <v>307461695.9140024</v>
+        <v>301094299.2994024</v>
       </c>
       <c r="P26" s="4">
-        <v>0.7083333333333334</v>
+        <v>0.6638655462184874</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.7166666666666667</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="R26" s="4">
-        <v>0.7833333333333333</v>
+        <v>0.7563025210084033</v>
       </c>
       <c r="S26" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="T26" s="4">
-        <v>0.775</v>
+        <v>0.7394957983193278</v>
       </c>
       <c r="U26" s="5">
-        <v>31167.80241054453</v>
+        <v>30119.64701455514</v>
       </c>
       <c r="V26" s="5">
-        <v>29948.86049862608</v>
+        <v>28903.12479858168</v>
       </c>
       <c r="W26" s="5">
-        <v>29070.48458205549</v>
+        <v>28159.07381069837</v>
       </c>
       <c r="X26" s="5">
-        <v>28537.53259722511</v>
+        <v>27776.02970634716</v>
       </c>
       <c r="Y26" s="5">
-        <v>26803.88081406817</v>
+        <v>26426.50424865038</v>
       </c>
       <c r="Z26" s="5">
-        <v>27442.13637218871</v>
+        <v>27006.39512955443</v>
       </c>
       <c r="AA26" s="5">
-        <v>-1218.941911918453</v>
+        <v>-1216.522215973459</v>
       </c>
       <c r="AB26" s="5">
-        <v>-2097.317828489042</v>
+        <v>-1960.573203856762</v>
       </c>
       <c r="AC26" s="5">
-        <v>-2630.269813319417</v>
+        <v>-2343.61730820798</v>
       </c>
       <c r="AD26" s="5">
-        <v>-4363.921596476357</v>
+        <v>-3693.142765904759</v>
       </c>
       <c r="AE26" s="5">
-        <v>-3725.666038355816</v>
+        <v>-3113.251885000704</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.03910901050585669</v>
+        <v>-0.04038965713594123</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.06729116800931356</v>
+        <v>-0.06509283468393001</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.08439060857333847</v>
+        <v>-0.07781025146395115</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.1400137725141628</v>
+        <v>-0.1226157386280148</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.1195357307929855</v>
+        <v>-0.1033628277083143</v>
       </c>
     </row>
   </sheetData>

--- a/output/Phase & Deprivation.xlsx
+++ b/output/Phase & Deprivation.xlsx
@@ -672,22 +672,22 @@
         <v>7023</v>
       </c>
       <c r="J4" s="3">
-        <v>34181328.52926175</v>
+        <v>34261648.29981892</v>
       </c>
       <c r="K4" s="3">
-        <v>33476038.09192182</v>
+        <v>33538582.93039495</v>
       </c>
       <c r="L4" s="3">
-        <v>35076199.22592485</v>
+        <v>35132281.77107649</v>
       </c>
       <c r="M4" s="3">
-        <v>37371299.60768432</v>
+        <v>37391418.68131825</v>
       </c>
       <c r="N4" s="3">
-        <v>39612291.29145883</v>
+        <v>39611701.85578573</v>
       </c>
       <c r="O4" s="3">
-        <v>44185534.98916744</v>
+        <v>44186559.19346254</v>
       </c>
       <c r="P4" s="4">
         <v>0.8181818181818182</v>
@@ -705,52 +705,52 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="U4" s="5">
-        <v>6748.534754049704</v>
+        <v>6764.392556726341</v>
       </c>
       <c r="V4" s="5">
-        <v>6138.450186471408</v>
+        <v>6149.918938368929</v>
       </c>
       <c r="W4" s="5">
-        <v>5876.394576298349</v>
+        <v>5885.790211270981</v>
       </c>
       <c r="X4" s="5">
-        <v>5697.713006202824</v>
+        <v>5700.78040575061</v>
       </c>
       <c r="Y4" s="5">
-        <v>5828.765640297062</v>
+        <v>5828.678907561173</v>
       </c>
       <c r="Z4" s="5">
-        <v>6291.547058118674</v>
+        <v>6291.692893843448</v>
       </c>
       <c r="AA4" s="5">
-        <v>-610.0845675782966</v>
+        <v>-614.4736183574123</v>
       </c>
       <c r="AB4" s="5">
-        <v>-872.1401777513547</v>
+        <v>-878.6023454553606</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1050.82174784688</v>
+        <v>-1063.612150975731</v>
       </c>
       <c r="AD4" s="5">
-        <v>-919.7691137526426</v>
+        <v>-935.7136491651681</v>
       </c>
       <c r="AE4" s="5">
-        <v>-456.9876959310304</v>
+        <v>-472.6996628828929</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.09040252289020123</v>
+        <v>-0.09083943801374972</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1292340055340154</v>
+        <v>-0.1298863627572443</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1557110967260407</v>
+        <v>-0.1572369051701623</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.1362916762339709</v>
+        <v>-0.138329294362835</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.06771658035202355</v>
+        <v>-0.06988057817739335</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -782,22 +782,22 @@
         <v>29675.5</v>
       </c>
       <c r="J5" s="3">
-        <v>141891518.0359109</v>
+        <v>142224936.7373782</v>
       </c>
       <c r="K5" s="3">
-        <v>148229123.288384</v>
+        <v>148506066.6515033</v>
       </c>
       <c r="L5" s="3">
-        <v>154724691.7602664</v>
+        <v>154972077.5860746</v>
       </c>
       <c r="M5" s="3">
-        <v>152923845.1057411</v>
+        <v>153006172.6172905</v>
       </c>
       <c r="N5" s="3">
-        <v>157986164.2740958</v>
+        <v>157983813.4209125</v>
       </c>
       <c r="O5" s="3">
-        <v>171011578.8284116</v>
+        <v>171015542.8133127</v>
       </c>
       <c r="P5" s="4">
         <v>0.8181818181818182</v>
@@ -815,52 +815,52 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="U5" s="5">
-        <v>6228.365912512825</v>
+        <v>6243.001415068287</v>
       </c>
       <c r="V5" s="5">
-        <v>6020.434721919662</v>
+        <v>6031.6829800375</v>
       </c>
       <c r="W5" s="5">
-        <v>5911.727643911219</v>
+        <v>5921.179772130084</v>
       </c>
       <c r="X5" s="5">
-        <v>5573.331089736726</v>
+        <v>5576.331527499336</v>
       </c>
       <c r="Y5" s="5">
-        <v>5499.092022976237</v>
+        <v>5499.010195823544</v>
       </c>
       <c r="Z5" s="5">
-        <v>5762.719375525655</v>
+        <v>5762.8529532211</v>
       </c>
       <c r="AA5" s="5">
-        <v>-207.9311905931627</v>
+        <v>-211.3184350307874</v>
       </c>
       <c r="AB5" s="5">
-        <v>-316.6382686016059</v>
+        <v>-321.8216429382037</v>
       </c>
       <c r="AC5" s="5">
-        <v>-655.0348227760996</v>
+        <v>-666.6698875689517</v>
       </c>
       <c r="AD5" s="5">
-        <v>-729.2738895365883</v>
+        <v>-743.9912192447437</v>
       </c>
       <c r="AE5" s="5">
-        <v>-465.6465369871703</v>
+        <v>-480.1484618471877</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.0333845495775108</v>
+        <v>-0.03384885265615079</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.05083809670935957</v>
+        <v>-0.05154918628745553</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1051696114160747</v>
+        <v>-0.1067867590034272</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1170891209316191</v>
+        <v>-0.1191720407829838</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.0747622319446074</v>
+        <v>-0.07690987554292195</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -890,22 +890,22 @@
         <v>27033.5</v>
       </c>
       <c r="J6" s="3">
-        <v>145819222.8014564</v>
+        <v>146161870.8792867</v>
       </c>
       <c r="K6" s="3">
-        <v>147053898.5942961</v>
+        <v>147328646.230476</v>
       </c>
       <c r="L6" s="3">
-        <v>149549471.3212292</v>
+        <v>149788582.603605</v>
       </c>
       <c r="M6" s="3">
-        <v>153230261.8302794</v>
+        <v>153312754.3031951</v>
       </c>
       <c r="N6" s="3">
-        <v>158904152.7931559</v>
+        <v>158901788.2801928</v>
       </c>
       <c r="O6" s="3">
-        <v>169069491.0012142</v>
+        <v>169073409.9692407</v>
       </c>
       <c r="P6" s="4">
         <v>0.6666666666666666</v>
@@ -923,52 +923,52 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="U6" s="5">
-        <v>6939.311528372543</v>
+        <v>6955.617621019186</v>
       </c>
       <c r="V6" s="5">
-        <v>6598.783872304065</v>
+        <v>6611.112687030558</v>
       </c>
       <c r="W6" s="5">
-        <v>6317.701511151775</v>
+        <v>6327.802741845891</v>
       </c>
       <c r="X6" s="5">
-        <v>6149.750640349946</v>
+        <v>6153.061397194434</v>
       </c>
       <c r="Y6" s="5">
-        <v>6160.269540343319</v>
+        <v>6160.177874789409</v>
       </c>
       <c r="Z6" s="5">
-        <v>6254.073316485628</v>
+        <v>6254.218283582987</v>
       </c>
       <c r="AA6" s="5">
-        <v>-340.5276560684779</v>
+        <v>-344.5049339886282</v>
       </c>
       <c r="AB6" s="5">
-        <v>-621.610017220768</v>
+        <v>-627.8148791732956</v>
       </c>
       <c r="AC6" s="5">
-        <v>-789.5608880225964</v>
+        <v>-802.5562238247521</v>
       </c>
       <c r="AD6" s="5">
-        <v>-779.0419880292238</v>
+        <v>-795.4397462297775</v>
       </c>
       <c r="AE6" s="5">
-        <v>-685.2382118869145</v>
+        <v>-701.3993374361989</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.0490722537352839</v>
+        <v>-0.0495290213981241</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.08957805319435663</v>
+        <v>-0.09026011971619907</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.1137808678561762</v>
+        <v>-0.1153824530836064</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1122650258377909</v>
+        <v>-0.1143593264566525</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.09874729057561438</v>
+        <v>-0.1008392605304581</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -998,22 +998,22 @@
         <v>32672</v>
       </c>
       <c r="J7" s="3">
-        <v>183753875.7895454</v>
+        <v>184185663.252978</v>
       </c>
       <c r="K7" s="3">
-        <v>185636621.4366372</v>
+        <v>185983454.9678505</v>
       </c>
       <c r="L7" s="3">
-        <v>192374506.8219027</v>
+        <v>192682090.0892736</v>
       </c>
       <c r="M7" s="3">
-        <v>203660260.5436984</v>
+        <v>203769902.3228498</v>
       </c>
       <c r="N7" s="3">
-        <v>204884528.4290793</v>
+        <v>204881479.7225797</v>
       </c>
       <c r="O7" s="3">
-        <v>218200810.420123</v>
+        <v>218205868.2338912</v>
       </c>
       <c r="P7" s="4">
         <v>0.9130434782608695</v>
@@ -1031,52 +1031,52 @@
         <v>0.8695652173913043</v>
       </c>
       <c r="U7" s="5">
-        <v>7504.446450606283</v>
+        <v>7522.080505308258</v>
       </c>
       <c r="V7" s="5">
-        <v>7123.568043770494</v>
+        <v>7136.87733716497</v>
       </c>
       <c r="W7" s="5">
-        <v>6832.451584809726</v>
+        <v>6843.375837806278</v>
       </c>
       <c r="X7" s="5">
-        <v>6711.714360127155</v>
+        <v>6715.327653666285</v>
       </c>
       <c r="Y7" s="5">
-        <v>6441.896822168818</v>
+        <v>6441.800965966979</v>
       </c>
       <c r="Z7" s="5">
-        <v>6678.526273877419</v>
+        <v>6678.68107963673</v>
       </c>
       <c r="AA7" s="5">
-        <v>-380.8784068357891</v>
+        <v>-385.2031681432873</v>
       </c>
       <c r="AB7" s="5">
-        <v>-671.994865796557</v>
+        <v>-678.7046675019792</v>
       </c>
       <c r="AC7" s="5">
-        <v>-792.7320904791286</v>
+        <v>-806.7528516419725</v>
       </c>
       <c r="AD7" s="5">
-        <v>-1062.549628437465</v>
+        <v>-1080.279539341279</v>
       </c>
       <c r="AE7" s="5">
-        <v>-825.9201767288641</v>
+        <v>-843.3994256715278</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05075369773676219</v>
+        <v>-0.05120965773650699</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.08954622705612969</v>
+        <v>-0.09022831742136017</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.1056349852979608</v>
+        <v>-0.1072512918563761</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.1415893411234378</v>
+        <v>-0.1436144612622713</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.1100574415668111</v>
+        <v>-0.1121231586229833</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1106,22 +1106,22 @@
         <v>33119.5</v>
       </c>
       <c r="J8" s="3">
-        <v>222174403.5459016</v>
+        <v>222696472.1103578</v>
       </c>
       <c r="K8" s="3">
-        <v>225889346.2347414</v>
+        <v>226311385.8032907</v>
       </c>
       <c r="L8" s="3">
-        <v>231201943.7659549</v>
+        <v>231571607.3480006</v>
       </c>
       <c r="M8" s="3">
-        <v>236696197.584416</v>
+        <v>236823624.4675607</v>
       </c>
       <c r="N8" s="3">
-        <v>235207328.8933285</v>
+        <v>235203828.9799</v>
       </c>
       <c r="O8" s="3">
-        <v>240871175.9429766</v>
+        <v>240876759.2474003</v>
       </c>
       <c r="P8" s="4">
         <v>0.8333333333333334</v>
@@ -1133,58 +1133,58 @@
         <v>0.875</v>
       </c>
       <c r="S8" s="4">
-        <v>0.875</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="T8" s="4">
         <v>0.7916666666666666</v>
       </c>
       <c r="U8" s="5">
-        <v>8147.209517634821</v>
+        <v>8166.353946107731</v>
       </c>
       <c r="V8" s="5">
-        <v>7858.250725669805</v>
+        <v>7872.932660878771</v>
       </c>
       <c r="W8" s="5">
-        <v>7694.676465735512</v>
+        <v>7706.979310679954</v>
       </c>
       <c r="X8" s="5">
-        <v>7401.9606781148</v>
+        <v>7405.945570090243</v>
       </c>
       <c r="Y8" s="5">
-        <v>7115.312537423155</v>
+        <v>7115.206660714232</v>
       </c>
       <c r="Z8" s="5">
-        <v>7272.790227599348</v>
+        <v>7272.95880817646</v>
       </c>
       <c r="AA8" s="5">
-        <v>-288.9587919650157</v>
+        <v>-293.4212852289593</v>
       </c>
       <c r="AB8" s="5">
-        <v>-452.5330518993087</v>
+        <v>-459.3746354277764</v>
       </c>
       <c r="AC8" s="5">
-        <v>-745.2488395200207</v>
+        <v>-760.4083760174881</v>
       </c>
       <c r="AD8" s="5">
-        <v>-1031.896980211666</v>
+        <v>-1051.147285393498</v>
       </c>
       <c r="AE8" s="5">
-        <v>-874.4192900354728</v>
+        <v>-893.3951379312703</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.03546721013367315</v>
+        <v>-0.03593051282926707</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05554454576377232</v>
+        <v>-0.05625210938190162</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.09147289484907839</v>
+        <v>-0.09311479529734512</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.1266564923828338</v>
+        <v>-0.1287168413627845</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.1073274583331596</v>
+        <v>-0.1093995121723915</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1214,22 +1214,22 @@
         <v>26322.5</v>
       </c>
       <c r="J9" s="3">
-        <v>189221769.8003077</v>
+        <v>189666405.7986355</v>
       </c>
       <c r="K9" s="3">
-        <v>185118057.0121384</v>
+        <v>185463921.6853263</v>
       </c>
       <c r="L9" s="3">
-        <v>180941612.5172687</v>
+        <v>181230915.9873639</v>
       </c>
       <c r="M9" s="3">
-        <v>178444578.7772704</v>
+        <v>178540645.5359244</v>
       </c>
       <c r="N9" s="3">
-        <v>183315749.5994823</v>
+        <v>183313021.8390137</v>
       </c>
       <c r="O9" s="3">
-        <v>194330798.1448846</v>
+        <v>194335302.660631</v>
       </c>
       <c r="P9" s="4">
         <v>0.95</v>
@@ -1247,52 +1247,52 @@
         <v>0.95</v>
       </c>
       <c r="U9" s="5">
-        <v>8329.522815526158</v>
+        <v>8349.095646372125</v>
       </c>
       <c r="V9" s="5">
-        <v>7834.192725708897</v>
+        <v>7848.829712237934</v>
       </c>
       <c r="W9" s="5">
-        <v>7487.600609019828</v>
+        <v>7499.572365039578</v>
       </c>
       <c r="X9" s="5">
-        <v>7204.933127842307</v>
+        <v>7208.81194879979</v>
       </c>
       <c r="Y9" s="5">
-        <v>7190.826877946191</v>
+        <v>7190.719877574773</v>
       </c>
       <c r="Z9" s="5">
-        <v>7382.687744130861</v>
+        <v>7382.858872091596</v>
       </c>
       <c r="AA9" s="5">
-        <v>-495.3300898172602</v>
+        <v>-500.2659341341905</v>
       </c>
       <c r="AB9" s="5">
-        <v>-841.9222065063295</v>
+        <v>-849.5232813325465</v>
       </c>
       <c r="AC9" s="5">
-        <v>-1124.589687683851</v>
+        <v>-1140.283697572335</v>
       </c>
       <c r="AD9" s="5">
-        <v>-1138.695937579966</v>
+        <v>-1158.375768797352</v>
       </c>
       <c r="AE9" s="5">
-        <v>-946.8350713952968</v>
+        <v>-966.2367742805291</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.05946680269534399</v>
+        <v>-0.05991857745114793</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.101076883412456</v>
+        <v>-0.1017503352835207</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.1350124986256866</v>
+        <v>-0.1365757138101316</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1367060229977937</v>
+        <v>-0.1387426636201842</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.1136721865543612</v>
+        <v>-0.1157295131359983</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1324,22 +1324,22 @@
         <v>16237.5</v>
       </c>
       <c r="J10" s="3">
-        <v>168921585.3651781</v>
+        <v>169318519.7022113</v>
       </c>
       <c r="K10" s="3">
-        <v>162813702.2085817</v>
+        <v>163117894.618624</v>
       </c>
       <c r="L10" s="3">
-        <v>168355375.6572177</v>
+        <v>168624555.2765944</v>
       </c>
       <c r="M10" s="3">
-        <v>171034500.5684405</v>
+        <v>171126578.0649956</v>
       </c>
       <c r="N10" s="3">
-        <v>164939673.1191611</v>
+        <v>164937218.7969272</v>
       </c>
       <c r="O10" s="3">
-        <v>159366467.0471354</v>
+        <v>159370161.1026692</v>
       </c>
       <c r="P10" s="4">
         <v>0.6561264822134387</v>
@@ -1348,61 +1348,61 @@
         <v>0.8142292490118577</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7470355731225297</v>
+        <v>0.7549407114624506</v>
       </c>
       <c r="S10" s="4">
         <v>0.7865612648221344</v>
       </c>
       <c r="T10" s="4">
-        <v>0.6363636363636364</v>
+        <v>0.6403162055335968</v>
       </c>
       <c r="U10" s="5">
-        <v>11099.38796012735</v>
+        <v>11125.4694593739</v>
       </c>
       <c r="V10" s="5">
-        <v>10369.96924993355</v>
+        <v>10389.34394564657</v>
       </c>
       <c r="W10" s="5">
-        <v>9703.75951221751</v>
+        <v>9719.274634807596</v>
       </c>
       <c r="X10" s="5">
-        <v>9756.952598102655</v>
+        <v>9762.205314754876</v>
       </c>
       <c r="Y10" s="5">
-        <v>9165.60657493046</v>
+        <v>9165.470189598911</v>
       </c>
       <c r="Z10" s="5">
-        <v>9814.716985196943</v>
+        <v>9814.944486692482</v>
       </c>
       <c r="AA10" s="5">
-        <v>-729.4187101938005</v>
+        <v>-736.1255137273238</v>
       </c>
       <c r="AB10" s="5">
-        <v>-1395.628447909839</v>
+        <v>-1406.194824566299</v>
       </c>
       <c r="AC10" s="5">
-        <v>-1342.435362024695</v>
+        <v>-1363.264144619019</v>
       </c>
       <c r="AD10" s="5">
-        <v>-1933.781385196889</v>
+        <v>-1959.999269774984</v>
       </c>
       <c r="AE10" s="5">
-        <v>-1284.670974930406</v>
+        <v>-1310.524972681413</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.06571702086764719</v>
+        <v>-0.06616579340003426</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.1257392257053628</v>
+        <v>-0.1263942011347209</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.1209467915570808</v>
+        <v>-0.1225354264462418</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.1742241457045801</v>
+        <v>-0.1761722754201229</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.1157425057620625</v>
+        <v>-0.1177950267597215</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1432,22 +1432,22 @@
         <v>4304.5</v>
       </c>
       <c r="J11" s="3">
-        <v>57098221.4523095</v>
+        <v>57232391.6628777</v>
       </c>
       <c r="K11" s="3">
-        <v>53643280.09371711</v>
+        <v>53743504.32812078</v>
       </c>
       <c r="L11" s="3">
-        <v>52682431.84446124</v>
+        <v>52766664.5985172</v>
       </c>
       <c r="M11" s="3">
-        <v>53298314.36959913</v>
+        <v>53327007.85156588</v>
       </c>
       <c r="N11" s="3">
-        <v>51908750.1103416</v>
+        <v>51907977.70187788</v>
       </c>
       <c r="O11" s="3">
-        <v>48873963.19979713</v>
+        <v>48875096.08011736</v>
       </c>
       <c r="P11" s="4">
         <v>0.6229508196721312</v>
@@ -1456,7 +1456,7 @@
         <v>0.7377049180327869</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7704918032786885</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="S11" s="4">
         <v>0.6721311475409836</v>
@@ -1465,52 +1465,52 @@
         <v>0.6557377049180327</v>
       </c>
       <c r="U11" s="5">
-        <v>12820.977085957</v>
+        <v>12851.103999748</v>
       </c>
       <c r="V11" s="5">
-        <v>11887.70749999271</v>
+        <v>11909.91785664727</v>
       </c>
       <c r="W11" s="5">
-        <v>11126.17356799604</v>
+        <v>11143.96295639223</v>
       </c>
       <c r="X11" s="5">
-        <v>10903.91046841226</v>
+        <v>10909.78065703066</v>
       </c>
       <c r="Y11" s="5">
-        <v>10750.49189403368</v>
+        <v>10750.33192541739</v>
       </c>
       <c r="Z11" s="5">
-        <v>11354.15569747872</v>
+        <v>11354.41888259202</v>
       </c>
       <c r="AA11" s="5">
-        <v>-933.2695859642881</v>
+        <v>-941.186143100731</v>
       </c>
       <c r="AB11" s="5">
-        <v>-1694.803517960961</v>
+        <v>-1707.141043355768</v>
       </c>
       <c r="AC11" s="5">
-        <v>-1917.066617544739</v>
+        <v>-1941.323342717335</v>
       </c>
       <c r="AD11" s="5">
-        <v>-2070.485191923324</v>
+        <v>-2100.772074330604</v>
       </c>
       <c r="AE11" s="5">
-        <v>-1466.821388478284</v>
+        <v>-1496.685117155974</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.07279239169583351</v>
+        <v>-0.07323776565182161</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.1321898874476036</v>
+        <v>-0.1328400301942343</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.1495257814355295</v>
+        <v>-0.1510627680513209</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.1614919969080326</v>
+        <v>-0.1634701636817972</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.1144079252808987</v>
+        <v>-0.1164635440803625</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1542,85 +1542,85 @@
         <v>673996</v>
       </c>
       <c r="J12" s="3">
-        <v>3320596524.275596</v>
+        <v>3328399309.082938</v>
       </c>
       <c r="K12" s="3">
-        <v>3267317664.448313</v>
+        <v>3273422145.958408</v>
       </c>
       <c r="L12" s="3">
-        <v>3282470506.038918</v>
+        <v>3287718774.221507</v>
       </c>
       <c r="M12" s="3">
-        <v>3314298048.772302</v>
+        <v>3316082321.922775</v>
       </c>
       <c r="N12" s="3">
-        <v>3269962922.468396</v>
+        <v>3269914265.02564</v>
       </c>
       <c r="O12" s="3">
-        <v>3403302632.375104</v>
+        <v>3403381519.666479</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7233449477351916</v>
+        <v>0.7250871080139373</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7397212543554007</v>
+        <v>0.7421602787456446</v>
       </c>
       <c r="R12" s="4">
-        <v>0.6888501742160279</v>
+        <v>0.6989547038327526</v>
       </c>
       <c r="S12" s="4">
-        <v>0.7414634146341463</v>
+        <v>0.7540069686411149</v>
       </c>
       <c r="T12" s="4">
-        <v>0.551219512195122</v>
+        <v>0.5637630662020906</v>
       </c>
       <c r="U12" s="5">
-        <v>5086.666938737501</v>
+        <v>5098.619660852167</v>
       </c>
       <c r="V12" s="5">
-        <v>4933.98982257532</v>
+        <v>4943.20822517224</v>
       </c>
       <c r="W12" s="5">
-        <v>4889.576514983791</v>
+        <v>4897.394348777791</v>
       </c>
       <c r="X12" s="5">
-        <v>4914.548883460192</v>
+        <v>4917.194661688464</v>
       </c>
       <c r="Y12" s="5">
-        <v>4840.721323720463</v>
+        <v>4840.649293203211</v>
       </c>
       <c r="Z12" s="5">
-        <v>5049.440400796302</v>
+        <v>5049.557444949939</v>
       </c>
       <c r="AA12" s="5">
-        <v>-152.6771161621809</v>
+        <v>-155.4114356799273</v>
       </c>
       <c r="AB12" s="5">
-        <v>-197.0904237537106</v>
+        <v>-201.2253120743762</v>
       </c>
       <c r="AC12" s="5">
-        <v>-172.1180552773094</v>
+        <v>-181.4249991637025</v>
       </c>
       <c r="AD12" s="5">
-        <v>-245.9456150170381</v>
+        <v>-257.9703676489562</v>
       </c>
       <c r="AE12" s="5">
-        <v>-37.22653794119924</v>
+        <v>-49.06221590222776</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.03001515884585815</v>
+        <v>-0.03048108037420316</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.03874647704035206</v>
+        <v>-0.03946662537302181</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.03383709948975522</v>
+        <v>-0.03558315999852002</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.0483510357527126</v>
+        <v>-0.05059611910840978</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.007318453987561258</v>
+        <v>-0.009622646748674635</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1629,106 +1629,106 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D13" s="2">
-        <v>707018</v>
+        <v>706813</v>
       </c>
       <c r="E13" s="2">
-        <v>719665</v>
+        <v>719458</v>
       </c>
       <c r="F13" s="2">
-        <v>730375</v>
+        <v>730170</v>
       </c>
       <c r="G13" s="2">
-        <v>734986</v>
+        <v>734778</v>
       </c>
       <c r="H13" s="2">
-        <v>738100</v>
+        <v>737891</v>
       </c>
       <c r="I13" s="2">
-        <v>735400</v>
+        <v>735199</v>
       </c>
       <c r="J13" s="3">
-        <v>3711156145.793135</v>
+        <v>3718645922.989576</v>
       </c>
       <c r="K13" s="3">
-        <v>3651485622.447568</v>
+        <v>3657139318.701365</v>
       </c>
       <c r="L13" s="3">
-        <v>3676455894.744562</v>
+        <v>3681185259.568739</v>
       </c>
       <c r="M13" s="3">
-        <v>3721260027.705964</v>
+        <v>3722639370.613975</v>
       </c>
       <c r="N13" s="3">
-        <v>3667878082.428011</v>
+        <v>3666780007.163327</v>
       </c>
       <c r="O13" s="3">
-        <v>3814288645.240731</v>
+        <v>3813246991.849478</v>
       </c>
       <c r="P13" s="4">
-        <v>0.7258297258297258</v>
+        <v>0.7300613496932515</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.7319624819624819</v>
+        <v>0.7343919162757128</v>
       </c>
       <c r="R13" s="4">
-        <v>0.6836219336219336</v>
+        <v>0.6950559364850235</v>
       </c>
       <c r="S13" s="4">
-        <v>0.7456709956709957</v>
+        <v>0.7524359437026344</v>
       </c>
       <c r="T13" s="4">
-        <v>0.5505050505050505</v>
+        <v>0.5615301335258029</v>
       </c>
       <c r="U13" s="5">
-        <v>5249.026397903781</v>
+        <v>5261.145342529886</v>
       </c>
       <c r="V13" s="5">
-        <v>5073.868567246661</v>
+        <v>5083.186674832116</v>
       </c>
       <c r="W13" s="5">
-        <v>5033.6551699395</v>
+        <v>5041.545475120504</v>
       </c>
       <c r="X13" s="5">
-        <v>5063.035251972097</v>
+        <v>5066.345713418168</v>
       </c>
       <c r="Y13" s="5">
-        <v>4969.351148120865</v>
+        <v>4969.270538823927</v>
       </c>
       <c r="Z13" s="5">
-        <v>5186.685674790225</v>
+        <v>5186.686858727335</v>
       </c>
       <c r="AA13" s="5">
-        <v>-175.15783065712</v>
+        <v>-177.9586676977697</v>
       </c>
       <c r="AB13" s="5">
-        <v>-215.3712279642814</v>
+        <v>-219.5998674093817</v>
       </c>
       <c r="AC13" s="5">
-        <v>-185.9911459316836</v>
+        <v>-194.7996291117179</v>
       </c>
       <c r="AD13" s="5">
-        <v>-279.6752497829157</v>
+        <v>-291.8748037059586</v>
       </c>
       <c r="AE13" s="5">
-        <v>-62.34072311355612</v>
+        <v>-74.4584838025512</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.03336958463898565</v>
+        <v>-0.03382508106346971</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.04103070010284016</v>
+        <v>-0.04173993552966249</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.03543345600356662</v>
+        <v>-0.037026087748803</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.0532813570712094</v>
+        <v>-0.0554774264353638</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.01187662594694749</v>
+        <v>-0.0141525236340927</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1737,106 +1737,106 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="D14" s="2">
-        <v>756805</v>
+        <v>757297</v>
       </c>
       <c r="E14" s="2">
-        <v>770830.5</v>
+        <v>771320.5</v>
       </c>
       <c r="F14" s="2">
-        <v>782977.5</v>
+        <v>783470.5</v>
       </c>
       <c r="G14" s="2">
-        <v>787568.5</v>
+        <v>788041</v>
       </c>
       <c r="H14" s="2">
-        <v>787257.5</v>
+        <v>787724.5</v>
       </c>
       <c r="I14" s="2">
-        <v>778089.5</v>
+        <v>778563.5</v>
       </c>
       <c r="J14" s="3">
-        <v>4231998299.578496</v>
+        <v>4244034462.681302</v>
       </c>
       <c r="K14" s="3">
-        <v>4152298935.58203</v>
+        <v>4162544191.257792</v>
       </c>
       <c r="L14" s="3">
-        <v>4177471368.582839</v>
+        <v>4186980501.05743</v>
       </c>
       <c r="M14" s="3">
-        <v>4211297988.954754</v>
+        <v>4216574612.797225</v>
       </c>
       <c r="N14" s="3">
-        <v>4132217564.25315</v>
+        <v>4134279911.996789</v>
       </c>
       <c r="O14" s="3">
-        <v>4256576047.816894</v>
+        <v>4259285987.157284</v>
       </c>
       <c r="P14" s="4">
-        <v>0.7388278388278389</v>
+        <v>0.7400219699743683</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.7457875457875458</v>
+        <v>0.749542292200659</v>
       </c>
       <c r="R14" s="4">
-        <v>0.7029304029304029</v>
+        <v>0.7081655071402416</v>
       </c>
       <c r="S14" s="4">
-        <v>0.76007326007326</v>
+        <v>0.7685829366532406</v>
       </c>
       <c r="T14" s="4">
-        <v>0.5860805860805861</v>
+        <v>0.5968509703405346</v>
       </c>
       <c r="U14" s="5">
-        <v>5591.926981955055</v>
+        <v>5604.187607611415</v>
       </c>
       <c r="V14" s="5">
-        <v>5386.785986779234</v>
+        <v>5396.646648517435</v>
       </c>
       <c r="W14" s="5">
-        <v>5335.365790949088</v>
+        <v>5344.145696688554</v>
       </c>
       <c r="X14" s="5">
-        <v>5347.214863157623</v>
+        <v>5350.704611558568</v>
       </c>
       <c r="Y14" s="5">
-        <v>5248.876719819309</v>
+        <v>5248.383047622347</v>
       </c>
       <c r="Z14" s="5">
-        <v>5470.548115373481</v>
+        <v>5470.698263092586</v>
       </c>
       <c r="AA14" s="5">
-        <v>-205.1409951758214</v>
+        <v>-207.5409590939798</v>
       </c>
       <c r="AB14" s="5">
-        <v>-256.5611910059679</v>
+        <v>-260.0419109228606</v>
       </c>
       <c r="AC14" s="5">
-        <v>-244.7121187974326</v>
+        <v>-253.4829960528468</v>
       </c>
       <c r="AD14" s="5">
-        <v>-343.0502621357464</v>
+        <v>-355.8045599890684</v>
       </c>
       <c r="AE14" s="5">
-        <v>-121.3788665815746</v>
+        <v>-133.4893445188291</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.03668520634082029</v>
+        <v>-0.03703319260977356</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.04588064040068507</v>
+        <v>-0.04640135718684379</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.04376167993378843</v>
+        <v>-0.04523099756842097</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.06134741444993064</v>
+        <v>-0.06348905227687718</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.02170608932721396</v>
+        <v>-0.02381957098251464</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1845,106 +1845,106 @@
         <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="D15" s="2">
-        <v>834996.5</v>
+        <v>835080.5</v>
       </c>
       <c r="E15" s="2">
-        <v>851842.5</v>
+        <v>851931.5</v>
       </c>
       <c r="F15" s="2">
-        <v>859905</v>
+        <v>859993</v>
       </c>
       <c r="G15" s="2">
-        <v>862729</v>
+        <v>862825</v>
       </c>
       <c r="H15" s="2">
-        <v>859486.5</v>
+        <v>859565.5</v>
       </c>
       <c r="I15" s="2">
-        <v>847497</v>
+        <v>847560</v>
       </c>
       <c r="J15" s="3">
-        <v>5120441983.536382</v>
+        <v>5133213924.094632</v>
       </c>
       <c r="K15" s="3">
-        <v>5000235623.424281</v>
+        <v>5010313194.777085</v>
       </c>
       <c r="L15" s="3">
-        <v>5025685105.500741</v>
+        <v>5034464980.535628</v>
       </c>
       <c r="M15" s="3">
-        <v>5038551057.307637</v>
+        <v>5042067093.152916</v>
       </c>
       <c r="N15" s="3">
-        <v>4915736147.596232</v>
+        <v>4916550739.224089</v>
       </c>
       <c r="O15" s="3">
-        <v>5032940975.993158</v>
+        <v>5033850468.388741</v>
       </c>
       <c r="P15" s="4">
-        <v>0.745493871665465</v>
+        <v>0.747478386167147</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.7372025955299207</v>
+        <v>0.7402737752161384</v>
       </c>
       <c r="R15" s="4">
-        <v>0.7202595529920692</v>
+        <v>0.729106628242075</v>
       </c>
       <c r="S15" s="4">
-        <v>0.7797404470079308</v>
+        <v>0.7871037463976945</v>
       </c>
       <c r="T15" s="4">
-        <v>0.6005767844268205</v>
+        <v>0.6127521613832853</v>
       </c>
       <c r="U15" s="5">
-        <v>6132.291552762655</v>
+        <v>6146.968973763167</v>
       </c>
       <c r="V15" s="5">
-        <v>5869.906260164621</v>
+        <v>5881.122126341244</v>
       </c>
       <c r="W15" s="5">
-        <v>5844.465499678152</v>
+        <v>5854.076696595936</v>
       </c>
       <c r="X15" s="5">
-        <v>5840.247699228422</v>
+        <v>5843.672926900491</v>
       </c>
       <c r="Y15" s="5">
-        <v>5719.387270883524</v>
+        <v>5719.809298097804</v>
       </c>
       <c r="Z15" s="5">
-        <v>5938.594444574032</v>
+        <v>5939.226094186536</v>
       </c>
       <c r="AA15" s="5">
-        <v>-262.3852925980336</v>
+        <v>-265.8468474219235</v>
       </c>
       <c r="AB15" s="5">
-        <v>-287.8260530845027</v>
+        <v>-292.8922771672314</v>
       </c>
       <c r="AC15" s="5">
-        <v>-292.0438535342328</v>
+        <v>-303.2960468626761</v>
       </c>
       <c r="AD15" s="5">
-        <v>-412.9042818791304</v>
+        <v>-427.1596756653626</v>
       </c>
       <c r="AE15" s="5">
-        <v>-193.6971081886231</v>
+        <v>-207.7428795766309</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.04278747843941411</v>
+        <v>-0.04324844464916378</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.04693613319067236</v>
+        <v>-0.04764824394223732</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.04762393487352445</v>
+        <v>-0.04934074796167365</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.06733278715248192</v>
+        <v>-0.06949110650933643</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.03158641537540086</v>
+        <v>-0.03379598635739511</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1974,85 +1974,85 @@
         <v>813953</v>
       </c>
       <c r="J16" s="3">
-        <v>5598913932.409934</v>
+        <v>5612070339.775309</v>
       </c>
       <c r="K16" s="3">
-        <v>5450432903.6574</v>
+        <v>5460616200.875311</v>
       </c>
       <c r="L16" s="3">
-        <v>5453474190.803079</v>
+        <v>5462193627.893987</v>
       </c>
       <c r="M16" s="3">
-        <v>5437525449.789317</v>
+        <v>5440452775.733526</v>
       </c>
       <c r="N16" s="3">
-        <v>5288373733.138572</v>
+        <v>5288295041.499472</v>
       </c>
       <c r="O16" s="3">
-        <v>5368803364.569588</v>
+        <v>5368927811.438152</v>
       </c>
       <c r="P16" s="4">
-        <v>0.7411038489469862</v>
+        <v>0.7429193899782135</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.7280319535221496</v>
+        <v>0.7309368191721133</v>
       </c>
       <c r="R16" s="4">
-        <v>0.7106027596223675</v>
+        <v>0.7178649237472767</v>
       </c>
       <c r="S16" s="4">
-        <v>0.7654320987654321</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="T16" s="4">
-        <v>0.59840232389252</v>
+        <v>0.6063907044299202</v>
       </c>
       <c r="U16" s="5">
-        <v>6799.270797551222</v>
+        <v>6815.247820502453</v>
       </c>
       <c r="V16" s="5">
-        <v>6510.782138051543</v>
+        <v>6522.946535046203</v>
       </c>
       <c r="W16" s="5">
-        <v>6466.381051466968</v>
+        <v>6476.720002530345</v>
       </c>
       <c r="X16" s="5">
-        <v>6458.114144230323</v>
+        <v>6461.590910501975</v>
       </c>
       <c r="Y16" s="5">
-        <v>6350.783624036368</v>
+        <v>6350.68912360993</v>
       </c>
       <c r="Z16" s="5">
-        <v>6595.962376905777</v>
+        <v>6596.115268864605</v>
       </c>
       <c r="AA16" s="5">
-        <v>-288.4886594996788</v>
+        <v>-292.3012854562494</v>
       </c>
       <c r="AB16" s="5">
-        <v>-332.8897460842545</v>
+        <v>-338.5278179721081</v>
       </c>
       <c r="AC16" s="5">
-        <v>-341.1566533208988</v>
+        <v>-353.6569100004781</v>
       </c>
       <c r="AD16" s="5">
-        <v>-448.4871735148545</v>
+        <v>-464.5586968925227</v>
       </c>
       <c r="AE16" s="5">
-        <v>-203.308420645445</v>
+        <v>-219.1325516378474</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.04242935280700677</v>
+        <v>-0.04288931131409679</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.04895962464153447</v>
+        <v>-0.04967212152633804</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.05017547667667055</v>
+        <v>-0.05189201028560764</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.06596106948356562</v>
+        <v>-0.06816460811520031</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.02990150366104949</v>
+        <v>-0.03215327709413973</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2084,85 +2084,85 @@
         <v>692324</v>
       </c>
       <c r="J17" s="3">
-        <v>3881491799.401857</v>
+        <v>3890612583.881621</v>
       </c>
       <c r="K17" s="3">
-        <v>3889068443.056807</v>
+        <v>3896334570.455578</v>
       </c>
       <c r="L17" s="3">
-        <v>3817229967.395161</v>
+        <v>3823333250.43965</v>
       </c>
       <c r="M17" s="3">
-        <v>3860660244.899038</v>
+        <v>3862738655.566001</v>
       </c>
       <c r="N17" s="3">
-        <v>3827786564.361682</v>
+        <v>3827729606.435834</v>
       </c>
       <c r="O17" s="3">
-        <v>4132501666.222328</v>
+        <v>4132597456.076571</v>
       </c>
       <c r="P17" s="4">
-        <v>0.6208695652173913</v>
+        <v>0.6226086956521739</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.7408695652173913</v>
+        <v>0.7443478260869565</v>
       </c>
       <c r="R17" s="4">
-        <v>0.7495652173913043</v>
+        <v>0.7530434782608696</v>
       </c>
       <c r="S17" s="4">
-        <v>0.8504347826086956</v>
+        <v>0.8539130434782609</v>
       </c>
       <c r="T17" s="4">
-        <v>0.5460869565217391</v>
+        <v>0.5582608695652174</v>
       </c>
       <c r="U17" s="5">
-        <v>6027.245410885955</v>
+        <v>6041.408317634285</v>
       </c>
       <c r="V17" s="5">
-        <v>5970.01603856235</v>
+        <v>5981.170097109802</v>
       </c>
       <c r="W17" s="5">
-        <v>5806.807820836712</v>
+        <v>5816.092195112885</v>
       </c>
       <c r="X17" s="5">
-        <v>5782.889984203185</v>
+        <v>5786.003239311536</v>
       </c>
       <c r="Y17" s="5">
-        <v>5627.322799442944</v>
+        <v>5627.239064200828</v>
       </c>
       <c r="Z17" s="5">
-        <v>5969.028469650522</v>
+        <v>5969.166829514174</v>
       </c>
       <c r="AA17" s="5">
-        <v>-57.22937232360437</v>
+        <v>-60.23822052448304</v>
       </c>
       <c r="AB17" s="5">
-        <v>-220.4375900492423</v>
+        <v>-225.3161225213998</v>
       </c>
       <c r="AC17" s="5">
-        <v>-244.3554266827696</v>
+        <v>-255.4050783227485</v>
       </c>
       <c r="AD17" s="5">
-        <v>-399.9226114430112</v>
+        <v>-414.169253433457</v>
       </c>
       <c r="AE17" s="5">
-        <v>-58.21694123543239</v>
+        <v>-72.24148812011117</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.009495112347713719</v>
+        <v>-0.00997089045424282</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.03657352157108196</v>
+        <v>-0.03729529783042873</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.04054180807727414</v>
+        <v>-0.0422757517609339</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.06635246852910637</v>
+        <v>-0.0685550837913963</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.00965896313600989</v>
+        <v>-0.01195772315359733</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2192,85 +2192,85 @@
         <v>606301</v>
       </c>
       <c r="J18" s="3">
-        <v>3616307584.783343</v>
+        <v>3624805235.634604</v>
       </c>
       <c r="K18" s="3">
-        <v>3579204106.605068</v>
+        <v>3585891300.056559</v>
       </c>
       <c r="L18" s="3">
-        <v>3514786937.295891</v>
+        <v>3520406650.989497</v>
       </c>
       <c r="M18" s="3">
-        <v>3557115342.308456</v>
+        <v>3559030337.672476</v>
       </c>
       <c r="N18" s="3">
-        <v>3500917384.919171</v>
+        <v>3500865290.84614</v>
       </c>
       <c r="O18" s="3">
-        <v>3772689025.209748</v>
+        <v>3772776474.740567</v>
       </c>
       <c r="P18" s="4">
         <v>0.6845018450184502</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.8191881918819188</v>
+        <v>0.8210332103321033</v>
       </c>
       <c r="R18" s="4">
-        <v>0.8394833948339483</v>
+        <v>0.8431734317343174</v>
       </c>
       <c r="S18" s="4">
-        <v>0.9261992619926199</v>
+        <v>0.9280442804428044</v>
       </c>
       <c r="T18" s="4">
-        <v>0.7140221402214022</v>
+        <v>0.7195571955719557</v>
       </c>
       <c r="U18" s="5">
-        <v>6454.79898256914</v>
+        <v>6469.966560764021</v>
       </c>
       <c r="V18" s="5">
-        <v>6319.601223247299</v>
+        <v>6331.408428049659</v>
       </c>
       <c r="W18" s="5">
-        <v>6124.18640486879</v>
+        <v>6133.97822861675</v>
       </c>
       <c r="X18" s="5">
-        <v>6080.310385435858</v>
+        <v>6083.583758683393</v>
       </c>
       <c r="Y18" s="5">
-        <v>5882.495818085566</v>
+        <v>5882.408285838141</v>
       </c>
       <c r="Z18" s="5">
-        <v>6222.468749366649</v>
+        <v>6222.612983881879</v>
       </c>
       <c r="AA18" s="5">
-        <v>-135.1977593218417</v>
+        <v>-138.5581327143618</v>
       </c>
       <c r="AB18" s="5">
-        <v>-330.6125777003499</v>
+        <v>-335.9883321472707</v>
       </c>
       <c r="AC18" s="5">
-        <v>-374.4885971332824</v>
+        <v>-386.3828020806277</v>
       </c>
       <c r="AD18" s="5">
-        <v>-572.3031644835746</v>
+        <v>-587.5582749258801</v>
       </c>
       <c r="AE18" s="5">
-        <v>-232.3302332024914</v>
+        <v>-247.3535768821421</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.02094530901534442</v>
+        <v>-0.02141558714609493</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.05121965511136017</v>
+        <v>-0.05193045883495184</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.05801708126691008</v>
+        <v>-0.05971944343944191</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.08866320485410162</v>
+        <v>-0.09081318572634123</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.03599341107753895</v>
+        <v>-0.03823104409567968</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2300,85 +2300,85 @@
         <v>510885.5</v>
       </c>
       <c r="J19" s="3">
-        <v>3283016347.352386</v>
+        <v>3290730825.727007</v>
       </c>
       <c r="K19" s="3">
-        <v>3175308336.563834</v>
+        <v>3181240912.768568</v>
       </c>
       <c r="L19" s="3">
-        <v>3112857247.428095</v>
+        <v>3117834324.790586</v>
       </c>
       <c r="M19" s="3">
-        <v>3126624961.77871</v>
+        <v>3128308199.94522</v>
       </c>
       <c r="N19" s="3">
-        <v>3119511871.829745</v>
+        <v>3119465453.116765</v>
       </c>
       <c r="O19" s="3">
-        <v>3320796965.070809</v>
+        <v>3320873939.911455</v>
       </c>
       <c r="P19" s="4">
         <v>0.7602459016393442</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.8729508196721312</v>
+        <v>0.8770491803278688</v>
       </c>
       <c r="R19" s="4">
-        <v>0.8934426229508197</v>
+        <v>0.8975409836065574</v>
       </c>
       <c r="S19" s="4">
-        <v>0.930327868852459</v>
+        <v>0.9323770491803278</v>
       </c>
       <c r="T19" s="4">
-        <v>0.7950819672131147</v>
+        <v>0.8012295081967213</v>
       </c>
       <c r="U19" s="5">
-        <v>6906.793148260501</v>
+        <v>6923.022828756367</v>
       </c>
       <c r="V19" s="5">
-        <v>6630.503486290983</v>
+        <v>6642.891564247136</v>
       </c>
       <c r="W19" s="5">
-        <v>6450.555041378479</v>
+        <v>6460.868688590688</v>
       </c>
       <c r="X19" s="5">
-        <v>6366.944450611999</v>
+        <v>6370.372135107046</v>
       </c>
       <c r="Y19" s="5">
-        <v>6236.136412500502</v>
+        <v>6236.043618038379</v>
       </c>
       <c r="Z19" s="5">
-        <v>6500.080673792482</v>
+        <v>6500.231343249035</v>
       </c>
       <c r="AA19" s="5">
-        <v>-276.2896619695175</v>
+        <v>-280.1312645092312</v>
       </c>
       <c r="AB19" s="5">
-        <v>-456.2381068820223</v>
+        <v>-462.1541401656787</v>
       </c>
       <c r="AC19" s="5">
-        <v>-539.8486976485019</v>
+        <v>-552.6506936493206</v>
       </c>
       <c r="AD19" s="5">
-        <v>-670.6567357599988</v>
+        <v>-686.9792107179883</v>
       </c>
       <c r="AE19" s="5">
-        <v>-406.7124744680186</v>
+        <v>-422.7914855073313</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.0400025968693013</v>
+        <v>-0.04046372104186069</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.06605643126824023</v>
+        <v>-0.06675611963115524</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.07816199009586156</v>
+        <v>-0.0798279461615754</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.09710103102319001</v>
+        <v>-0.09923110579160044</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.05888586290881614</v>
+        <v>-0.06107035842077102</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2387,106 +2387,106 @@
         <v>24</v>
       </c>
       <c r="C20" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D20" s="2">
-        <v>454523.5</v>
+        <v>453397.5</v>
       </c>
       <c r="E20" s="2">
-        <v>458085</v>
+        <v>457022</v>
       </c>
       <c r="F20" s="2">
-        <v>462391.5</v>
+        <v>461379.5</v>
       </c>
       <c r="G20" s="2">
-        <v>472731</v>
+        <v>471774</v>
       </c>
       <c r="H20" s="2">
-        <v>485139.5</v>
+        <v>484157.5</v>
       </c>
       <c r="I20" s="2">
-        <v>496635.5</v>
+        <v>495667.5</v>
       </c>
       <c r="J20" s="3">
-        <v>3453712925.367323</v>
+        <v>3453048768.032127</v>
       </c>
       <c r="K20" s="3">
-        <v>3327953962.566281</v>
+        <v>3326166173.98376</v>
       </c>
       <c r="L20" s="3">
-        <v>3254860016.444105</v>
+        <v>3252583506.416107</v>
       </c>
       <c r="M20" s="3">
-        <v>3271647524.255886</v>
+        <v>3269677987.659924</v>
       </c>
       <c r="N20" s="3">
-        <v>3270641892.484987</v>
+        <v>3263898808.316214</v>
       </c>
       <c r="O20" s="3">
-        <v>3479407024.523666</v>
+        <v>3472348882.995037</v>
       </c>
       <c r="P20" s="4">
-        <v>0.7887323943661971</v>
+        <v>0.7883064516129032</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.8873239436619719</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="R20" s="4">
-        <v>0.8893360160965795</v>
+        <v>0.8931451612903226</v>
       </c>
       <c r="S20" s="4">
-        <v>0.9416498993963782</v>
+        <v>0.9475806451612904</v>
       </c>
       <c r="T20" s="4">
-        <v>0.8390342052313883</v>
+        <v>0.842741935483871</v>
       </c>
       <c r="U20" s="5">
-        <v>7598.535445070108</v>
+        <v>7615.941349548965</v>
       </c>
       <c r="V20" s="5">
-        <v>7264.926733174588</v>
+        <v>7277.912603734087</v>
       </c>
       <c r="W20" s="5">
-        <v>7039.186525799251</v>
+        <v>7049.692295422981</v>
       </c>
       <c r="X20" s="5">
-        <v>6920.73827241261</v>
+        <v>6930.602338534815</v>
       </c>
       <c r="Y20" s="5">
-        <v>6741.652437051584</v>
+        <v>6741.398838841109</v>
       </c>
       <c r="Z20" s="5">
-        <v>7005.957134606097</v>
+        <v>7005.399553117841</v>
       </c>
       <c r="AA20" s="5">
-        <v>-333.6087118955202</v>
+        <v>-338.0287458148787</v>
       </c>
       <c r="AB20" s="5">
-        <v>-559.3489192708566</v>
+        <v>-566.249054125984</v>
       </c>
       <c r="AC20" s="5">
-        <v>-677.7971726574979</v>
+        <v>-685.3390110141499</v>
       </c>
       <c r="AD20" s="5">
-        <v>-856.8830080185235</v>
+        <v>-874.5425107078563</v>
       </c>
       <c r="AE20" s="5">
-        <v>-592.5783104640113</v>
+        <v>-610.5417964311246</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.04390434371296692</v>
+        <v>-0.0443843683006957</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.07361272752024328</v>
+        <v>-0.07435050089501005</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.0892010279556239</v>
+        <v>-0.08998743288047217</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.1127694954130226</v>
+        <v>-0.1148305206892972</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.07798585855758211</v>
+        <v>-0.08016629440919765</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2516,85 +2516,85 @@
         <v>407192.5</v>
       </c>
       <c r="J21" s="3">
-        <v>3216898784.903028</v>
+        <v>3224457899.291689</v>
       </c>
       <c r="K21" s="3">
-        <v>3074420422.461718</v>
+        <v>3080164505.085636</v>
       </c>
       <c r="L21" s="3">
-        <v>3007275351.070308</v>
+        <v>3012083615.916039</v>
       </c>
       <c r="M21" s="3">
-        <v>3020168001.075836</v>
+        <v>3021793927.469574</v>
       </c>
       <c r="N21" s="3">
-        <v>3011799335.619917</v>
+        <v>3011754519.682471</v>
       </c>
       <c r="O21" s="3">
-        <v>3199641833.596629</v>
+        <v>3199716000.106315</v>
       </c>
       <c r="P21" s="4">
-        <v>0.8043478260869565</v>
+        <v>0.8065217391304348</v>
       </c>
       <c r="Q21" s="4">
         <v>0.8739130434782608</v>
       </c>
       <c r="R21" s="4">
-        <v>0.8760869565217392</v>
+        <v>0.8782608695652174</v>
       </c>
       <c r="S21" s="4">
         <v>0.9173913043478261</v>
       </c>
       <c r="T21" s="4">
-        <v>0.8456521739130435</v>
+        <v>0.85</v>
       </c>
       <c r="U21" s="5">
-        <v>8646.124736846707</v>
+        <v>8666.441523377629</v>
       </c>
       <c r="V21" s="5">
-        <v>8214.8513030989</v>
+        <v>8230.199491747224</v>
       </c>
       <c r="W21" s="5">
-        <v>7986.878367475129</v>
+        <v>7999.648407460922</v>
       </c>
       <c r="X21" s="5">
-        <v>7835.00704612237</v>
+        <v>7839.225071327218</v>
       </c>
       <c r="Y21" s="5">
-        <v>7590.554864743071</v>
+        <v>7590.441916370986</v>
       </c>
       <c r="Z21" s="5">
-        <v>7857.81131429638</v>
+        <v>7857.993455445065</v>
       </c>
       <c r="AA21" s="5">
-        <v>-431.2734337478068</v>
+        <v>-436.2420316304051</v>
       </c>
       <c r="AB21" s="5">
-        <v>-659.2463693715772</v>
+        <v>-666.7931159167074</v>
       </c>
       <c r="AC21" s="5">
-        <v>-811.1176907243362</v>
+        <v>-827.2164520504111</v>
       </c>
       <c r="AD21" s="5">
-        <v>-1055.569872103636</v>
+        <v>-1075.999607006643</v>
       </c>
       <c r="AE21" s="5">
-        <v>-788.3134225503263</v>
+        <v>-808.4480679325643</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.04988054728263092</v>
+        <v>-0.05033692669057388</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.07624761259366331</v>
+        <v>-0.0769396659653262</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.09381286014387935</v>
+        <v>-0.09545053178043195</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.1220858944591874</v>
+        <v>-0.1241570261686006</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.09117534693789631</v>
+        <v>-0.09328489273847684</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2626,28 +2626,28 @@
         <v>20376</v>
       </c>
       <c r="J22" s="3">
-        <v>425360411.3629625</v>
+        <v>426359929.2902872</v>
       </c>
       <c r="K22" s="3">
-        <v>431667769.693037</v>
+        <v>432474274.658032</v>
       </c>
       <c r="L22" s="3">
-        <v>448505591.9774351</v>
+        <v>449222697.4697044</v>
       </c>
       <c r="M22" s="3">
-        <v>463892427.5457825</v>
+        <v>464142166.9448936</v>
       </c>
       <c r="N22" s="3">
-        <v>450852808.8869357</v>
+        <v>450846100.1427507</v>
       </c>
       <c r="O22" s="3">
-        <v>496972777.1422674</v>
+        <v>496984296.7867174</v>
       </c>
       <c r="P22" s="4">
         <v>0.7034482758620689</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.7310344827586207</v>
+        <v>0.7379310344827587</v>
       </c>
       <c r="R22" s="4">
         <v>0.7517241379310344</v>
@@ -2659,52 +2659,52 @@
         <v>0.7172413793103448</v>
       </c>
       <c r="U22" s="5">
-        <v>25950.85177005445</v>
+        <v>26011.83144959351</v>
       </c>
       <c r="V22" s="5">
-        <v>25202.46203252201</v>
+        <v>25249.54896415414</v>
       </c>
       <c r="W22" s="5">
-        <v>25058.27817847502</v>
+        <v>25098.34329523169</v>
       </c>
       <c r="X22" s="5">
-        <v>24833.64173157294</v>
+        <v>24847.01107842043</v>
       </c>
       <c r="Y22" s="5">
-        <v>23097.55930669001</v>
+        <v>23097.21561222115</v>
       </c>
       <c r="Z22" s="5">
-        <v>24390.10488527029</v>
+        <v>24390.67023884557</v>
       </c>
       <c r="AA22" s="5">
-        <v>-748.389737532445</v>
+        <v>-762.282485439373</v>
       </c>
       <c r="AB22" s="5">
-        <v>-892.5735915794394</v>
+        <v>-913.4881543618139</v>
       </c>
       <c r="AC22" s="5">
-        <v>-1117.210038481517</v>
+        <v>-1164.820371173078</v>
       </c>
       <c r="AD22" s="5">
-        <v>-2853.292463364443</v>
+        <v>-2914.615837372359</v>
       </c>
       <c r="AE22" s="5">
-        <v>-1560.746884784166</v>
+        <v>-1621.161210747938</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.02883873501200596</v>
+        <v>-0.02930522162257376</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.03439477052577555</v>
+        <v>-0.03511817905371251</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.04305099687597547</v>
+        <v>-0.0447804059252922</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.1099498578561862</v>
+        <v>-0.1120496203052979</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.06014241453859193</v>
+        <v>-0.06232399336776695</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2734,85 +2734,85 @@
         <v>21066.5</v>
       </c>
       <c r="J23" s="3">
-        <v>413794412.3542253</v>
+        <v>414766752.3330437</v>
       </c>
       <c r="K23" s="3">
-        <v>419284458.6826403</v>
+        <v>420067827.3318989</v>
       </c>
       <c r="L23" s="3">
-        <v>439635393.320796</v>
+        <v>440338316.4521583</v>
       </c>
       <c r="M23" s="3">
-        <v>456611327.0446587</v>
+        <v>456857146.6176291</v>
       </c>
       <c r="N23" s="3">
-        <v>446988512.6253136</v>
+        <v>446981861.3823226</v>
       </c>
       <c r="O23" s="3">
-        <v>491839462.8760247</v>
+        <v>491850863.5321556</v>
       </c>
       <c r="P23" s="4">
         <v>0.7518248175182481</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.708029197080292</v>
+        <v>0.7153284671532847</v>
       </c>
       <c r="R23" s="4">
-        <v>0.7226277372262774</v>
+        <v>0.7372262773722628</v>
       </c>
       <c r="S23" s="4">
         <v>0.8613138686131386</v>
       </c>
       <c r="T23" s="4">
-        <v>0.7518248175182481</v>
+        <v>0.7591240875912408</v>
       </c>
       <c r="U23" s="5">
-        <v>25386.93900759074</v>
+        <v>25446.59359692283</v>
       </c>
       <c r="V23" s="5">
-        <v>24396.86132215992</v>
+        <v>24442.44311252758</v>
       </c>
       <c r="W23" s="5">
-        <v>24280.52872287831</v>
+        <v>24319.35031354256</v>
       </c>
       <c r="X23" s="5">
-        <v>23866.99041082292</v>
+        <v>23879.83935486653</v>
       </c>
       <c r="Y23" s="5">
-        <v>22171.49934899003</v>
+        <v>22171.16943440503</v>
       </c>
       <c r="Z23" s="5">
-        <v>23346.99465388292</v>
+        <v>23347.53582855034</v>
       </c>
       <c r="AA23" s="5">
-        <v>-990.0776854308242</v>
+        <v>-1004.150484395253</v>
       </c>
       <c r="AB23" s="5">
-        <v>-1106.410284712434</v>
+        <v>-1127.24328338027</v>
       </c>
       <c r="AC23" s="5">
-        <v>-1519.948596767819</v>
+        <v>-1566.754242056297</v>
       </c>
       <c r="AD23" s="5">
-        <v>-3215.439658600706</v>
+        <v>-3275.4241625178</v>
       </c>
       <c r="AE23" s="5">
-        <v>-2039.944353707815</v>
+        <v>-2099.057768372495</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.03899949045195206</v>
+        <v>-0.03946109645562468</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.04358187036182726</v>
+        <v>-0.04429839613254105</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.05987128248558649</v>
+        <v>-0.061570293724727</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.1266572412546185</v>
+        <v>-0.1287175884678681</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.08035408889184581</v>
+        <v>-0.08248875278246781</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2842,85 +2842,85 @@
         <v>21775.5</v>
       </c>
       <c r="J24" s="3">
-        <v>440926096.9513914</v>
+        <v>441962191.3474731</v>
       </c>
       <c r="K24" s="3">
-        <v>439838755.8008373</v>
+        <v>440660526.999097</v>
       </c>
       <c r="L24" s="3">
-        <v>452837269.8101887</v>
+        <v>453561301.1246108</v>
       </c>
       <c r="M24" s="3">
-        <v>467526913.3199609</v>
+        <v>467778609.3672934</v>
       </c>
       <c r="N24" s="3">
-        <v>452828485.460169</v>
+        <v>452821747.3176781</v>
       </c>
       <c r="O24" s="3">
-        <v>497660493.5738485</v>
+        <v>497672029.1593095</v>
       </c>
       <c r="P24" s="4">
-        <v>0.7555555555555555</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="Q24" s="4">
         <v>0.7925925925925926</v>
       </c>
       <c r="R24" s="4">
-        <v>0.762962962962963</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="S24" s="4">
         <v>0.8518518518518519</v>
       </c>
       <c r="T24" s="4">
-        <v>0.7777777777777778</v>
+        <v>0.7851851851851852</v>
       </c>
       <c r="U24" s="5">
-        <v>24839.50746162984</v>
+        <v>24897.87568855124</v>
       </c>
       <c r="V24" s="5">
-        <v>23889.34936321523</v>
+        <v>23933.98294539266</v>
       </c>
       <c r="W24" s="5">
-        <v>23677.76574170921</v>
+        <v>23715.62358821494</v>
       </c>
       <c r="X24" s="5">
-        <v>23500.90043832115</v>
+        <v>23513.55229553099</v>
       </c>
       <c r="Y24" s="5">
-        <v>21678.36299687239</v>
+        <v>21678.04042021582</v>
       </c>
       <c r="Z24" s="5">
-        <v>22854.14771526939</v>
+        <v>22854.67746592774</v>
       </c>
       <c r="AA24" s="5">
-        <v>-950.1580984146094</v>
+        <v>-963.8927431585798</v>
       </c>
       <c r="AB24" s="5">
-        <v>-1161.741719920632</v>
+        <v>-1182.252100336304</v>
       </c>
       <c r="AC24" s="5">
-        <v>-1338.607023308698</v>
+        <v>-1384.323393020259</v>
       </c>
       <c r="AD24" s="5">
-        <v>-3161.14446475745</v>
+        <v>-3219.835268335428</v>
       </c>
       <c r="AE24" s="5">
-        <v>-1985.359746360456</v>
+        <v>-2043.198222623505</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.03825188965128801</v>
+        <v>-0.0387138547567657</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.04676991770932659</v>
+        <v>-0.04748405507060738</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.05389024019000677</v>
+        <v>-0.05560006043635324</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.1272627675746205</v>
+        <v>-0.129321686260005</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.07992750055238762</v>
+        <v>-0.08206315463142211</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2950,85 +2950,85 @@
         <v>20602</v>
       </c>
       <c r="J25" s="3">
-        <v>431692438.5968338</v>
+        <v>432706835.6115571</v>
       </c>
       <c r="K25" s="3">
-        <v>434903452.6890724</v>
+        <v>435716003.0310562</v>
       </c>
       <c r="L25" s="3">
-        <v>448565373.1548722</v>
+        <v>449282574.2299204</v>
       </c>
       <c r="M25" s="3">
-        <v>465741642.0662293</v>
+        <v>465992377.0015807</v>
       </c>
       <c r="N25" s="3">
-        <v>463572974.8863532</v>
+        <v>463566076.8645633</v>
       </c>
       <c r="O25" s="3">
-        <v>504467338.4735792</v>
+        <v>504479031.8391779</v>
       </c>
       <c r="P25" s="4">
-        <v>0.7163120567375887</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.723404255319149</v>
+        <v>0.7375886524822695</v>
       </c>
       <c r="R25" s="4">
-        <v>0.8156028368794326</v>
+        <v>0.8226950354609929</v>
       </c>
       <c r="S25" s="4">
-        <v>0.8652482269503546</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="T25" s="4">
-        <v>0.8156028368794326</v>
+        <v>0.8226950354609929</v>
       </c>
       <c r="U25" s="5">
-        <v>26842.37143459249</v>
+        <v>26905.44601968333</v>
       </c>
       <c r="V25" s="5">
-        <v>26030.43260147074</v>
+        <v>26079.06646901429</v>
       </c>
       <c r="W25" s="5">
-        <v>25748.54331868849</v>
+        <v>25789.71208483557</v>
       </c>
       <c r="X25" s="5">
-        <v>25160.94336005128</v>
+        <v>25174.48891178416</v>
       </c>
       <c r="Y25" s="5">
-        <v>23674.02777552043</v>
+        <v>23673.67550313119</v>
       </c>
       <c r="Z25" s="5">
-        <v>24486.32843770407</v>
+        <v>24486.89602170556</v>
       </c>
       <c r="AA25" s="5">
-        <v>-811.9388331217524</v>
+        <v>-826.3795506690403</v>
       </c>
       <c r="AB25" s="5">
-        <v>-1093.828115903998</v>
+        <v>-1115.733934847762</v>
       </c>
       <c r="AC25" s="5">
-        <v>-1681.428074541211</v>
+        <v>-1730.957107899168</v>
       </c>
       <c r="AD25" s="5">
-        <v>-3168.343659072067</v>
+        <v>-3231.77051655214</v>
       </c>
       <c r="AE25" s="5">
-        <v>-2356.042996888427</v>
+        <v>-2418.549997977771</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.03024840167718512</v>
+        <v>-0.03071421116990525</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.04075005513463503</v>
+        <v>-0.0414687024341287</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.06264081691285694</v>
+        <v>-0.06433482301809246</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.1180351619376273</v>
+        <v>-0.1201158499356547</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.08777328048788302</v>
+        <v>-0.08989072309778556</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3058,22 +3058,22 @@
         <v>11149</v>
       </c>
       <c r="J26" s="3">
-        <v>269103986.2515429</v>
+        <v>269736330.615023</v>
       </c>
       <c r="K26" s="3">
-        <v>269550541.8715727</v>
+        <v>270054155.6820069</v>
       </c>
       <c r="L26" s="3">
-        <v>279521046.1818974</v>
+        <v>279967966.0888224</v>
       </c>
       <c r="M26" s="3">
-        <v>291523319.7829666</v>
+        <v>291680263.1913652</v>
       </c>
       <c r="N26" s="3">
-        <v>285604444.667289</v>
+        <v>285600194.8386981</v>
       </c>
       <c r="O26" s="3">
-        <v>301094299.2994024</v>
+        <v>301101278.5534647</v>
       </c>
       <c r="P26" s="4">
         <v>0.6638655462184874</v>
@@ -3082,7 +3082,7 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="R26" s="4">
-        <v>0.7563025210084033</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="S26" s="4">
         <v>0.8235294117647058</v>
@@ -3091,52 +3091,52 @@
         <v>0.7394957983193278</v>
       </c>
       <c r="U26" s="5">
-        <v>30119.64701455514</v>
+        <v>30190.42258828395</v>
       </c>
       <c r="V26" s="5">
-        <v>28903.12479858168</v>
+        <v>28957.12585052615</v>
       </c>
       <c r="W26" s="5">
-        <v>28159.07381069837</v>
+        <v>28204.09671977257</v>
       </c>
       <c r="X26" s="5">
-        <v>27776.02970634716</v>
+        <v>27790.98310622316</v>
       </c>
       <c r="Y26" s="5">
-        <v>26426.50424865038</v>
+        <v>26426.11101907917</v>
       </c>
       <c r="Z26" s="5">
-        <v>27006.39512955443</v>
+        <v>27007.02112776614</v>
       </c>
       <c r="AA26" s="5">
-        <v>-1216.522215973459</v>
+        <v>-1233.296737757795</v>
       </c>
       <c r="AB26" s="5">
-        <v>-1960.573203856762</v>
+        <v>-1986.325868511383</v>
       </c>
       <c r="AC26" s="5">
-        <v>-2343.61730820798</v>
+        <v>-2399.439482060789</v>
       </c>
       <c r="AD26" s="5">
-        <v>-3693.142765904759</v>
+        <v>-3764.311569204783</v>
       </c>
       <c r="AE26" s="5">
-        <v>-3113.251885000704</v>
+        <v>-3183.401460517809</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.04038965713594123</v>
+        <v>-0.04085059538836677</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.06509283468393001</v>
+        <v>-0.06579324495054339</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.07781025146395115</v>
+        <v>-0.07947684319569426</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.1226157386280148</v>
+        <v>-0.1246856203551654</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.1033628277083143</v>
+        <v>-0.1054440841696995</v>
       </c>
     </row>
   </sheetData>

--- a/output/Phase & Deprivation.xlsx
+++ b/output/Phase & Deprivation.xlsx
@@ -672,22 +672,22 @@
         <v>7023</v>
       </c>
       <c r="J4" s="3">
-        <v>34261648.29981892</v>
+        <v>35276007.68730465</v>
       </c>
       <c r="K4" s="3">
-        <v>33538582.93039495</v>
+        <v>34641511.39731737</v>
       </c>
       <c r="L4" s="3">
-        <v>35132281.77107649</v>
+        <v>36117299.44208948</v>
       </c>
       <c r="M4" s="3">
-        <v>37391418.68131825</v>
+        <v>38446523.47912714</v>
       </c>
       <c r="N4" s="3">
-        <v>39611701.85578573</v>
+        <v>40743303.48000959</v>
       </c>
       <c r="O4" s="3">
-        <v>44186559.19346254</v>
+        <v>45898537.45130551</v>
       </c>
       <c r="P4" s="4">
         <v>0.8181818181818182</v>
@@ -705,52 +705,52 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="U4" s="5">
-        <v>6764.392556726341</v>
+        <v>6964.660945173673</v>
       </c>
       <c r="V4" s="5">
-        <v>6149.918938368929</v>
+        <v>6352.161253748487</v>
       </c>
       <c r="W4" s="5">
-        <v>5885.790211270981</v>
+        <v>6050.812437944292</v>
       </c>
       <c r="X4" s="5">
-        <v>5700.78040575061</v>
+        <v>5861.644073658658</v>
       </c>
       <c r="Y4" s="5">
-        <v>5828.678907561173</v>
+        <v>5995.188858153265</v>
       </c>
       <c r="Z4" s="5">
-        <v>6291.692893843448</v>
+        <v>6535.460266453867</v>
       </c>
       <c r="AA4" s="5">
-        <v>-614.4736183574123</v>
+        <v>-612.499691425186</v>
       </c>
       <c r="AB4" s="5">
-        <v>-878.6023454553606</v>
+        <v>-913.8485072293815</v>
       </c>
       <c r="AC4" s="5">
-        <v>-1063.612150975731</v>
+        <v>-1103.016871515015</v>
       </c>
       <c r="AD4" s="5">
-        <v>-935.7136491651681</v>
+        <v>-969.4720870204083</v>
       </c>
       <c r="AE4" s="5">
-        <v>-472.6996628828929</v>
+        <v>-429.2006787198061</v>
       </c>
       <c r="AF4" s="4">
-        <v>-0.09083943801374972</v>
+        <v>-0.08794393528225264</v>
       </c>
       <c r="AG4" s="4">
-        <v>-0.1298863627572443</v>
+        <v>-0.1312122032103593</v>
       </c>
       <c r="AH4" s="4">
-        <v>-0.1572369051701623</v>
+        <v>-0.1583733767082196</v>
       </c>
       <c r="AI4" s="4">
-        <v>-0.138329294362835</v>
+        <v>-0.1391987484605732</v>
       </c>
       <c r="AJ4" s="4">
-        <v>-0.06988057817739335</v>
+        <v>-0.06162549506695381</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -761,106 +761,106 @@
         <v>22</v>
       </c>
       <c r="C5" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
-        <v>22781.5</v>
+        <v>24286.5</v>
       </c>
       <c r="E5" s="2">
-        <v>24621</v>
+        <v>26238.5</v>
       </c>
       <c r="F5" s="2">
-        <v>26172.5</v>
+        <v>27956.5</v>
       </c>
       <c r="G5" s="2">
-        <v>27438.5</v>
+        <v>29324.5</v>
       </c>
       <c r="H5" s="2">
-        <v>28729.5</v>
+        <v>30710.5</v>
       </c>
       <c r="I5" s="2">
-        <v>29675.5</v>
+        <v>31758.5</v>
       </c>
       <c r="J5" s="3">
-        <v>142224936.7373782</v>
+        <v>157497589.0144968</v>
       </c>
       <c r="K5" s="3">
-        <v>148506066.6515033</v>
+        <v>164431903.5624075</v>
       </c>
       <c r="L5" s="3">
-        <v>154972077.5860746</v>
+        <v>170983886.6987775</v>
       </c>
       <c r="M5" s="3">
-        <v>153006172.6172905</v>
+        <v>169364542.7605714</v>
       </c>
       <c r="N5" s="3">
-        <v>157983813.4209125</v>
+        <v>174813610.676953</v>
       </c>
       <c r="O5" s="3">
-        <v>171015542.8133127</v>
+        <v>190903797.730374</v>
       </c>
       <c r="P5" s="4">
-        <v>0.8181818181818182</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7727272727272727</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="R5" s="4">
-        <v>0.7727272727272727</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="S5" s="4">
-        <v>0.9545454545454546</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="T5" s="4">
-        <v>0.8181818181818182</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="U5" s="5">
-        <v>6243.001415068287</v>
+        <v>6484.98503343408</v>
       </c>
       <c r="V5" s="5">
-        <v>6031.6829800375</v>
+        <v>6266.817979778094</v>
       </c>
       <c r="W5" s="5">
-        <v>5921.179772130084</v>
+        <v>6116.069132358396</v>
       </c>
       <c r="X5" s="5">
-        <v>5576.331527499336</v>
+        <v>5775.530452712627</v>
       </c>
       <c r="Y5" s="5">
-        <v>5499.010195823544</v>
+        <v>5692.307539016068</v>
       </c>
       <c r="Z5" s="5">
-        <v>5762.8529532211</v>
+        <v>6011.108765539116</v>
       </c>
       <c r="AA5" s="5">
-        <v>-211.3184350307874</v>
+        <v>-218.1670536559859</v>
       </c>
       <c r="AB5" s="5">
-        <v>-321.8216429382037</v>
+        <v>-368.9159010756839</v>
       </c>
       <c r="AC5" s="5">
-        <v>-666.6698875689517</v>
+        <v>-709.4545807214527</v>
       </c>
       <c r="AD5" s="5">
-        <v>-743.9912192447437</v>
+        <v>-792.6774944180115</v>
       </c>
       <c r="AE5" s="5">
-        <v>-480.1484618471877</v>
+        <v>-473.8762678949643</v>
       </c>
       <c r="AF5" s="4">
-        <v>-0.03384885265615079</v>
+        <v>-0.03364187465833779</v>
       </c>
       <c r="AG5" s="4">
-        <v>-0.05154918628745553</v>
+        <v>-0.05688770277397648</v>
       </c>
       <c r="AH5" s="4">
-        <v>-0.1067867590034272</v>
+        <v>-0.1093995710188657</v>
       </c>
       <c r="AI5" s="4">
-        <v>-0.1191720407829838</v>
+        <v>-0.1222327407590414</v>
       </c>
       <c r="AJ5" s="4">
-        <v>-0.07690987554292195</v>
+        <v>-0.07307283909705897</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -872,40 +872,40 @@
         <v>21</v>
       </c>
       <c r="D6" s="2">
-        <v>21013.5</v>
+        <v>18967.5</v>
       </c>
       <c r="E6" s="2">
-        <v>22285</v>
+        <v>20186</v>
       </c>
       <c r="F6" s="2">
-        <v>23671.5</v>
+        <v>21508</v>
       </c>
       <c r="G6" s="2">
-        <v>24916.5</v>
+        <v>22777.5</v>
       </c>
       <c r="H6" s="2">
-        <v>25795</v>
+        <v>23712</v>
       </c>
       <c r="I6" s="2">
-        <v>27033.5</v>
+        <v>24891.5</v>
       </c>
       <c r="J6" s="3">
-        <v>146161870.8792867</v>
+        <v>135862661.1280981</v>
       </c>
       <c r="K6" s="3">
-        <v>147328646.230476</v>
+        <v>138037487.8527025</v>
       </c>
       <c r="L6" s="3">
-        <v>149788582.603605</v>
+        <v>139587050.9270083</v>
       </c>
       <c r="M6" s="3">
-        <v>153312754.3031951</v>
+        <v>143816648.6013857</v>
       </c>
       <c r="N6" s="3">
-        <v>158901788.2801928</v>
+        <v>150790211.632616</v>
       </c>
       <c r="O6" s="3">
-        <v>169073409.9692407</v>
+        <v>162509074.6181381</v>
       </c>
       <c r="P6" s="4">
         <v>0.6666666666666666</v>
@@ -923,52 +923,52 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="U6" s="5">
-        <v>6955.617621019186</v>
+        <v>7162.918736159119</v>
       </c>
       <c r="V6" s="5">
-        <v>6611.112687030558</v>
+        <v>6838.278403482734</v>
       </c>
       <c r="W6" s="5">
-        <v>6327.802741845891</v>
+        <v>6490.006087363227</v>
       </c>
       <c r="X6" s="5">
-        <v>6153.061397194434</v>
+        <v>6313.978645654076</v>
       </c>
       <c r="Y6" s="5">
-        <v>6160.177874789409</v>
+        <v>6359.236320538799</v>
       </c>
       <c r="Z6" s="5">
-        <v>6254.218283582987</v>
+        <v>6528.697532014467</v>
       </c>
       <c r="AA6" s="5">
-        <v>-344.5049339886282</v>
+        <v>-324.6403326763857</v>
       </c>
       <c r="AB6" s="5">
-        <v>-627.8148791732956</v>
+        <v>-672.912648795892</v>
       </c>
       <c r="AC6" s="5">
-        <v>-802.5562238247521</v>
+        <v>-848.9400905050434</v>
       </c>
       <c r="AD6" s="5">
-        <v>-795.4397462297775</v>
+        <v>-803.6824156203202</v>
       </c>
       <c r="AE6" s="5">
-        <v>-701.3993374361989</v>
+        <v>-634.2212041446528</v>
       </c>
       <c r="AF6" s="4">
-        <v>-0.0495290213981241</v>
+        <v>-0.04532235316834876</v>
       </c>
       <c r="AG6" s="4">
-        <v>-0.09026011971619907</v>
+        <v>-0.09394391777739464</v>
       </c>
       <c r="AH6" s="4">
-        <v>-0.1153824530836064</v>
+        <v>-0.1185187382092596</v>
       </c>
       <c r="AI6" s="4">
-        <v>-0.1143593264566525</v>
+        <v>-0.1122004095290446</v>
       </c>
       <c r="AJ6" s="4">
-        <v>-0.1008392605304581</v>
+        <v>-0.08854228667191788</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -980,103 +980,103 @@
         <v>23</v>
       </c>
       <c r="D7" s="2">
-        <v>24486</v>
+        <v>25662.5</v>
       </c>
       <c r="E7" s="2">
-        <v>26059.5</v>
+        <v>27238.5</v>
       </c>
       <c r="F7" s="2">
-        <v>28156</v>
+        <v>29381</v>
       </c>
       <c r="G7" s="2">
-        <v>30344</v>
+        <v>31627</v>
       </c>
       <c r="H7" s="2">
-        <v>31805</v>
+        <v>33058.5</v>
       </c>
       <c r="I7" s="2">
-        <v>32672</v>
+        <v>33948.5</v>
       </c>
       <c r="J7" s="3">
-        <v>184185663.252978</v>
+        <v>198371910.1675955</v>
       </c>
       <c r="K7" s="3">
-        <v>185983454.9678505</v>
+        <v>200739484.9074515</v>
       </c>
       <c r="L7" s="3">
-        <v>192682090.0892736</v>
+        <v>207040745.8132456</v>
       </c>
       <c r="M7" s="3">
-        <v>203769902.3228498</v>
+        <v>219376229.7633913</v>
       </c>
       <c r="N7" s="3">
-        <v>204881479.7225797</v>
+        <v>219684192.0751331</v>
       </c>
       <c r="O7" s="3">
-        <v>218205868.2338912</v>
+        <v>235805874.5874373</v>
       </c>
       <c r="P7" s="4">
-        <v>0.9130434782608695</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="Q7" s="4">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="S7" s="4">
         <v>0.8695652173913043</v>
       </c>
-      <c r="R7" s="4">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0.9130434782608695</v>
-      </c>
       <c r="T7" s="4">
-        <v>0.8695652173913043</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="U7" s="5">
-        <v>7522.080505308258</v>
+        <v>7730.030595912147</v>
       </c>
       <c r="V7" s="5">
-        <v>7136.87733716497</v>
+        <v>7369.696749360335</v>
       </c>
       <c r="W7" s="5">
-        <v>6843.375837806278</v>
+        <v>7046.756264703229</v>
       </c>
       <c r="X7" s="5">
-        <v>6715.327653666285</v>
+        <v>6936.359116052464</v>
       </c>
       <c r="Y7" s="5">
-        <v>6441.800965966979</v>
+        <v>6645.316395938507</v>
       </c>
       <c r="Z7" s="5">
-        <v>6678.68107963673</v>
+        <v>6945.988028556116</v>
       </c>
       <c r="AA7" s="5">
-        <v>-385.2031681432873</v>
+        <v>-360.3338465518118</v>
       </c>
       <c r="AB7" s="5">
-        <v>-678.7046675019792</v>
+        <v>-683.2743312089178</v>
       </c>
       <c r="AC7" s="5">
-        <v>-806.7528516419725</v>
+        <v>-793.6714798596831</v>
       </c>
       <c r="AD7" s="5">
-        <v>-1080.279539341279</v>
+        <v>-1084.71419997364</v>
       </c>
       <c r="AE7" s="5">
-        <v>-843.3994256715278</v>
+        <v>-784.0425673560312</v>
       </c>
       <c r="AF7" s="4">
-        <v>-0.05120965773650699</v>
+        <v>-0.04661480211247371</v>
       </c>
       <c r="AG7" s="4">
-        <v>-0.09022831742136017</v>
+        <v>-0.08839218975022589</v>
       </c>
       <c r="AH7" s="4">
-        <v>-0.1072512918563761</v>
+        <v>-0.1026737824659321</v>
       </c>
       <c r="AI7" s="4">
-        <v>-0.1436144612622713</v>
+        <v>-0.1403246968449604</v>
       </c>
       <c r="AJ7" s="4">
-        <v>-0.1121231586229833</v>
+        <v>-0.1014281324799224</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1085,106 +1085,106 @@
         <v>24</v>
       </c>
       <c r="C8" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
-        <v>27270</v>
+        <v>27165.5</v>
       </c>
       <c r="E8" s="2">
-        <v>28745.5</v>
+        <v>28488</v>
       </c>
       <c r="F8" s="2">
-        <v>30047</v>
+        <v>29607.5</v>
       </c>
       <c r="G8" s="2">
-        <v>31977.5</v>
+        <v>31408.5</v>
       </c>
       <c r="H8" s="2">
-        <v>33056.5</v>
+        <v>32393</v>
       </c>
       <c r="I8" s="2">
-        <v>33119.5</v>
+        <v>32338</v>
       </c>
       <c r="J8" s="3">
-        <v>222696472.1103578</v>
+        <v>229187496.2744718</v>
       </c>
       <c r="K8" s="3">
-        <v>226311385.8032907</v>
+        <v>233059133.784392</v>
       </c>
       <c r="L8" s="3">
-        <v>231571607.3480006</v>
+        <v>234806976.9996715</v>
       </c>
       <c r="M8" s="3">
-        <v>236823624.4675607</v>
+        <v>238209594.4833315</v>
       </c>
       <c r="N8" s="3">
-        <v>235203828.9799</v>
+        <v>235823257.0072471</v>
       </c>
       <c r="O8" s="3">
-        <v>240876759.2474003</v>
+        <v>244404594.7561135</v>
       </c>
       <c r="P8" s="4">
-        <v>0.8333333333333334</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q8" s="4">
-        <v>0.7083333333333334</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="R8" s="4">
-        <v>0.875</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="S8" s="4">
-        <v>0.9166666666666666</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="T8" s="4">
-        <v>0.7916666666666666</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="U8" s="5">
-        <v>8166.353946107731</v>
+        <v>8436.711868895172</v>
       </c>
       <c r="V8" s="5">
-        <v>7872.932660878771</v>
+        <v>8180.958080047458</v>
       </c>
       <c r="W8" s="5">
-        <v>7706.979310679954</v>
+        <v>7930.658684443856</v>
       </c>
       <c r="X8" s="5">
-        <v>7405.945570090243</v>
+        <v>7584.239759406897</v>
       </c>
       <c r="Y8" s="5">
-        <v>7115.206660714232</v>
+        <v>7280.068440936226</v>
       </c>
       <c r="Z8" s="5">
-        <v>7272.95880817646</v>
+        <v>7557.814173916552</v>
       </c>
       <c r="AA8" s="5">
-        <v>-293.4212852289593</v>
+        <v>-255.7537888477145</v>
       </c>
       <c r="AB8" s="5">
-        <v>-459.3746354277764</v>
+        <v>-506.0531844513162</v>
       </c>
       <c r="AC8" s="5">
-        <v>-760.4083760174881</v>
+        <v>-852.4721094882752</v>
       </c>
       <c r="AD8" s="5">
-        <v>-1051.147285393498</v>
+        <v>-1156.643427958947</v>
       </c>
       <c r="AE8" s="5">
-        <v>-893.3951379312703</v>
+        <v>-878.8976949786202</v>
       </c>
       <c r="AF8" s="4">
-        <v>-0.03593051282926707</v>
+        <v>-0.03031439177040507</v>
       </c>
       <c r="AG8" s="4">
-        <v>-0.05625210938190162</v>
+        <v>-0.05998227654509036</v>
       </c>
       <c r="AH8" s="4">
-        <v>-0.09311479529734512</v>
+        <v>-0.1010431697485374</v>
       </c>
       <c r="AI8" s="4">
-        <v>-0.1287168413627845</v>
+        <v>-0.1370964714610331</v>
       </c>
       <c r="AJ8" s="4">
-        <v>-0.1093995121723915</v>
+        <v>-0.1041753835660759</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -1196,49 +1196,49 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>22717</v>
+        <v>22186</v>
       </c>
       <c r="E9" s="2">
-        <v>23629.5</v>
+        <v>23189.5</v>
       </c>
       <c r="F9" s="2">
-        <v>24165.5</v>
+        <v>23759.5</v>
       </c>
       <c r="G9" s="2">
-        <v>24767</v>
+        <v>24306</v>
       </c>
       <c r="H9" s="2">
-        <v>25493</v>
+        <v>25005</v>
       </c>
       <c r="I9" s="2">
-        <v>26322.5</v>
+        <v>25886.5</v>
       </c>
       <c r="J9" s="3">
-        <v>189666405.7986355</v>
+        <v>190215321.3097841</v>
       </c>
       <c r="K9" s="3">
-        <v>185463921.6853263</v>
+        <v>186711610.8492831</v>
       </c>
       <c r="L9" s="3">
-        <v>181230915.9873639</v>
+        <v>183347519.7113331</v>
       </c>
       <c r="M9" s="3">
-        <v>178540645.5359244</v>
+        <v>180882133.1941414</v>
       </c>
       <c r="N9" s="3">
-        <v>183313021.8390137</v>
+        <v>186034087.5278245</v>
       </c>
       <c r="O9" s="3">
-        <v>194335302.660631</v>
+        <v>198376291.3724985</v>
       </c>
       <c r="P9" s="4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="4">
         <v>1</v>
       </c>
       <c r="R9" s="4">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="S9" s="4">
         <v>0.95</v>
@@ -1247,52 +1247,52 @@
         <v>0.95</v>
       </c>
       <c r="U9" s="5">
-        <v>8349.095646372125</v>
+        <v>8573.664532127654</v>
       </c>
       <c r="V9" s="5">
-        <v>7848.829712237934</v>
+        <v>8051.558284968761</v>
       </c>
       <c r="W9" s="5">
-        <v>7499.572365039578</v>
+        <v>7716.808843255669</v>
       </c>
       <c r="X9" s="5">
-        <v>7208.81194879979</v>
+        <v>7441.87168576242</v>
       </c>
       <c r="Y9" s="5">
-        <v>7190.719877574773</v>
+        <v>7439.87552600778</v>
       </c>
       <c r="Z9" s="5">
-        <v>7382.858872091596</v>
+        <v>7663.310658934134</v>
       </c>
       <c r="AA9" s="5">
-        <v>-500.2659341341905</v>
+        <v>-522.106247158893</v>
       </c>
       <c r="AB9" s="5">
-        <v>-849.5232813325465</v>
+        <v>-856.855688871985</v>
       </c>
       <c r="AC9" s="5">
-        <v>-1140.283697572335</v>
+        <v>-1131.792846365233</v>
       </c>
       <c r="AD9" s="5">
-        <v>-1158.375768797352</v>
+        <v>-1133.789006119874</v>
       </c>
       <c r="AE9" s="5">
-        <v>-966.2367742805291</v>
+        <v>-910.3538731935196</v>
       </c>
       <c r="AF9" s="4">
-        <v>-0.05991857745114793</v>
+        <v>-0.06089650991153561</v>
       </c>
       <c r="AG9" s="4">
-        <v>-0.1017503352835207</v>
+        <v>-0.09994042636741074</v>
       </c>
       <c r="AH9" s="4">
-        <v>-0.1365757138101316</v>
+        <v>-0.1320080628445542</v>
       </c>
       <c r="AI9" s="4">
-        <v>-0.1387426636201842</v>
+        <v>-0.1322408874141605</v>
       </c>
       <c r="AJ9" s="4">
-        <v>-0.1157295131359983</v>
+        <v>-0.1061802534706364</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -1303,106 +1303,106 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2">
-        <v>15219</v>
+        <v>15134</v>
       </c>
       <c r="E10" s="2">
-        <v>15700.5</v>
+        <v>15460.5</v>
       </c>
       <c r="F10" s="2">
-        <v>17349.5</v>
+        <v>17142</v>
       </c>
       <c r="G10" s="2">
-        <v>17529.5</v>
+        <v>17355</v>
       </c>
       <c r="H10" s="2">
-        <v>17995.5</v>
+        <v>17827.5</v>
       </c>
       <c r="I10" s="2">
-        <v>16237.5</v>
+        <v>16069</v>
       </c>
       <c r="J10" s="3">
-        <v>169318519.7022113</v>
+        <v>172079411.1058055</v>
       </c>
       <c r="K10" s="3">
-        <v>163117894.618624</v>
+        <v>166133389.3173</v>
       </c>
       <c r="L10" s="3">
-        <v>168624555.2765944</v>
+        <v>170339371.7542851</v>
       </c>
       <c r="M10" s="3">
-        <v>171126578.0649956</v>
+        <v>173376956.6591169</v>
       </c>
       <c r="N10" s="3">
-        <v>164937218.7969272</v>
+        <v>167181612.8744408</v>
       </c>
       <c r="O10" s="3">
-        <v>159370161.1026692</v>
+        <v>162310898.2493853</v>
       </c>
       <c r="P10" s="4">
-        <v>0.6561264822134387</v>
+        <v>0.628</v>
       </c>
       <c r="Q10" s="4">
-        <v>0.8142292490118577</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R10" s="4">
-        <v>0.7549407114624506</v>
+        <v>0.76</v>
       </c>
       <c r="S10" s="4">
-        <v>0.7865612648221344</v>
+        <v>0.78</v>
       </c>
       <c r="T10" s="4">
-        <v>0.6403162055335968</v>
+        <v>0.652</v>
       </c>
       <c r="U10" s="5">
-        <v>11125.4694593739</v>
+        <v>11370.3852983881</v>
       </c>
       <c r="V10" s="5">
-        <v>10389.34394564657</v>
+        <v>10745.66730165906</v>
       </c>
       <c r="W10" s="5">
-        <v>9719.274634807596</v>
+        <v>9936.960200343312</v>
       </c>
       <c r="X10" s="5">
-        <v>9762.205314754876</v>
+        <v>9990.029193841367</v>
       </c>
       <c r="Y10" s="5">
-        <v>9165.470189598911</v>
+        <v>9377.737364994577</v>
       </c>
       <c r="Z10" s="5">
-        <v>9814.944486692482</v>
+        <v>10100.87113382198</v>
       </c>
       <c r="AA10" s="5">
-        <v>-736.1255137273238</v>
+        <v>-624.7179967290376</v>
       </c>
       <c r="AB10" s="5">
-        <v>-1406.194824566299</v>
+        <v>-1433.425098044791</v>
       </c>
       <c r="AC10" s="5">
-        <v>-1363.264144619019</v>
+        <v>-1380.356104546736</v>
       </c>
       <c r="AD10" s="5">
-        <v>-1959.999269774984</v>
+        <v>-1992.647933393526</v>
       </c>
       <c r="AE10" s="5">
-        <v>-1310.524972681413</v>
+        <v>-1269.514164566126</v>
       </c>
       <c r="AF10" s="4">
-        <v>-0.06616579340003426</v>
+        <v>-0.05494255298609796</v>
       </c>
       <c r="AG10" s="4">
-        <v>-0.1263942011347209</v>
+        <v>-0.1260665369227195</v>
       </c>
       <c r="AH10" s="4">
-        <v>-0.1225354264462418</v>
+        <v>-0.1213992374332661</v>
       </c>
       <c r="AI10" s="4">
-        <v>-0.1761722754201229</v>
+        <v>-0.1752489366983905</v>
       </c>
       <c r="AJ10" s="4">
-        <v>-0.1177950267597215</v>
+        <v>-0.1116509362920266</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -1411,106 +1411,106 @@
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
-        <v>4453.5</v>
+        <v>4538.5</v>
       </c>
       <c r="E11" s="2">
-        <v>4512.5</v>
+        <v>4752.5</v>
       </c>
       <c r="F11" s="2">
-        <v>4735</v>
+        <v>4942.5</v>
       </c>
       <c r="G11" s="2">
-        <v>4888</v>
+        <v>5062.5</v>
       </c>
       <c r="H11" s="2">
-        <v>4828.5</v>
+        <v>4996.5</v>
       </c>
       <c r="I11" s="2">
-        <v>4304.5</v>
+        <v>4473</v>
       </c>
       <c r="J11" s="3">
-        <v>57232391.6628777</v>
+        <v>61178826.2371712</v>
       </c>
       <c r="K11" s="3">
-        <v>53743504.32812078</v>
+        <v>57859575.40762267</v>
       </c>
       <c r="L11" s="3">
-        <v>52766664.5985172</v>
+        <v>57259081.26341264</v>
       </c>
       <c r="M11" s="3">
-        <v>53327007.85156588</v>
+        <v>57410223.00001854</v>
       </c>
       <c r="N11" s="3">
-        <v>51907977.70187788</v>
+        <v>55858277.7442119</v>
       </c>
       <c r="O11" s="3">
-        <v>48875096.08011736</v>
+        <v>54002680.14019444</v>
       </c>
       <c r="P11" s="4">
-        <v>0.6229508196721312</v>
+        <v>0.703125</v>
       </c>
       <c r="Q11" s="4">
-        <v>0.7377049180327869</v>
+        <v>0.78125</v>
       </c>
       <c r="R11" s="4">
-        <v>0.7868852459016393</v>
+        <v>0.765625</v>
       </c>
       <c r="S11" s="4">
-        <v>0.6721311475409836</v>
+        <v>0.703125</v>
       </c>
       <c r="T11" s="4">
-        <v>0.6557377049180327</v>
+        <v>0.59375</v>
       </c>
       <c r="U11" s="5">
-        <v>12851.103999748</v>
+        <v>13479.96612034179</v>
       </c>
       <c r="V11" s="5">
-        <v>11909.91785664727</v>
+        <v>12174.55558287694</v>
       </c>
       <c r="W11" s="5">
-        <v>11143.96295639223</v>
+        <v>11585.04426169199</v>
       </c>
       <c r="X11" s="5">
-        <v>10909.78065703066</v>
+        <v>11340.29096296663</v>
       </c>
       <c r="Y11" s="5">
-        <v>10750.33192541739</v>
+        <v>11179.48118567235</v>
       </c>
       <c r="Z11" s="5">
-        <v>11354.41888259202</v>
+        <v>12073.03378944655</v>
       </c>
       <c r="AA11" s="5">
-        <v>-941.186143100731</v>
+        <v>-1305.410537464846</v>
       </c>
       <c r="AB11" s="5">
-        <v>-1707.141043355768</v>
+        <v>-1894.921858649801</v>
       </c>
       <c r="AC11" s="5">
-        <v>-1941.323342717335</v>
+        <v>-2139.675157375161</v>
       </c>
       <c r="AD11" s="5">
-        <v>-2100.772074330604</v>
+        <v>-2300.484934669435</v>
       </c>
       <c r="AE11" s="5">
-        <v>-1496.685117155974</v>
+        <v>-1406.932330895233</v>
       </c>
       <c r="AF11" s="4">
-        <v>-0.07323776565182161</v>
+        <v>-0.09684078771495808</v>
       </c>
       <c r="AG11" s="4">
-        <v>-0.1328400301942343</v>
+        <v>-0.1405731914852731</v>
       </c>
       <c r="AH11" s="4">
-        <v>-0.1510627680513209</v>
+        <v>-0.158730010021784</v>
       </c>
       <c r="AI11" s="4">
-        <v>-0.1634701636817972</v>
+        <v>-0.1706595487059804</v>
       </c>
       <c r="AJ11" s="4">
-        <v>-0.1164635440803625</v>
+        <v>-0.1043720969574337</v>
       </c>
     </row>
     <row r="12" spans="1:36">
@@ -1521,106 +1521,106 @@
         <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>2870</v>
+        <v>2923</v>
       </c>
       <c r="D12" s="2">
-        <v>652804</v>
+        <v>662251</v>
       </c>
       <c r="E12" s="2">
-        <v>662206</v>
+        <v>672501.5</v>
       </c>
       <c r="F12" s="2">
-        <v>671320</v>
+        <v>682137</v>
       </c>
       <c r="G12" s="2">
-        <v>674385</v>
+        <v>686438.5</v>
       </c>
       <c r="H12" s="2">
-        <v>675511.5</v>
+        <v>688204.5</v>
       </c>
       <c r="I12" s="2">
-        <v>673996</v>
+        <v>686902.5</v>
       </c>
       <c r="J12" s="3">
-        <v>3328399309.082938</v>
+        <v>3484454152.620945</v>
       </c>
       <c r="K12" s="3">
-        <v>3273422145.958408</v>
+        <v>3441860951.099926</v>
       </c>
       <c r="L12" s="3">
-        <v>3287718774.221507</v>
+        <v>3443129399.334835</v>
       </c>
       <c r="M12" s="3">
-        <v>3316082321.922775</v>
+        <v>3476229974.896142</v>
       </c>
       <c r="N12" s="3">
-        <v>3269914265.02564</v>
+        <v>3428416909.813601</v>
       </c>
       <c r="O12" s="3">
-        <v>3403381519.666479</v>
+        <v>3605342938.780658</v>
       </c>
       <c r="P12" s="4">
-        <v>0.7250871080139373</v>
+        <v>0.7054396168320219</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.7421602787456446</v>
+        <v>0.7478617858364693</v>
       </c>
       <c r="R12" s="4">
-        <v>0.6989547038327526</v>
+        <v>0.7133082449538146</v>
       </c>
       <c r="S12" s="4">
-        <v>0.7540069686411149</v>
+        <v>0.7584673280875812</v>
       </c>
       <c r="T12" s="4">
-        <v>0.5637630662020906</v>
+        <v>0.5265138556277796</v>
       </c>
       <c r="U12" s="5">
-        <v>5098.619660852167</v>
+        <v>5261.530979373298</v>
       </c>
       <c r="V12" s="5">
-        <v>4943.20822517224</v>
+        <v>5117.997433611561</v>
       </c>
       <c r="W12" s="5">
-        <v>4897.394348777791</v>
+        <v>5047.562878622381</v>
       </c>
       <c r="X12" s="5">
-        <v>4917.194661688464</v>
+        <v>5064.153562039632</v>
       </c>
       <c r="Y12" s="5">
-        <v>4840.649293203211</v>
+        <v>4981.683365647277</v>
       </c>
       <c r="Z12" s="5">
-        <v>5049.557444949939</v>
+        <v>5248.696778335583</v>
       </c>
       <c r="AA12" s="5">
-        <v>-155.4114356799273</v>
+        <v>-143.5335457617366</v>
       </c>
       <c r="AB12" s="5">
-        <v>-201.2253120743762</v>
+        <v>-213.9681007509171</v>
       </c>
       <c r="AC12" s="5">
-        <v>-181.4249991637025</v>
+        <v>-197.377417333666</v>
       </c>
       <c r="AD12" s="5">
-        <v>-257.9703676489562</v>
+        <v>-279.8476137260204</v>
       </c>
       <c r="AE12" s="5">
-        <v>-49.06221590222776</v>
+        <v>-12.83420103771459</v>
       </c>
       <c r="AF12" s="4">
-        <v>-0.03048108037420316</v>
+        <v>-0.02727980626255533</v>
       </c>
       <c r="AG12" s="4">
-        <v>-0.03946662537302181</v>
+        <v>-0.04066650972687091</v>
       </c>
       <c r="AH12" s="4">
-        <v>-0.03558315999852002</v>
+        <v>-0.03751330517817753</v>
       </c>
       <c r="AI12" s="4">
-        <v>-0.05059611910840978</v>
+        <v>-0.05318748760068182</v>
       </c>
       <c r="AJ12" s="4">
-        <v>-0.009622646748674635</v>
+        <v>-0.002439252203974118</v>
       </c>
     </row>
     <row r="13" spans="1:36">
@@ -1629,106 +1629,106 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>2771</v>
+        <v>2783</v>
       </c>
       <c r="D13" s="2">
-        <v>706813</v>
+        <v>702398.5</v>
       </c>
       <c r="E13" s="2">
-        <v>719458</v>
+        <v>714706</v>
       </c>
       <c r="F13" s="2">
-        <v>730170</v>
+        <v>725426.5</v>
       </c>
       <c r="G13" s="2">
-        <v>734778</v>
+        <v>729443</v>
       </c>
       <c r="H13" s="2">
-        <v>737891</v>
+        <v>731951.5</v>
       </c>
       <c r="I13" s="2">
-        <v>735199</v>
+        <v>729928</v>
       </c>
       <c r="J13" s="3">
-        <v>3718645922.989576</v>
+        <v>3798208276.654932</v>
       </c>
       <c r="K13" s="3">
-        <v>3657139318.701365</v>
+        <v>3745368463.647176</v>
       </c>
       <c r="L13" s="3">
-        <v>3681185259.568739</v>
+        <v>3746979662.875429</v>
       </c>
       <c r="M13" s="3">
-        <v>3722639370.613975</v>
+        <v>3790859287.10309</v>
       </c>
       <c r="N13" s="3">
-        <v>3666780007.163327</v>
+        <v>3738019062.713998</v>
       </c>
       <c r="O13" s="3">
-        <v>3813246991.849478</v>
+        <v>3922541148.503852</v>
       </c>
       <c r="P13" s="4">
-        <v>0.7300613496932515</v>
+        <v>0.7157743442328423</v>
       </c>
       <c r="Q13" s="4">
-        <v>0.7343919162757128</v>
+        <v>0.7477542220625225</v>
       </c>
       <c r="R13" s="4">
-        <v>0.6950559364850235</v>
+        <v>0.7021200143729788</v>
       </c>
       <c r="S13" s="4">
-        <v>0.7524359437026344</v>
+        <v>0.7578153072224219</v>
       </c>
       <c r="T13" s="4">
-        <v>0.5615301335258029</v>
+        <v>0.5170679123248293</v>
       </c>
       <c r="U13" s="5">
-        <v>5261.145342529886</v>
+        <v>5407.483467938687</v>
       </c>
       <c r="V13" s="5">
-        <v>5083.186674832116</v>
+        <v>5240.432378694423</v>
       </c>
       <c r="W13" s="5">
-        <v>5041.545475120504</v>
+        <v>5165.209242942502</v>
       </c>
       <c r="X13" s="5">
-        <v>5066.345713418168</v>
+        <v>5196.923251169852</v>
       </c>
       <c r="Y13" s="5">
-        <v>4969.270538823927</v>
+        <v>5106.921787459959</v>
       </c>
       <c r="Z13" s="5">
-        <v>5186.686858727335</v>
+        <v>5373.874064981549</v>
       </c>
       <c r="AA13" s="5">
-        <v>-177.9586676977697</v>
+        <v>-167.0510892442635</v>
       </c>
       <c r="AB13" s="5">
-        <v>-219.5998674093817</v>
+        <v>-242.2742249961848</v>
       </c>
       <c r="AC13" s="5">
-        <v>-194.7996291117179</v>
+        <v>-210.5602167688348</v>
       </c>
       <c r="AD13" s="5">
-        <v>-291.8748037059586</v>
+        <v>-300.5616804787278</v>
       </c>
       <c r="AE13" s="5">
-        <v>-74.4584838025512</v>
+        <v>-33.60940295713772</v>
       </c>
       <c r="AF13" s="4">
-        <v>-0.03382508106346971</v>
+        <v>-0.03089257512014965</v>
       </c>
       <c r="AG13" s="4">
-        <v>-0.04173993552966249</v>
+        <v>-0.04480350729366889</v>
       </c>
       <c r="AH13" s="4">
-        <v>-0.037026087748803</v>
+        <v>-0.03893867045868193</v>
       </c>
       <c r="AI13" s="4">
-        <v>-0.0554774264353638</v>
+        <v>-0.05558254264867879</v>
       </c>
       <c r="AJ13" s="4">
-        <v>-0.0141525236340927</v>
+        <v>-0.006215350108125128</v>
       </c>
     </row>
     <row r="14" spans="1:36">
@@ -1737,106 +1737,106 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>2731</v>
+        <v>2819</v>
       </c>
       <c r="D14" s="2">
-        <v>757297</v>
+        <v>782378</v>
       </c>
       <c r="E14" s="2">
-        <v>771320.5</v>
+        <v>796436.5</v>
       </c>
       <c r="F14" s="2">
-        <v>783470.5</v>
+        <v>808506.5</v>
       </c>
       <c r="G14" s="2">
-        <v>788041</v>
+        <v>813860.5</v>
       </c>
       <c r="H14" s="2">
-        <v>787724.5</v>
+        <v>814478.5</v>
       </c>
       <c r="I14" s="2">
-        <v>778563.5</v>
+        <v>804773.5</v>
       </c>
       <c r="J14" s="3">
-        <v>4244034462.681302</v>
+        <v>4502983539.292272</v>
       </c>
       <c r="K14" s="3">
-        <v>4162544191.257792</v>
+        <v>4427559978.073041</v>
       </c>
       <c r="L14" s="3">
-        <v>4186980501.05743</v>
+        <v>4435566873.51295</v>
       </c>
       <c r="M14" s="3">
-        <v>4216574612.797225</v>
+        <v>4476632329.234987</v>
       </c>
       <c r="N14" s="3">
-        <v>4134279911.996789</v>
+        <v>4390175351.112908</v>
       </c>
       <c r="O14" s="3">
-        <v>4259285987.157284</v>
+        <v>4566762149.945475</v>
       </c>
       <c r="P14" s="4">
-        <v>0.7400219699743683</v>
+        <v>0.7204682511528911</v>
       </c>
       <c r="Q14" s="4">
-        <v>0.749542292200659</v>
+        <v>0.7484923731819795</v>
       </c>
       <c r="R14" s="4">
-        <v>0.7081655071402416</v>
+        <v>0.7094714437743881</v>
       </c>
       <c r="S14" s="4">
-        <v>0.7685829366532406</v>
+        <v>0.7726144022703086</v>
       </c>
       <c r="T14" s="4">
-        <v>0.5968509703405346</v>
+        <v>0.5498403689251508</v>
       </c>
       <c r="U14" s="5">
-        <v>5604.187607611415</v>
+        <v>5755.508896329232</v>
       </c>
       <c r="V14" s="5">
-        <v>5396.646648517435</v>
+        <v>5559.212791067513</v>
       </c>
       <c r="W14" s="5">
-        <v>5344.145696688554</v>
+        <v>5486.123950163604</v>
       </c>
       <c r="X14" s="5">
-        <v>5350.704611558568</v>
+        <v>5500.490967721111</v>
       </c>
       <c r="Y14" s="5">
-        <v>5248.383047622347</v>
+        <v>5390.16726790567</v>
       </c>
       <c r="Z14" s="5">
-        <v>5470.698263092586</v>
+        <v>5674.593099729893</v>
       </c>
       <c r="AA14" s="5">
-        <v>-207.5409590939798</v>
+        <v>-196.2961052617193</v>
       </c>
       <c r="AB14" s="5">
-        <v>-260.0419109228606</v>
+        <v>-269.3849461656282</v>
       </c>
       <c r="AC14" s="5">
-        <v>-253.4829960528468</v>
+        <v>-255.0179286081211</v>
       </c>
       <c r="AD14" s="5">
-        <v>-355.8045599890684</v>
+        <v>-365.3416284235618</v>
       </c>
       <c r="AE14" s="5">
-        <v>-133.4893445188291</v>
+        <v>-80.91579659933905</v>
       </c>
       <c r="AF14" s="4">
-        <v>-0.03703319260977356</v>
+        <v>-0.03410577740343923</v>
       </c>
       <c r="AG14" s="4">
-        <v>-0.04640135718684379</v>
+        <v>-0.0468047137130545</v>
       </c>
       <c r="AH14" s="4">
-        <v>-0.04523099756842097</v>
+        <v>-0.04430849351492916</v>
       </c>
       <c r="AI14" s="4">
-        <v>-0.06348905227687718</v>
+        <v>-0.063476859301976</v>
       </c>
       <c r="AJ14" s="4">
-        <v>-0.02381957098251464</v>
+        <v>-0.01405884311132688</v>
       </c>
     </row>
     <row r="15" spans="1:36">
@@ -1845,106 +1845,106 @@
         <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>2776</v>
+        <v>2804</v>
       </c>
       <c r="D15" s="2">
-        <v>835080.5</v>
+        <v>847316</v>
       </c>
       <c r="E15" s="2">
-        <v>851931.5</v>
+        <v>864327.5</v>
       </c>
       <c r="F15" s="2">
-        <v>859993</v>
+        <v>872157</v>
       </c>
       <c r="G15" s="2">
-        <v>862825</v>
+        <v>874433</v>
       </c>
       <c r="H15" s="2">
-        <v>859565.5</v>
+        <v>870240</v>
       </c>
       <c r="I15" s="2">
-        <v>847560</v>
+        <v>857576.5</v>
       </c>
       <c r="J15" s="3">
-        <v>5133213924.094632</v>
+        <v>5370294666.163547</v>
       </c>
       <c r="K15" s="3">
-        <v>5010313194.777085</v>
+        <v>5257310359.729609</v>
       </c>
       <c r="L15" s="3">
-        <v>5034464980.535628</v>
+        <v>5262711876.793589</v>
       </c>
       <c r="M15" s="3">
-        <v>5042067093.152916</v>
+        <v>5267357959.277546</v>
       </c>
       <c r="N15" s="3">
-        <v>4916550739.224089</v>
+        <v>5137569958.450478</v>
       </c>
       <c r="O15" s="3">
-        <v>5033850468.388741</v>
+        <v>5299742638.077579</v>
       </c>
       <c r="P15" s="4">
-        <v>0.747478386167147</v>
+        <v>0.7346647646219686</v>
       </c>
       <c r="Q15" s="4">
-        <v>0.7402737752161384</v>
+        <v>0.7524964336661911</v>
       </c>
       <c r="R15" s="4">
-        <v>0.729106628242075</v>
+        <v>0.7371611982881597</v>
       </c>
       <c r="S15" s="4">
-        <v>0.7871037463976945</v>
+        <v>0.7828102710413695</v>
       </c>
       <c r="T15" s="4">
-        <v>0.6127521613832853</v>
+        <v>0.5738231098430813</v>
       </c>
       <c r="U15" s="5">
-        <v>6146.968973763167</v>
+        <v>6338.006913788417</v>
       </c>
       <c r="V15" s="5">
-        <v>5881.122126341244</v>
+        <v>6082.544359319366</v>
       </c>
       <c r="W15" s="5">
-        <v>5854.076696595936</v>
+        <v>6034.13362134752</v>
       </c>
       <c r="X15" s="5">
-        <v>5843.672926900491</v>
+        <v>6023.741051947429</v>
       </c>
       <c r="Y15" s="5">
-        <v>5719.809298097804</v>
+        <v>5903.624239807958</v>
       </c>
       <c r="Z15" s="5">
-        <v>5939.226094186536</v>
+        <v>6179.906560030015</v>
       </c>
       <c r="AA15" s="5">
-        <v>-265.8468474219235</v>
+        <v>-255.4625544690516</v>
       </c>
       <c r="AB15" s="5">
-        <v>-292.8922771672314</v>
+        <v>-303.8732924408978</v>
       </c>
       <c r="AC15" s="5">
-        <v>-303.2960468626761</v>
+        <v>-314.2658618409887</v>
       </c>
       <c r="AD15" s="5">
-        <v>-427.1596756653626</v>
+        <v>-434.382673980459</v>
       </c>
       <c r="AE15" s="5">
-        <v>-207.7428795766309</v>
+        <v>-158.1003537584029</v>
       </c>
       <c r="AF15" s="4">
-        <v>-0.04324844464916378</v>
+        <v>-0.04030644932136151</v>
       </c>
       <c r="AG15" s="4">
-        <v>-0.04764824394223732</v>
+        <v>-0.04794461359450675</v>
       </c>
       <c r="AH15" s="4">
-        <v>-0.04934074796167365</v>
+        <v>-0.0495843355988298</v>
       </c>
       <c r="AI15" s="4">
-        <v>-0.06949110650933643</v>
+        <v>-0.06853616284883723</v>
       </c>
       <c r="AJ15" s="4">
-        <v>-0.03379598635739511</v>
+        <v>-0.02494480613683991</v>
       </c>
     </row>
     <row r="16" spans="1:36">
@@ -1953,106 +1953,106 @@
         <v>25</v>
       </c>
       <c r="C16" s="2">
-        <v>2754</v>
+        <v>2807</v>
       </c>
       <c r="D16" s="2">
-        <v>823458</v>
+        <v>840931.5</v>
       </c>
       <c r="E16" s="2">
-        <v>837139.5</v>
+        <v>855396</v>
       </c>
       <c r="F16" s="2">
-        <v>843358</v>
+        <v>862356</v>
       </c>
       <c r="G16" s="2">
-        <v>841968</v>
+        <v>860987</v>
       </c>
       <c r="H16" s="2">
-        <v>832712</v>
+        <v>850978.5</v>
       </c>
       <c r="I16" s="2">
-        <v>813953</v>
+        <v>831226</v>
       </c>
       <c r="J16" s="3">
-        <v>5612070339.775309</v>
+        <v>5881832318.043296</v>
       </c>
       <c r="K16" s="3">
-        <v>5460616200.875311</v>
+        <v>5741741080.442284</v>
       </c>
       <c r="L16" s="3">
-        <v>5462193627.893987</v>
+        <v>5718158922.064723</v>
       </c>
       <c r="M16" s="3">
-        <v>5440452775.733526</v>
+        <v>5697999418.369168</v>
       </c>
       <c r="N16" s="3">
-        <v>5288295041.499472</v>
+        <v>5542409380.388206</v>
       </c>
       <c r="O16" s="3">
-        <v>5368927811.438152</v>
+        <v>5681485969.775819</v>
       </c>
       <c r="P16" s="4">
-        <v>0.7429193899782135</v>
+        <v>0.7253295333095832</v>
       </c>
       <c r="Q16" s="4">
-        <v>0.7309368191721133</v>
+        <v>0.7406483790523691</v>
       </c>
       <c r="R16" s="4">
-        <v>0.7178649237472767</v>
+        <v>0.726042037762736</v>
       </c>
       <c r="S16" s="4">
-        <v>0.7716049382716049</v>
+        <v>0.7723548272176701</v>
       </c>
       <c r="T16" s="4">
-        <v>0.6063907044299202</v>
+        <v>0.5685785536159601</v>
       </c>
       <c r="U16" s="5">
-        <v>6815.247820502453</v>
+        <v>6994.425013265998</v>
       </c>
       <c r="V16" s="5">
-        <v>6522.946535046203</v>
+        <v>6712.377753043366</v>
       </c>
       <c r="W16" s="5">
-        <v>6476.720002530345</v>
+        <v>6630.856539601653</v>
       </c>
       <c r="X16" s="5">
-        <v>6461.590910501975</v>
+        <v>6617.985426457273</v>
       </c>
       <c r="Y16" s="5">
-        <v>6350.68912360993</v>
+        <v>6512.984030017452</v>
       </c>
       <c r="Z16" s="5">
-        <v>6596.115268864605</v>
+        <v>6835.067682887468</v>
       </c>
       <c r="AA16" s="5">
-        <v>-292.3012854562494</v>
+        <v>-282.0472602226318</v>
       </c>
       <c r="AB16" s="5">
-        <v>-338.5278179721081</v>
+        <v>-363.5684736643452</v>
       </c>
       <c r="AC16" s="5">
-        <v>-353.6569100004781</v>
+        <v>-376.4395868087249</v>
       </c>
       <c r="AD16" s="5">
-        <v>-464.5586968925227</v>
+        <v>-481.4409832485462</v>
       </c>
       <c r="AE16" s="5">
-        <v>-219.1325516378474</v>
+        <v>-159.3573303785297</v>
       </c>
       <c r="AF16" s="4">
-        <v>-0.04288931131409679</v>
+        <v>-0.04032458131836225</v>
       </c>
       <c r="AG16" s="4">
-        <v>-0.04967212152633804</v>
+        <v>-0.0519797514412953</v>
       </c>
       <c r="AH16" s="4">
-        <v>-0.05189201028560764</v>
+        <v>-0.0538199474717006</v>
       </c>
       <c r="AI16" s="4">
-        <v>-0.06816460811520031</v>
+        <v>-0.06883210304427023</v>
       </c>
       <c r="AJ16" s="4">
-        <v>-0.03215327709413973</v>
+        <v>-0.02278347828110017</v>
       </c>
     </row>
     <row r="17" spans="1:36">
@@ -2063,106 +2063,106 @@
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="D17" s="2">
-        <v>643991</v>
+        <v>658822.5</v>
       </c>
       <c r="E17" s="2">
-        <v>651433.5</v>
+        <v>666809</v>
       </c>
       <c r="F17" s="2">
-        <v>657371.5</v>
+        <v>673044.5</v>
       </c>
       <c r="G17" s="2">
-        <v>667600.5</v>
+        <v>684000</v>
       </c>
       <c r="H17" s="2">
-        <v>680214.5</v>
+        <v>697638.5</v>
       </c>
       <c r="I17" s="2">
-        <v>692324</v>
+        <v>710421</v>
       </c>
       <c r="J17" s="3">
-        <v>3890612583.881621</v>
+        <v>4107372950.011284</v>
       </c>
       <c r="K17" s="3">
-        <v>3896334570.455578</v>
+        <v>4128207103.563303</v>
       </c>
       <c r="L17" s="3">
-        <v>3823333250.43965</v>
+        <v>4037425930.259145</v>
       </c>
       <c r="M17" s="3">
-        <v>3862738655.566001</v>
+        <v>4082618907.988902</v>
       </c>
       <c r="N17" s="3">
-        <v>3827729606.435834</v>
+        <v>4043748455.170307</v>
       </c>
       <c r="O17" s="3">
-        <v>4132597456.076571</v>
+        <v>4411764918.258278</v>
       </c>
       <c r="P17" s="4">
-        <v>0.6226086956521739</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="Q17" s="4">
-        <v>0.7443478260869565</v>
+        <v>0.7483108108108109</v>
       </c>
       <c r="R17" s="4">
-        <v>0.7530434782608696</v>
+        <v>0.7550675675675675</v>
       </c>
       <c r="S17" s="4">
-        <v>0.8539130434782609</v>
+        <v>0.8597972972972973</v>
       </c>
       <c r="T17" s="4">
-        <v>0.5582608695652174</v>
+        <v>0.4983108108108108</v>
       </c>
       <c r="U17" s="5">
-        <v>6041.408317634285</v>
+        <v>6234.415111826454</v>
       </c>
       <c r="V17" s="5">
-        <v>5981.170097109802</v>
+        <v>6190.988879219241</v>
       </c>
       <c r="W17" s="5">
-        <v>5816.092195112885</v>
+        <v>5998.750350473327</v>
       </c>
       <c r="X17" s="5">
-        <v>5786.003239311536</v>
+        <v>5968.741093551026</v>
       </c>
       <c r="Y17" s="5">
-        <v>5627.239064200828</v>
+        <v>5796.337867205303</v>
       </c>
       <c r="Z17" s="5">
-        <v>5969.166829514174</v>
+        <v>6210.071096234878</v>
       </c>
       <c r="AA17" s="5">
-        <v>-60.23822052448304</v>
+        <v>-43.42623260721302</v>
       </c>
       <c r="AB17" s="5">
-        <v>-225.3161225213998</v>
+        <v>-235.6647613531277</v>
       </c>
       <c r="AC17" s="5">
-        <v>-255.4050783227485</v>
+        <v>-265.6740182754284</v>
       </c>
       <c r="AD17" s="5">
-        <v>-414.169253433457</v>
+        <v>-438.0772446211513</v>
       </c>
       <c r="AE17" s="5">
-        <v>-72.24148812011117</v>
+        <v>-24.34401559157686</v>
       </c>
       <c r="AF17" s="4">
-        <v>-0.00997089045424282</v>
+        <v>-0.006965566428971837</v>
       </c>
       <c r="AG17" s="4">
-        <v>-0.03729529783042873</v>
+        <v>-0.0378006207681103</v>
       </c>
       <c r="AH17" s="4">
-        <v>-0.0422757517609339</v>
+        <v>-0.0426141046930697</v>
       </c>
       <c r="AI17" s="4">
-        <v>-0.0685550837913963</v>
+        <v>-0.07026757711242793</v>
       </c>
       <c r="AJ17" s="4">
-        <v>-0.01195772315359733</v>
+        <v>-0.003904779382655654</v>
       </c>
     </row>
     <row r="18" spans="1:36">
@@ -2171,106 +2171,106 @@
         <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D18" s="2">
-        <v>560251</v>
+        <v>569318</v>
       </c>
       <c r="E18" s="2">
-        <v>566365.5</v>
+        <v>574433</v>
       </c>
       <c r="F18" s="2">
-        <v>573919</v>
+        <v>580370</v>
       </c>
       <c r="G18" s="2">
-        <v>585022</v>
+        <v>591064</v>
       </c>
       <c r="H18" s="2">
-        <v>595141.5</v>
+        <v>600656.5</v>
       </c>
       <c r="I18" s="2">
-        <v>606301</v>
+        <v>611654.5</v>
       </c>
       <c r="J18" s="3">
-        <v>3624805235.634604</v>
+        <v>3779872278.151195</v>
       </c>
       <c r="K18" s="3">
-        <v>3585891300.056559</v>
+        <v>3746690692.32222</v>
       </c>
       <c r="L18" s="3">
-        <v>3520406650.989497</v>
+        <v>3643956695.206677</v>
       </c>
       <c r="M18" s="3">
-        <v>3559030337.672476</v>
+        <v>3684228646.807063</v>
       </c>
       <c r="N18" s="3">
-        <v>3500865290.84614</v>
+        <v>3622285883.554476</v>
       </c>
       <c r="O18" s="3">
-        <v>3772776474.740567</v>
+        <v>3941238955.317668</v>
       </c>
       <c r="P18" s="4">
-        <v>0.6845018450184502</v>
+        <v>0.6703499079189686</v>
       </c>
       <c r="Q18" s="4">
-        <v>0.8210332103321033</v>
+        <v>0.8250460405156538</v>
       </c>
       <c r="R18" s="4">
-        <v>0.8431734317343174</v>
+        <v>0.860036832412523</v>
       </c>
       <c r="S18" s="4">
-        <v>0.9280442804428044</v>
+        <v>0.9263351749539595</v>
       </c>
       <c r="T18" s="4">
-        <v>0.7195571955719557</v>
+        <v>0.6832412523020258</v>
       </c>
       <c r="U18" s="5">
-        <v>6469.966560764021</v>
+        <v>6639.298736648402</v>
       </c>
       <c r="V18" s="5">
-        <v>6331.408428049659</v>
+        <v>6522.415481565684</v>
       </c>
       <c r="W18" s="5">
-        <v>6133.97822861675</v>
+        <v>6278.678593322668</v>
       </c>
       <c r="X18" s="5">
-        <v>6083.583758683393</v>
+        <v>6233.214418078352</v>
       </c>
       <c r="Y18" s="5">
-        <v>5882.408285838141</v>
+        <v>6030.544718244914</v>
       </c>
       <c r="Z18" s="5">
-        <v>6222.612983881879</v>
+        <v>6443.57060287739</v>
       </c>
       <c r="AA18" s="5">
-        <v>-138.5581327143618</v>
+        <v>-116.8832550827183</v>
       </c>
       <c r="AB18" s="5">
-        <v>-335.9883321472707</v>
+        <v>-360.6201433257338</v>
       </c>
       <c r="AC18" s="5">
-        <v>-386.3828020806277</v>
+        <v>-406.0843185700505</v>
       </c>
       <c r="AD18" s="5">
-        <v>-587.5582749258801</v>
+        <v>-608.7540184034879</v>
       </c>
       <c r="AE18" s="5">
-        <v>-247.3535768821421</v>
+        <v>-195.7281337710119</v>
       </c>
       <c r="AF18" s="4">
-        <v>-0.02141558714609493</v>
+        <v>-0.01760475913480619</v>
       </c>
       <c r="AG18" s="4">
-        <v>-0.05193045883495184</v>
+        <v>-0.05431599896765293</v>
       </c>
       <c r="AH18" s="4">
-        <v>-0.05971944343944191</v>
+        <v>-0.06116373651459561</v>
       </c>
       <c r="AI18" s="4">
-        <v>-0.09081318572634123</v>
+        <v>-0.09168950555624411</v>
       </c>
       <c r="AJ18" s="4">
-        <v>-0.03823104409567968</v>
+        <v>-0.02948024204583655</v>
       </c>
     </row>
     <row r="19" spans="1:36">
@@ -2279,106 +2279,106 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="D19" s="2">
-        <v>475331.5</v>
+        <v>473018</v>
       </c>
       <c r="E19" s="2">
-        <v>478894</v>
+        <v>476837.5</v>
       </c>
       <c r="F19" s="2">
-        <v>482572</v>
+        <v>481465.5</v>
       </c>
       <c r="G19" s="2">
-        <v>491071.5</v>
+        <v>490860.5</v>
       </c>
       <c r="H19" s="2">
-        <v>500231.5</v>
+        <v>501398.5</v>
       </c>
       <c r="I19" s="2">
-        <v>510885.5</v>
+        <v>513599</v>
       </c>
       <c r="J19" s="3">
-        <v>3290730825.727007</v>
+        <v>3377883662.389657</v>
       </c>
       <c r="K19" s="3">
-        <v>3181240912.768568</v>
+        <v>3274528243.981791</v>
       </c>
       <c r="L19" s="3">
-        <v>3117834324.790586</v>
+        <v>3202508532.48175</v>
       </c>
       <c r="M19" s="3">
-        <v>3128308199.94522</v>
+        <v>3208153880.891908</v>
       </c>
       <c r="N19" s="3">
-        <v>3119465453.116765</v>
+        <v>3208067062.482321</v>
       </c>
       <c r="O19" s="3">
-        <v>3320873939.911455</v>
+        <v>3458514689.172922</v>
       </c>
       <c r="P19" s="4">
-        <v>0.7602459016393442</v>
+        <v>0.7410358565737052</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.8770491803278688</v>
+        <v>0.8864541832669323</v>
       </c>
       <c r="R19" s="4">
-        <v>0.8975409836065574</v>
+        <v>0.898406374501992</v>
       </c>
       <c r="S19" s="4">
-        <v>0.9323770491803278</v>
+        <v>0.950199203187251</v>
       </c>
       <c r="T19" s="4">
-        <v>0.8012295081967213</v>
+        <v>0.8087649402390438</v>
       </c>
       <c r="U19" s="5">
-        <v>6923.022828756367</v>
+        <v>7141.131336206353</v>
       </c>
       <c r="V19" s="5">
-        <v>6642.891564247136</v>
+        <v>6867.178533529329</v>
       </c>
       <c r="W19" s="5">
-        <v>6460.868688590688</v>
+        <v>6651.584656598967</v>
       </c>
       <c r="X19" s="5">
-        <v>6370.372135107046</v>
+        <v>6535.775196602513</v>
       </c>
       <c r="Y19" s="5">
-        <v>6236.043618038379</v>
+        <v>6398.238252572197</v>
       </c>
       <c r="Z19" s="5">
-        <v>6500.231343249035</v>
+        <v>6733.881275417051</v>
       </c>
       <c r="AA19" s="5">
-        <v>-280.1312645092312</v>
+        <v>-273.952802677024</v>
       </c>
       <c r="AB19" s="5">
-        <v>-462.1541401656787</v>
+        <v>-489.5466796073861</v>
       </c>
       <c r="AC19" s="5">
-        <v>-552.6506936493206</v>
+        <v>-605.3561396038394</v>
       </c>
       <c r="AD19" s="5">
-        <v>-686.9792107179883</v>
+        <v>-742.893083634156</v>
       </c>
       <c r="AE19" s="5">
-        <v>-422.7914855073313</v>
+        <v>-407.2500607893016</v>
       </c>
       <c r="AF19" s="4">
-        <v>-0.04046372104186069</v>
+        <v>-0.0383626612898228</v>
       </c>
       <c r="AG19" s="4">
-        <v>-0.06675611963115524</v>
+        <v>-0.06855309846008972</v>
       </c>
       <c r="AH19" s="4">
-        <v>-0.0798279461615754</v>
+        <v>-0.08477034115513526</v>
       </c>
       <c r="AI19" s="4">
-        <v>-0.09923110579160044</v>
+        <v>-0.1040301667422924</v>
       </c>
       <c r="AJ19" s="4">
-        <v>-0.06107035842077102</v>
+        <v>-0.05702878740298434</v>
       </c>
     </row>
     <row r="20" spans="1:36">
@@ -2390,103 +2390,103 @@
         <v>496</v>
       </c>
       <c r="D20" s="2">
-        <v>453397.5</v>
+        <v>457160.5</v>
       </c>
       <c r="E20" s="2">
-        <v>457022</v>
+        <v>460007</v>
       </c>
       <c r="F20" s="2">
-        <v>461379.5</v>
+        <v>464806.5</v>
       </c>
       <c r="G20" s="2">
-        <v>471774</v>
+        <v>474460.5</v>
       </c>
       <c r="H20" s="2">
-        <v>484157.5</v>
+        <v>486633.5</v>
       </c>
       <c r="I20" s="2">
-        <v>495667.5</v>
+        <v>497685.5</v>
       </c>
       <c r="J20" s="3">
-        <v>3453048768.032127</v>
+        <v>3587896285.765254</v>
       </c>
       <c r="K20" s="3">
-        <v>3326166173.98376</v>
+        <v>3464916685.239841</v>
       </c>
       <c r="L20" s="3">
-        <v>3252583506.416107</v>
+        <v>3366725790.62061</v>
       </c>
       <c r="M20" s="3">
-        <v>3269677987.659924</v>
+        <v>3400812963.484407</v>
       </c>
       <c r="N20" s="3">
-        <v>3263898808.316214</v>
+        <v>3385296247.504254</v>
       </c>
       <c r="O20" s="3">
-        <v>3472348882.995037</v>
+        <v>3626532875.10982</v>
       </c>
       <c r="P20" s="4">
-        <v>0.7883064516129032</v>
+        <v>0.7721774193548387</v>
       </c>
       <c r="Q20" s="4">
-        <v>0.8870967741935484</v>
+        <v>0.8971774193548387</v>
       </c>
       <c r="R20" s="4">
-        <v>0.8931451612903226</v>
+        <v>0.8911290322580645</v>
       </c>
       <c r="S20" s="4">
-        <v>0.9475806451612904</v>
+        <v>0.9314516129032258</v>
       </c>
       <c r="T20" s="4">
-        <v>0.842741935483871</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="U20" s="5">
-        <v>7615.941349548965</v>
+        <v>7848.220232861881</v>
       </c>
       <c r="V20" s="5">
-        <v>7277.912603734087</v>
+        <v>7532.312954454695</v>
       </c>
       <c r="W20" s="5">
-        <v>7049.692295422981</v>
+        <v>7243.284658498988</v>
       </c>
       <c r="X20" s="5">
-        <v>6930.602338534815</v>
+        <v>7167.747290837503</v>
       </c>
       <c r="Y20" s="5">
-        <v>6741.398838841109</v>
+        <v>6956.562274287023</v>
       </c>
       <c r="Z20" s="5">
-        <v>7005.399553117841</v>
+        <v>7286.796330433216</v>
       </c>
       <c r="AA20" s="5">
-        <v>-338.0287458148787</v>
+        <v>-315.9072784071868</v>
       </c>
       <c r="AB20" s="5">
-        <v>-566.249054125984</v>
+        <v>-604.935574362893</v>
       </c>
       <c r="AC20" s="5">
-        <v>-685.3390110141499</v>
+        <v>-680.4729420243784</v>
       </c>
       <c r="AD20" s="5">
-        <v>-874.5425107078563</v>
+        <v>-891.6579585748586</v>
       </c>
       <c r="AE20" s="5">
-        <v>-610.5417964311246</v>
+        <v>-561.4239024286653</v>
       </c>
       <c r="AF20" s="4">
-        <v>-0.0443843683006957</v>
+        <v>-0.04025209143398234</v>
       </c>
       <c r="AG20" s="4">
-        <v>-0.07435050089501005</v>
+        <v>-0.0770793321815717</v>
       </c>
       <c r="AH20" s="4">
-        <v>-0.08998743288047217</v>
+        <v>-0.08670410893607683</v>
       </c>
       <c r="AI20" s="4">
-        <v>-0.1148305206892972</v>
+        <v>-0.1136127595962878</v>
       </c>
       <c r="AJ20" s="4">
-        <v>-0.08016629440919765</v>
+        <v>-0.07153518705781015</v>
       </c>
     </row>
     <row r="21" spans="1:36">
@@ -2495,106 +2495,106 @@
         <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="D21" s="2">
-        <v>372062.5</v>
+        <v>385711.5</v>
       </c>
       <c r="E21" s="2">
-        <v>374251.5</v>
+        <v>388640.5</v>
       </c>
       <c r="F21" s="2">
-        <v>376527</v>
+        <v>390924.5</v>
       </c>
       <c r="G21" s="2">
-        <v>385471</v>
+        <v>399836</v>
       </c>
       <c r="H21" s="2">
-        <v>396782.5</v>
+        <v>410195.5</v>
       </c>
       <c r="I21" s="2">
-        <v>407192.5</v>
+        <v>419824.5</v>
       </c>
       <c r="J21" s="3">
-        <v>3224457899.291689</v>
+        <v>3433727006.410097</v>
       </c>
       <c r="K21" s="3">
-        <v>3080164505.085636</v>
+        <v>3294427190.99761</v>
       </c>
       <c r="L21" s="3">
-        <v>3012083615.916039</v>
+        <v>3216169526.665436</v>
       </c>
       <c r="M21" s="3">
-        <v>3021793927.469574</v>
+        <v>3221013366.317288</v>
       </c>
       <c r="N21" s="3">
-        <v>3011754519.682471</v>
+        <v>3206158525.82105</v>
       </c>
       <c r="O21" s="3">
-        <v>3199716000.106315</v>
+        <v>3433144803.304269</v>
       </c>
       <c r="P21" s="4">
-        <v>0.8065217391304348</v>
+        <v>0.7983193277310925</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.8739130434782608</v>
+        <v>0.8697478991596639</v>
       </c>
       <c r="R21" s="4">
-        <v>0.8782608695652174</v>
+        <v>0.8718487394957983</v>
       </c>
       <c r="S21" s="4">
-        <v>0.9173913043478261</v>
+        <v>0.9243697478991597</v>
       </c>
       <c r="T21" s="4">
-        <v>0.85</v>
+        <v>0.8298319327731093</v>
       </c>
       <c r="U21" s="5">
-        <v>8666.441523377629</v>
+        <v>8902.31949633365</v>
       </c>
       <c r="V21" s="5">
-        <v>8230.199491747224</v>
+        <v>8476.798457694476</v>
       </c>
       <c r="W21" s="5">
-        <v>7999.648407460922</v>
+        <v>8227.086116796047</v>
       </c>
       <c r="X21" s="5">
-        <v>7839.225071327218</v>
+        <v>8055.83630867978</v>
       </c>
       <c r="Y21" s="5">
-        <v>7590.441916370986</v>
+        <v>7816.171863955236</v>
       </c>
       <c r="Z21" s="5">
-        <v>7857.993455445065</v>
+        <v>8177.57135018149</v>
       </c>
       <c r="AA21" s="5">
-        <v>-436.2420316304051</v>
+        <v>-425.5210386391736</v>
       </c>
       <c r="AB21" s="5">
-        <v>-666.7931159167074</v>
+        <v>-675.2333795376035</v>
       </c>
       <c r="AC21" s="5">
-        <v>-827.2164520504111</v>
+        <v>-846.4831876538701</v>
       </c>
       <c r="AD21" s="5">
-        <v>-1075.999607006643</v>
+        <v>-1086.147632378414</v>
       </c>
       <c r="AE21" s="5">
-        <v>-808.4480679325643</v>
+        <v>-724.7481461521602</v>
       </c>
       <c r="AF21" s="4">
-        <v>-0.05033692669057388</v>
+        <v>-0.04779889542432414</v>
       </c>
       <c r="AG21" s="4">
-        <v>-0.0769396659653262</v>
+        <v>-0.07584915142797255</v>
       </c>
       <c r="AH21" s="4">
-        <v>-0.09545053178043195</v>
+        <v>-0.09508568952198215</v>
       </c>
       <c r="AI21" s="4">
-        <v>-0.1241570261686006</v>
+        <v>-0.1220072625820422</v>
       </c>
       <c r="AJ21" s="4">
-        <v>-0.09328489273847684</v>
+        <v>-0.08141115879413696</v>
       </c>
     </row>
     <row r="22" spans="1:36">
@@ -2605,106 +2605,106 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D22" s="2">
-        <v>16391</v>
+        <v>15641.5</v>
       </c>
       <c r="E22" s="2">
-        <v>17128</v>
+        <v>16334</v>
       </c>
       <c r="F22" s="2">
-        <v>17898.5</v>
+        <v>17074.5</v>
       </c>
       <c r="G22" s="2">
-        <v>18680</v>
+        <v>17799.5</v>
       </c>
       <c r="H22" s="2">
-        <v>19519.5</v>
+        <v>18576</v>
       </c>
       <c r="I22" s="2">
-        <v>20376</v>
+        <v>19272.5</v>
       </c>
       <c r="J22" s="3">
-        <v>426359929.2902872</v>
+        <v>416034727.2154328</v>
       </c>
       <c r="K22" s="3">
-        <v>432474274.658032</v>
+        <v>427141600.4546539</v>
       </c>
       <c r="L22" s="3">
-        <v>449222697.4697044</v>
+        <v>439705615.2768472</v>
       </c>
       <c r="M22" s="3">
-        <v>464142166.9448936</v>
+        <v>454443916.3622451</v>
       </c>
       <c r="N22" s="3">
-        <v>450846100.1427507</v>
+        <v>437492598.3909744</v>
       </c>
       <c r="O22" s="3">
-        <v>496984296.7867174</v>
+        <v>490125826.270413</v>
       </c>
       <c r="P22" s="4">
-        <v>0.7034482758620689</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="Q22" s="4">
-        <v>0.7379310344827587</v>
+        <v>0.7007299270072993</v>
       </c>
       <c r="R22" s="4">
-        <v>0.7517241379310344</v>
+        <v>0.7226277372262774</v>
       </c>
       <c r="S22" s="4">
-        <v>0.8137931034482758</v>
+        <v>0.8029197080291971</v>
       </c>
       <c r="T22" s="4">
-        <v>0.7172413793103448</v>
+        <v>0.6934306569343066</v>
       </c>
       <c r="U22" s="5">
-        <v>26011.83144959351</v>
+        <v>26598.13491132134</v>
       </c>
       <c r="V22" s="5">
-        <v>25249.54896415414</v>
+        <v>26150.45919276686</v>
       </c>
       <c r="W22" s="5">
-        <v>25098.34329523169</v>
+        <v>25752.18104640529</v>
       </c>
       <c r="X22" s="5">
-        <v>24847.01107842043</v>
+        <v>25531.27426962809</v>
       </c>
       <c r="Y22" s="5">
-        <v>23097.21561222115</v>
+        <v>23551.49646807571</v>
       </c>
       <c r="Z22" s="5">
-        <v>24390.67023884557</v>
+        <v>25431.35692154173</v>
       </c>
       <c r="AA22" s="5">
-        <v>-762.282485439373</v>
+        <v>-447.6757185544811</v>
       </c>
       <c r="AB22" s="5">
-        <v>-913.4881543618139</v>
+        <v>-845.9538649160495</v>
       </c>
       <c r="AC22" s="5">
-        <v>-1164.820371173078</v>
+        <v>-1066.860641693256</v>
       </c>
       <c r="AD22" s="5">
-        <v>-2914.615837372359</v>
+        <v>-3046.638443245633</v>
       </c>
       <c r="AE22" s="5">
-        <v>-1621.161210747938</v>
+        <v>-1166.777989779614</v>
       </c>
       <c r="AF22" s="4">
-        <v>-0.02930522162257376</v>
+        <v>-0.01683109436233177</v>
       </c>
       <c r="AG22" s="4">
-        <v>-0.03511817905371251</v>
+        <v>-0.03180500692008947</v>
       </c>
       <c r="AH22" s="4">
-        <v>-0.0447804059252922</v>
+        <v>-0.04011035530311391</v>
       </c>
       <c r="AI22" s="4">
-        <v>-0.1120496203052979</v>
+        <v>-0.1145433111533263</v>
       </c>
       <c r="AJ22" s="4">
-        <v>-0.06232399336776695</v>
+        <v>-0.04386690997957832</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -2713,106 +2713,106 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2">
-        <v>16299.5</v>
+        <v>18325</v>
       </c>
       <c r="E23" s="2">
-        <v>17186</v>
+        <v>19231</v>
       </c>
       <c r="F23" s="2">
-        <v>18106.5</v>
+        <v>20215.5</v>
       </c>
       <c r="G23" s="2">
-        <v>19131.5</v>
+        <v>21267</v>
       </c>
       <c r="H23" s="2">
-        <v>20160.5</v>
+        <v>22301</v>
       </c>
       <c r="I23" s="2">
-        <v>21066.5</v>
+        <v>23355.5</v>
       </c>
       <c r="J23" s="3">
-        <v>414766752.3330437</v>
+        <v>473491145.306876</v>
       </c>
       <c r="K23" s="3">
-        <v>420067827.3318989</v>
+        <v>475245095.9137294</v>
       </c>
       <c r="L23" s="3">
-        <v>440338316.4521583</v>
+        <v>493816554.8453811</v>
       </c>
       <c r="M23" s="3">
-        <v>456857146.6176291</v>
+        <v>513448258.4066541</v>
       </c>
       <c r="N23" s="3">
-        <v>446981861.3823226</v>
+        <v>502415412.9908173</v>
       </c>
       <c r="O23" s="3">
-        <v>491850863.5321556</v>
+        <v>551343594.2461548</v>
       </c>
       <c r="P23" s="4">
-        <v>0.7518248175182481</v>
+        <v>0.7986577181208053</v>
       </c>
       <c r="Q23" s="4">
-        <v>0.7153284671532847</v>
+        <v>0.825503355704698</v>
       </c>
       <c r="R23" s="4">
-        <v>0.7372262773722628</v>
+        <v>0.785234899328859</v>
       </c>
       <c r="S23" s="4">
-        <v>0.8613138686131386</v>
+        <v>0.8993288590604027</v>
       </c>
       <c r="T23" s="4">
-        <v>0.7591240875912408</v>
+        <v>0.7449664429530202</v>
       </c>
       <c r="U23" s="5">
-        <v>25446.59359692283</v>
+        <v>25838.53453243525</v>
       </c>
       <c r="V23" s="5">
-        <v>24442.44311252758</v>
+        <v>24712.44843813267</v>
       </c>
       <c r="W23" s="5">
-        <v>24319.35031354256</v>
+        <v>24427.62013531108</v>
       </c>
       <c r="X23" s="5">
-        <v>23879.83935486653</v>
+        <v>24142.95661854771</v>
       </c>
       <c r="Y23" s="5">
-        <v>22171.16943440503</v>
+        <v>22528.82888618525</v>
       </c>
       <c r="Z23" s="5">
-        <v>23347.53582855034</v>
+        <v>23606.58492629808</v>
       </c>
       <c r="AA23" s="5">
-        <v>-1004.150484395253</v>
+        <v>-1126.086094302584</v>
       </c>
       <c r="AB23" s="5">
-        <v>-1127.24328338027</v>
+        <v>-1410.914397124172</v>
       </c>
       <c r="AC23" s="5">
-        <v>-1566.754242056297</v>
+        <v>-1695.577913887548</v>
       </c>
       <c r="AD23" s="5">
-        <v>-3275.4241625178</v>
+        <v>-3309.70564625</v>
       </c>
       <c r="AE23" s="5">
-        <v>-2099.057768372495</v>
+        <v>-2231.949606137176</v>
       </c>
       <c r="AF23" s="4">
-        <v>-0.03946109645562468</v>
+        <v>-0.04358165486858401</v>
       </c>
       <c r="AG23" s="4">
-        <v>-0.04429839613254105</v>
+        <v>-0.05460504717684522</v>
       </c>
       <c r="AH23" s="4">
-        <v>-0.061570293724727</v>
+        <v>-0.06562206195398113</v>
       </c>
       <c r="AI23" s="4">
-        <v>-0.1287175884678681</v>
+        <v>-0.1280918483242658</v>
       </c>
       <c r="AJ23" s="4">
-        <v>-0.08248875278246781</v>
+        <v>-0.08638065766986114</v>
       </c>
     </row>
     <row r="24" spans="1:36">
@@ -2821,106 +2821,106 @@
         <v>21</v>
       </c>
       <c r="C24" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="2">
-        <v>17751</v>
+        <v>16451.5</v>
       </c>
       <c r="E24" s="2">
-        <v>18411.5</v>
+        <v>17064.5</v>
       </c>
       <c r="F24" s="2">
-        <v>19125</v>
+        <v>17805.5</v>
       </c>
       <c r="G24" s="2">
-        <v>19894</v>
+        <v>18772.5</v>
       </c>
       <c r="H24" s="2">
-        <v>20888.5</v>
+        <v>19857</v>
       </c>
       <c r="I24" s="2">
-        <v>21775.5</v>
+        <v>20708</v>
       </c>
       <c r="J24" s="3">
-        <v>441962191.3474731</v>
+        <v>430968512.6597996</v>
       </c>
       <c r="K24" s="3">
-        <v>440660526.999097</v>
+        <v>434604644.4991862</v>
       </c>
       <c r="L24" s="3">
-        <v>453561301.1246108</v>
+        <v>447689065.0583359</v>
       </c>
       <c r="M24" s="3">
-        <v>467778609.3672934</v>
+        <v>463546481.5256913</v>
       </c>
       <c r="N24" s="3">
-        <v>452821747.3176781</v>
+        <v>457232597.4107404</v>
       </c>
       <c r="O24" s="3">
-        <v>497672029.1593095</v>
+        <v>504970830.7259223</v>
       </c>
       <c r="P24" s="4">
-        <v>0.762962962962963</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="Q24" s="4">
-        <v>0.7925925925925926</v>
+        <v>0.753731343283582</v>
       </c>
       <c r="R24" s="4">
-        <v>0.7777777777777778</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="S24" s="4">
-        <v>0.8518518518518519</v>
+        <v>0.8656716417910447</v>
       </c>
       <c r="T24" s="4">
-        <v>0.7851851851851852</v>
+        <v>0.7611940298507462</v>
       </c>
       <c r="U24" s="5">
-        <v>24897.87568855124</v>
+        <v>26196.30505788527</v>
       </c>
       <c r="V24" s="5">
-        <v>23933.98294539266</v>
+        <v>25468.34917514057</v>
       </c>
       <c r="W24" s="5">
-        <v>23715.62358821494</v>
+        <v>25143.30207286153</v>
       </c>
       <c r="X24" s="5">
-        <v>23513.55229553099</v>
+        <v>24692.84759758643</v>
       </c>
       <c r="Y24" s="5">
-        <v>21678.04042021582</v>
+        <v>23026.26768448106</v>
       </c>
       <c r="Z24" s="5">
-        <v>22854.67746592774</v>
+        <v>24385.30185077856</v>
       </c>
       <c r="AA24" s="5">
-        <v>-963.8927431585798</v>
+        <v>-727.9558827447072</v>
       </c>
       <c r="AB24" s="5">
-        <v>-1182.252100336304</v>
+        <v>-1053.002985023748</v>
       </c>
       <c r="AC24" s="5">
-        <v>-1384.323393020259</v>
+        <v>-1503.457460298843</v>
       </c>
       <c r="AD24" s="5">
-        <v>-3219.835268335428</v>
+        <v>-3170.037373404215</v>
       </c>
       <c r="AE24" s="5">
-        <v>-2043.198222623505</v>
+        <v>-1811.003207106718</v>
       </c>
       <c r="AF24" s="4">
-        <v>-0.0387138547567657</v>
+        <v>-0.02778849464213229</v>
       </c>
       <c r="AG24" s="4">
-        <v>-0.04748405507060738</v>
+        <v>-0.04019662248920053</v>
       </c>
       <c r="AH24" s="4">
-        <v>-0.05560006043635324</v>
+        <v>-0.05739196642338273</v>
       </c>
       <c r="AI24" s="4">
-        <v>-0.129321686260005</v>
+        <v>-0.1210108588367508</v>
       </c>
       <c r="AJ24" s="4">
-        <v>-0.08206315463142211</v>
+        <v>-0.06913200938472019</v>
       </c>
     </row>
     <row r="25" spans="1:36">
@@ -2929,106 +2929,106 @@
         <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="2">
-        <v>16082.5</v>
+        <v>16896</v>
       </c>
       <c r="E25" s="2">
-        <v>16707.5</v>
+        <v>17683</v>
       </c>
       <c r="F25" s="2">
-        <v>17421</v>
+        <v>18425</v>
       </c>
       <c r="G25" s="2">
-        <v>18510.5</v>
+        <v>19449.5</v>
       </c>
       <c r="H25" s="2">
-        <v>19581.5</v>
+        <v>20503.5</v>
       </c>
       <c r="I25" s="2">
-        <v>20602</v>
+        <v>21610.5</v>
       </c>
       <c r="J25" s="3">
-        <v>432706835.6115571</v>
+        <v>463914031.7803795</v>
       </c>
       <c r="K25" s="3">
-        <v>435716003.0310562</v>
+        <v>468913573.9347031</v>
       </c>
       <c r="L25" s="3">
-        <v>449282574.2299204</v>
+        <v>481868247.7780893</v>
       </c>
       <c r="M25" s="3">
-        <v>465992377.0015807</v>
+        <v>499215976.3903409</v>
       </c>
       <c r="N25" s="3">
-        <v>463566076.8645633</v>
+        <v>492630510.0988354</v>
       </c>
       <c r="O25" s="3">
-        <v>504479031.8391779</v>
+        <v>548554559.0037756</v>
       </c>
       <c r="P25" s="4">
-        <v>0.723404255319149</v>
+        <v>0.7</v>
       </c>
       <c r="Q25" s="4">
-        <v>0.7375886524822695</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="R25" s="4">
-        <v>0.8226950354609929</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="S25" s="4">
-        <v>0.8723404255319149</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="T25" s="4">
-        <v>0.8226950354609929</v>
+        <v>0.7214285714285714</v>
       </c>
       <c r="U25" s="5">
-        <v>26905.44601968333</v>
+        <v>27457.03313094102</v>
       </c>
       <c r="V25" s="5">
-        <v>26079.06646901429</v>
+        <v>26517.76134901901</v>
       </c>
       <c r="W25" s="5">
-        <v>25789.71208483557</v>
+        <v>26152.95781699264</v>
       </c>
       <c r="X25" s="5">
-        <v>25174.48891178416</v>
+        <v>25667.29100441352</v>
       </c>
       <c r="Y25" s="5">
-        <v>23673.67550313119</v>
+        <v>24026.65447844687</v>
       </c>
       <c r="Z25" s="5">
-        <v>24486.89602170556</v>
+        <v>25383.70509723401</v>
       </c>
       <c r="AA25" s="5">
-        <v>-826.3795506690403</v>
+        <v>-939.2717819220161</v>
       </c>
       <c r="AB25" s="5">
-        <v>-1115.733934847762</v>
+        <v>-1304.075313948386</v>
       </c>
       <c r="AC25" s="5">
-        <v>-1730.957107899168</v>
+        <v>-1789.742126527497</v>
       </c>
       <c r="AD25" s="5">
-        <v>-3231.77051655214</v>
+        <v>-3430.37865249415</v>
       </c>
       <c r="AE25" s="5">
-        <v>-2418.549997977771</v>
+        <v>-2073.32803370701</v>
       </c>
       <c r="AF25" s="4">
-        <v>-0.03071421116990525</v>
+        <v>-0.03420878641340031</v>
       </c>
       <c r="AG25" s="4">
-        <v>-0.0414687024341287</v>
+        <v>-0.04749512839676906</v>
       </c>
       <c r="AH25" s="4">
-        <v>-0.06433482301809246</v>
+        <v>-0.06518337644101313</v>
       </c>
       <c r="AI25" s="4">
-        <v>-0.1201158499356547</v>
+        <v>-0.1249362462482698</v>
       </c>
       <c r="AJ25" s="4">
-        <v>-0.08989072309778556</v>
+        <v>-0.07551172859133859</v>
       </c>
     </row>
     <row r="26" spans="1:36">
@@ -3037,106 +3037,106 @@
         <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D26" s="2">
-        <v>8934.5</v>
+        <v>9036</v>
       </c>
       <c r="E26" s="2">
-        <v>9326</v>
+        <v>9418.5</v>
       </c>
       <c r="F26" s="2">
-        <v>9926.5</v>
+        <v>10036</v>
       </c>
       <c r="G26" s="2">
-        <v>10495.5</v>
+        <v>10559</v>
       </c>
       <c r="H26" s="2">
-        <v>10807.5</v>
+        <v>10880</v>
       </c>
       <c r="I26" s="2">
-        <v>11149</v>
+        <v>11181.5</v>
       </c>
       <c r="J26" s="3">
-        <v>269736330.615023</v>
+        <v>287659396.8653862</v>
       </c>
       <c r="K26" s="3">
-        <v>270054155.6820069</v>
+        <v>287721352.094196</v>
       </c>
       <c r="L26" s="3">
-        <v>279967966.0888224</v>
+        <v>297745254.4498891</v>
       </c>
       <c r="M26" s="3">
-        <v>291680263.1913652</v>
+        <v>310111098.6817141</v>
       </c>
       <c r="N26" s="3">
-        <v>285600194.8386981</v>
+        <v>303319991.5755492</v>
       </c>
       <c r="O26" s="3">
-        <v>301101278.5534647</v>
+        <v>316799577.0681786</v>
       </c>
       <c r="P26" s="4">
-        <v>0.6638655462184874</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.7058823529411765</v>
+        <v>0.7295081967213115</v>
       </c>
       <c r="R26" s="4">
-        <v>0.7647058823529411</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="S26" s="4">
-        <v>0.8235294117647058</v>
+        <v>0.860655737704918</v>
       </c>
       <c r="T26" s="4">
-        <v>0.7394957983193278</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="U26" s="5">
-        <v>30190.42258828395</v>
+        <v>31834.81594349117</v>
       </c>
       <c r="V26" s="5">
-        <v>28957.12585052615</v>
+        <v>30548.53236653352</v>
       </c>
       <c r="W26" s="5">
-        <v>28204.09671977257</v>
+        <v>29667.7216470595</v>
       </c>
       <c r="X26" s="5">
-        <v>27790.98310622316</v>
+        <v>29369.36250418734</v>
       </c>
       <c r="Y26" s="5">
-        <v>26426.11101907917</v>
+        <v>27878.67569628209</v>
       </c>
       <c r="Z26" s="5">
-        <v>27007.02112776614</v>
+        <v>28332.47570256035</v>
       </c>
       <c r="AA26" s="5">
-        <v>-1233.296737757795</v>
+        <v>-1286.283576957649</v>
       </c>
       <c r="AB26" s="5">
-        <v>-1986.325868511383</v>
+        <v>-2167.094296431671</v>
       </c>
       <c r="AC26" s="5">
-        <v>-2399.439482060789</v>
+        <v>-2465.45343930383</v>
       </c>
       <c r="AD26" s="5">
-        <v>-3764.311569204783</v>
+        <v>-3956.140247209074</v>
       </c>
       <c r="AE26" s="5">
-        <v>-3183.401460517809</v>
+        <v>-3502.340240930815</v>
       </c>
       <c r="AF26" s="4">
-        <v>-0.04085059538836677</v>
+        <v>-0.04040493211083374</v>
       </c>
       <c r="AG26" s="4">
-        <v>-0.06579324495054339</v>
+        <v>-0.06807309017518437</v>
       </c>
       <c r="AH26" s="4">
-        <v>-0.07947684319569426</v>
+        <v>-0.07744519219712676</v>
       </c>
       <c r="AI26" s="4">
-        <v>-0.1246856203551654</v>
+        <v>-0.1242708691713964</v>
       </c>
       <c r="AJ26" s="4">
-        <v>-0.1054440841696995</v>
+        <v>-0.1100160354986092</v>
       </c>
     </row>
   </sheetData>
